--- a/server/export.xlsx
+++ b/server/export.xlsx
@@ -4,43 +4,757 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="ExampleSheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Омс 2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Author 1</t>
-  </si>
-  <si>
-    <t>BCD</t>
-  </si>
-  <si>
-    <t>Author Name 3</t>
-  </si>
-  <si>
-    <t>FGH</t>
-  </si>
-  <si>
-    <t>Author Name 4</t>
-  </si>
-  <si>
-    <t>PQR</t>
-  </si>
-  <si>
-    <t>Author 5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>USL</t>
+  </si>
+  <si>
+    <t>NUM_DV</t>
+  </si>
+  <si>
+    <t>NUM_DOC</t>
+  </si>
+  <si>
+    <t>NUM_CI</t>
+  </si>
+  <si>
+    <t>TOTAL_PRICE</t>
+  </si>
+  <si>
+    <t>Прием врача-кардиолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>19821.48</t>
+  </si>
+  <si>
+    <t>Прием врача-кардиолога лечебно-диагностический, повторный, амб.</t>
+  </si>
+  <si>
+    <t>45100</t>
+  </si>
+  <si>
+    <t>Прием врача-эндокринолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>111.77</t>
+  </si>
+  <si>
+    <t>Прием врача-физиотерапевта лечебный, первичный, амб.</t>
+  </si>
+  <si>
+    <t>1540.25</t>
+  </si>
+  <si>
+    <t>Прием врача-физиотерапевта лечебный, повторный, амб.</t>
+  </si>
+  <si>
+    <t>1541.76</t>
+  </si>
+  <si>
+    <t>Прием врача-офтальмолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>156.84</t>
+  </si>
+  <si>
+    <t>Прием врача-отоларинголога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>84.53</t>
+  </si>
+  <si>
+    <t>Прием врача-невролога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>446.8</t>
+  </si>
+  <si>
+    <t>Прием врача-невролога лечебно-диагностический, повторный, амб.</t>
+  </si>
+  <si>
+    <t>74.07</t>
+  </si>
+  <si>
+    <t>Консультация врача-кардиолога</t>
+  </si>
+  <si>
+    <t>136332.48</t>
+  </si>
+  <si>
+    <t>Консультация врача-эндокринолога</t>
+  </si>
+  <si>
+    <t>10833.60</t>
+  </si>
+  <si>
+    <t>Консультация врача-хирурга</t>
+  </si>
+  <si>
+    <t>29962.24</t>
+  </si>
+  <si>
+    <t>Консультация врача-офтальмолога</t>
+  </si>
+  <si>
+    <t>3212</t>
+  </si>
+  <si>
+    <t>Консультация врача-невролога</t>
+  </si>
+  <si>
+    <t>10596.99</t>
+  </si>
+  <si>
+    <t>Консультация снимков, трактовка исследований специалистами, выполненных в других МО</t>
+  </si>
+  <si>
+    <t>259.82</t>
+  </si>
+  <si>
+    <t>Определение поля взора ( поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>624.6</t>
+  </si>
+  <si>
+    <t>Иссл. глазного дна с помощью щелевой лампы (биомикроофтальмоскопия) (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>2831.01</t>
+  </si>
+  <si>
+    <t>Биомикроскопия конъюнктивы и эписклеры переднего отрезка глаза и глубоких преломляющих сред (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>2458.93</t>
+  </si>
+  <si>
+    <t>Офтальмотонометрия (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>33.53</t>
+  </si>
+  <si>
+    <t>Рефрактометрия компьютерная (консультативный уровень)</t>
+  </si>
+  <si>
+    <t>963.3</t>
+  </si>
+  <si>
+    <t>Офтальмотонометрия компьютерная (консультативный уровень)</t>
+  </si>
+  <si>
+    <t>847.98</t>
+  </si>
+  <si>
+    <t>Формирование одной кариозной полости</t>
+  </si>
+  <si>
+    <t>1084.05</t>
+  </si>
+  <si>
+    <t>Ампутация пульпы</t>
+  </si>
+  <si>
+    <t>59.93</t>
+  </si>
+  <si>
+    <t>Экстирпация, удаление распада из 1 канала</t>
+  </si>
+  <si>
+    <t>323.79</t>
+  </si>
+  <si>
+    <t>Импрегнация или медикаментозная  обработка 1 канала.</t>
+  </si>
+  <si>
+    <t>342.27</t>
+  </si>
+  <si>
+    <t>Пломбирование одного канала пастой</t>
+  </si>
+  <si>
+    <t>282.04</t>
+  </si>
+  <si>
+    <t>Наложение мышьяковистой пасты</t>
+  </si>
+  <si>
+    <t>39.53</t>
+  </si>
+  <si>
+    <t>Наложение временной пломбы</t>
+  </si>
+  <si>
+    <t>286.5</t>
+  </si>
+  <si>
+    <t>Механическое и химическое расширение облитерированного  корневого  канала</t>
+  </si>
+  <si>
+    <t>171.14</t>
+  </si>
+  <si>
+    <t>Снятие временной пломбы</t>
+  </si>
+  <si>
+    <t>290.85</t>
+  </si>
+  <si>
+    <t>Снятие пломбы, трепанации коронки</t>
+  </si>
+  <si>
+    <t>493.99</t>
+  </si>
+  <si>
+    <t>Снятие зубных отложений в области 1 зуба (ручным/механическим способом)</t>
+  </si>
+  <si>
+    <t>276.12</t>
+  </si>
+  <si>
+    <t>Медикаментозная обработка патологических пародонтальных карманов</t>
+  </si>
+  <si>
+    <t>799.84</t>
+  </si>
+  <si>
+    <t>Кюретаж в области 1 патологического кармана</t>
+  </si>
+  <si>
+    <t>116.31</t>
+  </si>
+  <si>
+    <t>Перевязка после сложного хирургического вмешательства</t>
+  </si>
+  <si>
+    <t>806.54</t>
+  </si>
+  <si>
+    <t>Полирование пломбы</t>
+  </si>
+  <si>
+    <t>1068.0</t>
+  </si>
+  <si>
+    <t>Чтение рентгенограммы</t>
+  </si>
+  <si>
+    <t>113.67</t>
+  </si>
+  <si>
+    <t>Пломба из цемента</t>
+  </si>
+  <si>
+    <t>654.81</t>
+  </si>
+  <si>
+    <t>Пломба из композитного материала химического отверждения</t>
+  </si>
+  <si>
+    <t>2095.35</t>
+  </si>
+  <si>
+    <t>Прием врача-стоматолога первичный, амб.</t>
+  </si>
+  <si>
+    <t>1638.0</t>
+  </si>
+  <si>
+    <t>Прием врача-стоматолога, повторный, амб.</t>
+  </si>
+  <si>
+    <t>1993.00</t>
+  </si>
+  <si>
+    <t>ЭКГ (в 12-ти отведениях) ПА5-02</t>
+  </si>
+  <si>
+    <t>68903.12</t>
+  </si>
+  <si>
+    <t>Тредмилтест</t>
+  </si>
+  <si>
+    <t>40214.44</t>
+  </si>
+  <si>
+    <t>Холтеровское мониторирование при длительности  мониторирования до 24 часов</t>
+  </si>
+  <si>
+    <t>88996.65</t>
+  </si>
+  <si>
+    <t>Длительное мониторирование артериального давления свободно передвигающегося человека</t>
+  </si>
+  <si>
+    <t>823.38</t>
+  </si>
+  <si>
+    <t>Исследование скорости оседания эритроцитов</t>
+  </si>
+  <si>
+    <t>17154.15</t>
+  </si>
+  <si>
+    <t>Комплексное исследование на гематологическом анализаторе с функцией дифференциации лейкоцитов по 5-ти популяциям (без определения ретикулоцитов)</t>
+  </si>
+  <si>
+    <t>62287.33</t>
+  </si>
+  <si>
+    <t>Исследование мочи на мочевом анализаторе</t>
+  </si>
+  <si>
+    <t>4350.24</t>
+  </si>
+  <si>
+    <t>Исследование уровня глюкозы и (или) лактата в крови с помощью анализатора</t>
+  </si>
+  <si>
+    <t>119.2</t>
+  </si>
+  <si>
+    <t>Определение одного биохимического показателя в крови с выдачей результата в количественном виде с определенной размерностью.</t>
+  </si>
+  <si>
+    <t>210279.76</t>
+  </si>
+  <si>
+    <t>Определение одного биохимического показателя в моче и других биологических жидкостях с выдачей результата в количественном виде с определенной размерностью.</t>
+  </si>
+  <si>
+    <t>1096.48</t>
+  </si>
+  <si>
+    <t>Коагулограмма (Исследование на автоматическом коагулометре)</t>
+  </si>
+  <si>
+    <t>36890.61</t>
+  </si>
+  <si>
+    <t>Определение протромбинового (тромбопластинового) времени с расчетом МНО</t>
+  </si>
+  <si>
+    <t>97.92</t>
+  </si>
+  <si>
+    <t>Исследование уровня  гликированного гемоглобина в крови</t>
+  </si>
+  <si>
+    <t>12973.87</t>
+  </si>
+  <si>
+    <t>Исследование уровня паратиреоидного гормона в крови</t>
+  </si>
+  <si>
+    <t>167.45</t>
+  </si>
+  <si>
+    <t>Определение одного антигена групп крови по системе (АВО, подгруппы и групп крови меньшего значения)</t>
+  </si>
+  <si>
+    <t>5771.52</t>
+  </si>
+  <si>
+    <t>Определение одного аутоантитела</t>
+  </si>
+  <si>
+    <t>297.3</t>
+  </si>
+  <si>
+    <t>Rg-графия органов грудной клетки</t>
+  </si>
+  <si>
+    <t>274.69</t>
+  </si>
+  <si>
+    <t>Rg-скопия и Rg-графия сердца с контрастир. пищевода (3 проекции)</t>
+  </si>
+  <si>
+    <t>62895.06</t>
+  </si>
+  <si>
+    <t>Rg-графия шейного,грудн.,поясн.-крестц.отдела позвоночника,копчика</t>
+  </si>
+  <si>
+    <t>225.36</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия щитовидной железы</t>
+  </si>
+  <si>
+    <t>11088.09</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия миокарда</t>
+  </si>
+  <si>
+    <t>181613.52</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия легких</t>
+  </si>
+  <si>
+    <t>4338.04</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия костей</t>
+  </si>
+  <si>
+    <t>37754.88</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия паращитовидных желез</t>
+  </si>
+  <si>
+    <t>6707.11</t>
+  </si>
+  <si>
+    <t>УЗИ почек, надпочечников и забрюшинного пространства</t>
+  </si>
+  <si>
+    <t>7246.79</t>
+  </si>
+  <si>
+    <t>УЗИ щитовидной железы</t>
+  </si>
+  <si>
+    <t>758.43</t>
+  </si>
+  <si>
+    <t>Эхокардиография с допплеровским анализом</t>
+  </si>
+  <si>
+    <t>119778.4</t>
+  </si>
+  <si>
+    <t>Эхокардиография чреспищеводная</t>
+  </si>
+  <si>
+    <t>510.98</t>
+  </si>
+  <si>
+    <t>Стресс-эхоКГ с физической нагрузкой (на велоэргометре или тредмиле)</t>
+  </si>
+  <si>
+    <t>36992.29</t>
+  </si>
+  <si>
+    <t>УЗ-допплерография в дуплексном режиме парных сосудов (артерий или вен)</t>
+  </si>
+  <si>
+    <t>11629.2</t>
+  </si>
+  <si>
+    <t>Электрофорез лекарственный</t>
+  </si>
+  <si>
+    <t>201.88</t>
+  </si>
+  <si>
+    <t>Магнитотерапия (1 поле)</t>
+  </si>
+  <si>
+    <t>496.86</t>
+  </si>
+  <si>
+    <t>Магнитотерапия (2 поля)</t>
+  </si>
+  <si>
+    <t>1561.81</t>
+  </si>
+  <si>
+    <t>Диадинамотерапия (1 поле)</t>
+  </si>
+  <si>
+    <t>642.69</t>
+  </si>
+  <si>
+    <t>Диадинамотерапия (2 поля)</t>
+  </si>
+  <si>
+    <t>2960.88</t>
+  </si>
+  <si>
+    <t>Микроволновая терапия (ДМВ,СМВ) (1 поле)</t>
+  </si>
+  <si>
+    <t>554.19</t>
+  </si>
+  <si>
+    <t>УЗ-терапия (1-2 поля)</t>
+  </si>
+  <si>
+    <t>51.06</t>
+  </si>
+  <si>
+    <t>Фонофорез (1-2 поля)</t>
+  </si>
+  <si>
+    <t>1534.39</t>
+  </si>
+  <si>
+    <t>УВЧ-терапия (1 поле)</t>
+  </si>
+  <si>
+    <t>420.42</t>
+  </si>
+  <si>
+    <t>ОКУФ-терапия (2 поля)</t>
+  </si>
+  <si>
+    <t>160.2</t>
+  </si>
+  <si>
+    <t>Аэрозольтерапия,электроаэрозольтерапия, УЗ-ингаляции</t>
+  </si>
+  <si>
+    <t>485.75</t>
+  </si>
+  <si>
+    <t>Сегментарный массаж шейно-воротниковой области и головы</t>
+  </si>
+  <si>
+    <t>587.28</t>
+  </si>
+  <si>
+    <t>Аутопсия (вскрытие) 4-й категории сложности</t>
+  </si>
+  <si>
+    <t>11868.95</t>
+  </si>
+  <si>
+    <t>Синдромы головной боли. Расстройства вегетативной нервной системы</t>
+  </si>
+  <si>
+    <t>89700.42</t>
+  </si>
+  <si>
+    <t>Спондилез и связанные с ним состояния. Остеохондроз позвоночника</t>
+  </si>
+  <si>
+    <t>28874.75</t>
+  </si>
+  <si>
+    <t>Острый перикардит (кроме ревматического)</t>
+  </si>
+  <si>
+    <t>36651.58</t>
+  </si>
+  <si>
+    <t>Гипертоническая болезнь, артериальная гипертония без сердечной недостаточности и ХПН. Нейроциркуляторная дистония</t>
+  </si>
+  <si>
+    <t>5126759.01</t>
+  </si>
+  <si>
+    <t>Гипертоническая болезнь, артериальная гипертония с сердечной недостаточностью и ХПН</t>
+  </si>
+  <si>
+    <t>198930</t>
+  </si>
+  <si>
+    <t>Хроническая ишемическая болезнь сердца. Хронические сосудистые болезни</t>
+  </si>
+  <si>
+    <t>5529547.52</t>
+  </si>
+  <si>
+    <t>Плановое коронарографическое исследование</t>
+  </si>
+  <si>
+    <t>57629.52</t>
+  </si>
+  <si>
+    <t>Другие острые и подострые формы ишемической болезни сердца</t>
+  </si>
+  <si>
+    <t>32351.47</t>
+  </si>
+  <si>
+    <t>Острый инфаркт миокарда неосложненный</t>
+  </si>
+  <si>
+    <t>218588.05</t>
+  </si>
+  <si>
+    <t>Острый инфаркт миокарда осложненный</t>
+  </si>
+  <si>
+    <t>61322.66</t>
+  </si>
+  <si>
+    <t>Сердечная недостаточность застойного характера</t>
+  </si>
+  <si>
+    <t>3782293.73</t>
+  </si>
+  <si>
+    <t>Гипертрофическая кардиомиопатия</t>
+  </si>
+  <si>
+    <t>174142.75</t>
+  </si>
+  <si>
+    <t>Дилатационная кардиомиопатия</t>
+  </si>
+  <si>
+    <t>177224.37</t>
+  </si>
+  <si>
+    <t>Нарушения проводимости сердца</t>
+  </si>
+  <si>
+    <t>34683.72</t>
+  </si>
+  <si>
+    <t>Пароксизмальная тахикардия</t>
+  </si>
+  <si>
+    <t>280538.58</t>
+  </si>
+  <si>
+    <t>Фибрилляция и мерцание предсердий</t>
+  </si>
+  <si>
+    <t>3936000</t>
+  </si>
+  <si>
+    <t>Экстрасистолическая аритмия</t>
+  </si>
+  <si>
+    <t>104033.04</t>
+  </si>
+  <si>
+    <t>Синдром слабости синусового узла</t>
+  </si>
+  <si>
+    <t>43293.58</t>
+  </si>
+  <si>
+    <t>Фибрилляция и мерцание предсердий (с оперативным пособием)</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>Острая очаговая пневмония неосложненная</t>
+  </si>
+  <si>
+    <t>15718.04</t>
+  </si>
+  <si>
+    <t>Хроническая легочно-сердечная недостаточность</t>
+  </si>
+  <si>
+    <t>868305.24</t>
+  </si>
+  <si>
+    <t>Тромбоз и эмболия аорты и других артерий.Аневризма</t>
+  </si>
+  <si>
+    <t>29381.35</t>
+  </si>
+  <si>
+    <t>Артериосклеротическая болезнь и другие поражения сосудов</t>
+  </si>
+  <si>
+    <t>177995.43</t>
+  </si>
+  <si>
+    <t>Варикозное расширение вен нижних конечностей без осложнений.Аномалия развития системы кровообращения</t>
+  </si>
+  <si>
+    <t>41617.4</t>
+  </si>
+  <si>
+    <t>Флебит и тромбофлебит поверхностных вен нижней конечности</t>
+  </si>
+  <si>
+    <t>21572.67</t>
+  </si>
+  <si>
+    <t>Ревматические пороки сердца</t>
+  </si>
+  <si>
+    <t>77630.12</t>
+  </si>
+  <si>
+    <t>Реанимация 1-ой категории сложности</t>
+  </si>
+  <si>
+    <t>1393286</t>
+  </si>
+  <si>
+    <t>Реанимация 2-ой категории сложности</t>
+  </si>
+  <si>
+    <t>443910.72</t>
+  </si>
+  <si>
+    <t>Реанимация 3-ей категории сложности</t>
+  </si>
+  <si>
+    <t>223058.9</t>
+  </si>
+  <si>
+    <t>Имплантация частотно-адаптированного однокамерного кардиостимулятора (у взрослых)</t>
+  </si>
+  <si>
+    <t>456548.37</t>
+  </si>
+  <si>
+    <t>Имплантация частотно-адаптированного двухкамерного кардиостимулятора</t>
+  </si>
+  <si>
+    <t>4293079.36</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>3333437.76</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>957732.36</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>3157935.64</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>1923234.75</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>271972.5</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -93,6 +807,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A1:G122" totalsRowCount="1" headerRowCount="1">
+  <autoFilter ref="A1:G121">
+    <filterColumn colId="0" hiddenButton="0"/>
+    <filterColumn colId="1" hiddenButton="0"/>
+    <filterColumn colId="2" hiddenButton="0"/>
+    <filterColumn colId="3" hiddenButton="0"/>
+    <filterColumn colId="4" hiddenButton="0"/>
+    <filterColumn colId="5" hiddenButton="0"/>
+    <filterColumn colId="6" hiddenButton="0"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" name="COD" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="NAME" totalsRowFunction="none"/>
+    <tableColumn id="3" name="USL" totalsRowFunction="none"/>
+    <tableColumn id="4" name="NUM_DV" totalsRowFunction="none"/>
+    <tableColumn id="5" name="NUM_DOC" totalsRowFunction="none"/>
+    <tableColumn id="6" name="NUM_CI" totalsRowFunction="none"/>
+    <tableColumn id="7" name="TOTAL_PRICE" totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,51 +1155,2805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G122"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1041</v>
+      </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <v>147</v>
+      </c>
+      <c r="E2">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1042</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>451</v>
+      </c>
+      <c r="D3">
+        <v>451</v>
+      </c>
+      <c r="E3">
+        <v>451</v>
+      </c>
+      <c r="F3">
+        <v>406</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1071</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1702</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>708</v>
+      </c>
+      <c r="D11">
+        <v>708</v>
+      </c>
+      <c r="E11">
+        <v>708</v>
+      </c>
+      <c r="F11">
+        <v>691</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1705</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1707</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1710</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1712</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1720</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7051</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7066</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7068</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9005</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9007</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9011</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9015</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9016</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9032</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9043</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9045</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9046</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9074</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9200</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9207</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9401</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9402</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>22105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>572</v>
+      </c>
+      <c r="D43">
+        <v>572</v>
+      </c>
+      <c r="E43">
+        <v>572</v>
+      </c>
+      <c r="F43">
+        <v>561</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>22128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>82</v>
+      </c>
+      <c r="D44">
+        <v>82</v>
+      </c>
+      <c r="E44">
+        <v>82</v>
+      </c>
+      <c r="F44">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>22142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>145</v>
+      </c>
+      <c r="D45">
+        <v>145</v>
+      </c>
+      <c r="E45">
+        <v>145</v>
+      </c>
+      <c r="F45">
+        <v>145</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>22511</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>25016</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <v>285</v>
+      </c>
+      <c r="D47">
+        <v>285</v>
+      </c>
+      <c r="E47">
+        <v>285</v>
+      </c>
+      <c r="F47">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>25064</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48">
+        <v>317</v>
+      </c>
+      <c r="D48">
+        <v>317</v>
+      </c>
+      <c r="E48">
+        <v>317</v>
+      </c>
+      <c r="F48">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>25125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>57</v>
+      </c>
+      <c r="E49">
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <v>54</v>
+      </c>
+      <c r="G49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>26001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>26002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>3884</v>
+      </c>
+      <c r="D51">
+        <v>389</v>
+      </c>
+      <c r="E51">
+        <v>389</v>
+      </c>
+      <c r="F51">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>26003</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>26054</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53">
+        <v>87</v>
+      </c>
+      <c r="D53">
+        <v>87</v>
+      </c>
+      <c r="E53">
+        <v>87</v>
+      </c>
+      <c r="F53">
+        <v>83</v>
+      </c>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>26056</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>26098</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>26148</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28019</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>48</v>
+      </c>
+      <c r="E57">
+        <v>48</v>
+      </c>
+      <c r="F57">
+        <v>48</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>28126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>35002</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>35004</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60">
+        <v>158</v>
+      </c>
+      <c r="D60">
+        <v>158</v>
+      </c>
+      <c r="E60">
+        <v>158</v>
+      </c>
+      <c r="F60">
+        <v>157</v>
+      </c>
+      <c r="G60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>35201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>38002</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>38003</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>24</v>
+      </c>
+      <c r="E63">
+        <v>24</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>38006</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>38013</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>38046</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>40032</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67">
+        <v>43</v>
+      </c>
+      <c r="D67">
+        <v>43</v>
+      </c>
+      <c r="E67">
+        <v>43</v>
+      </c>
+      <c r="F67">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>40051</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>40083</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69">
+        <v>365</v>
+      </c>
+      <c r="D69">
+        <v>365</v>
+      </c>
+      <c r="E69">
+        <v>365</v>
+      </c>
+      <c r="F69">
+        <v>365</v>
+      </c>
+      <c r="G69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>40084</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>40089</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71">
+        <v>47</v>
+      </c>
+      <c r="D71">
+        <v>47</v>
+      </c>
+      <c r="E71">
+        <v>47</v>
+      </c>
+      <c r="F71">
+        <v>47</v>
+      </c>
+      <c r="G71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>40091</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72">
+        <v>132</v>
+      </c>
+      <c r="D72">
+        <v>129</v>
+      </c>
+      <c r="E72">
+        <v>129</v>
+      </c>
+      <c r="F72">
+        <v>122</v>
+      </c>
+      <c r="G72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>50003</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>50006</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>26</v>
+      </c>
+      <c r="E74">
+        <v>26</v>
+      </c>
+      <c r="F74">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>50007</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75">
+        <v>47</v>
+      </c>
+      <c r="D75">
+        <v>47</v>
+      </c>
+      <c r="E75">
+        <v>47</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>50012</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>50013</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77">
+        <v>24</v>
+      </c>
+      <c r="F77">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>50031</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78">
+        <v>29</v>
+      </c>
+      <c r="D78">
+        <v>29</v>
+      </c>
+      <c r="E78">
+        <v>29</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>50037</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>50042</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80">
+        <v>29</v>
+      </c>
+      <c r="D80">
+        <v>29</v>
+      </c>
+      <c r="E80">
+        <v>29</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>50047</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>22</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>50066</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>50076</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83">
+        <v>25</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83">
+        <v>25</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>50139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>59004</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>66130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86">
+        <v>23</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>66250</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>69020</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>69070</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89">
+        <v>2323</v>
+      </c>
+      <c r="D89">
+        <v>277</v>
+      </c>
+      <c r="E89">
+        <v>277</v>
+      </c>
+      <c r="F89">
+        <v>277</v>
+      </c>
+      <c r="G89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>69080</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>69090</v>
+      </c>
+      <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91">
+        <v>2368</v>
+      </c>
+      <c r="D91">
+        <v>292</v>
+      </c>
+      <c r="E91">
+        <v>292</v>
+      </c>
+      <c r="F91">
+        <v>292</v>
+      </c>
+      <c r="G91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>69095</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>69100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>69110</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94">
+        <v>35</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>69120</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>69140</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96">
+        <v>891</v>
+      </c>
+      <c r="D96">
+        <v>74</v>
+      </c>
+      <c r="E96">
+        <v>74</v>
+      </c>
+      <c r="F96">
+        <v>74</v>
+      </c>
+      <c r="G96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>69150</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97">
+        <v>49</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>69151</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98">
+        <v>52</v>
+      </c>
+      <c r="D98">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>69170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99">
+        <v>17</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>69180</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100">
+        <v>144</v>
+      </c>
+      <c r="D100">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>69190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101">
+        <v>924</v>
+      </c>
+      <c r="D101">
+        <v>95</v>
+      </c>
+      <c r="E101">
+        <v>95</v>
+      </c>
+      <c r="F101">
+        <v>95</v>
+      </c>
+      <c r="G101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>69191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102">
+        <v>58</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>69200</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>69300</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104">
+        <v>77</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>70050</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>70120</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106">
+        <v>293</v>
+      </c>
+      <c r="D106">
+        <v>29</v>
+      </c>
+      <c r="E106">
+        <v>29</v>
+      </c>
+      <c r="F106">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>72010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>72040</v>
+      </c>
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108">
+        <v>37</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>72080</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109">
         <v>9</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>72100</v>
+      </c>
+      <c r="B110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>78160</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111">
+        <v>26</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>83010</v>
+      </c>
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112">
+        <v>170</v>
+      </c>
+      <c r="D112">
+        <v>160</v>
+      </c>
+      <c r="E112">
+        <v>149</v>
+      </c>
+      <c r="F112">
+        <v>149</v>
+      </c>
+      <c r="G112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>83020</v>
+      </c>
+      <c r="B113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113">
+        <v>19</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>83030</v>
+      </c>
+      <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>200409</v>
+      </c>
+      <c r="B115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115">
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>200510</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116">
+        <v>199</v>
+      </c>
+      <c r="D116">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>17</v>
+      </c>
+      <c r="F116">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>200518</v>
+      </c>
+      <c r="B117" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117">
+        <v>149</v>
+      </c>
+      <c r="D117">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>16</v>
+      </c>
+      <c r="F117">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>200519</v>
+      </c>
+      <c r="B118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118">
+        <v>36</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>200522</v>
+      </c>
+      <c r="B119" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119">
+        <v>148</v>
+      </c>
+      <c r="D119">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>17</v>
+      </c>
+      <c r="F119">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>200523</v>
+      </c>
+      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120">
+        <v>75</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>200524</v>
+      </c>
+      <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <headerFooter differentFirst="1">
+    <firstHeader>sdsdfasdfasdf</firstHeader>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/server/export.xlsx
+++ b/server/export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>COD</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Прием врача-кардиолога лечебно-диагностический, первичный, амб.</t>
   </si>
   <si>
-    <t>19821.48</t>
+    <t>20765.36</t>
   </si>
   <si>
     <t>Прием врача-кардиолога лечебно-диагностический, повторный, амб.</t>
   </si>
   <si>
-    <t>45100</t>
+    <t>52800</t>
   </si>
   <si>
     <t>Прием врача-эндокринолога лечебно-диагностический, первичный, амб.</t>
@@ -91,13 +91,13 @@
     <t>Консультация врача-кардиолога</t>
   </si>
   <si>
-    <t>136332.48</t>
+    <t>159439.68</t>
   </si>
   <si>
     <t>Консультация врача-эндокринолога</t>
   </si>
   <si>
-    <t>10833.60</t>
+    <t>16792.08</t>
   </si>
   <si>
     <t>Консультация врача-хирурга</t>
@@ -283,19 +283,19 @@
     <t>ЭКГ (в 12-ти отведениях) ПА5-02</t>
   </si>
   <si>
-    <t>68903.12</t>
+    <t>78419.46</t>
   </si>
   <si>
     <t>Тредмилтест</t>
   </si>
   <si>
-    <t>40214.44</t>
+    <t>40704.86</t>
   </si>
   <si>
     <t>Холтеровское мониторирование при длительности  мониторирования до 24 часов</t>
   </si>
   <si>
-    <t>88996.65</t>
+    <t>97589.43</t>
   </si>
   <si>
     <t>Длительное мониторирование артериального давления свободно передвигающегося человека</t>
@@ -307,19 +307,19 @@
     <t>Исследование скорости оседания эритроцитов</t>
   </si>
   <si>
-    <t>17154.15</t>
+    <t>24557.52</t>
   </si>
   <si>
     <t>Комплексное исследование на гематологическом анализаторе с функцией дифференциации лейкоцитов по 5-ти популяциям (без определения ретикулоцитов)</t>
   </si>
   <si>
-    <t>62287.33</t>
+    <t>88813.48</t>
   </si>
   <si>
     <t>Исследование мочи на мочевом анализаторе</t>
   </si>
   <si>
-    <t>4350.24</t>
+    <t>5571.36</t>
   </si>
   <si>
     <t>Исследование уровня глюкозы и (или) лактата в крови с помощью анализатора</t>
@@ -331,19 +331,19 @@
     <t>Определение одного биохимического показателя в крови с выдачей результата в количественном виде с определенной размерностью.</t>
   </si>
   <si>
-    <t>210279.76</t>
+    <t>296416.50</t>
   </si>
   <si>
     <t>Определение одного биохимического показателя в моче и других биологических жидкостях с выдачей результата в количественном виде с определенной размерностью.</t>
   </si>
   <si>
-    <t>1096.48</t>
+    <t>2093.28</t>
   </si>
   <si>
     <t>Коагулограмма (Исследование на автоматическом коагулометре)</t>
   </si>
   <si>
-    <t>36890.61</t>
+    <t>47915.39</t>
   </si>
   <si>
     <t>Определение протромбинового (тромбопластинового) времени с расчетом МНО</t>
@@ -355,7 +355,7 @@
     <t>Исследование уровня  гликированного гемоглобина в крови</t>
   </si>
   <si>
-    <t>12973.87</t>
+    <t>18114.46</t>
   </si>
   <si>
     <t>Исследование уровня паратиреоидного гормона в крови</t>
@@ -367,7 +367,7 @@
     <t>Определение одного антигена групп крови по системе (АВО, подгруппы и групп крови меньшего значения)</t>
   </si>
   <si>
-    <t>5771.52</t>
+    <t>7815.60</t>
   </si>
   <si>
     <t>Определение одного аутоантитела</t>
@@ -379,13 +379,13 @@
     <t>Rg-графия органов грудной клетки</t>
   </si>
   <si>
-    <t>274.69</t>
+    <t>2746.90</t>
   </si>
   <si>
     <t>Rg-скопия и Rg-графия сердца с контрастир. пищевода (3 проекции)</t>
   </si>
   <si>
-    <t>62895.06</t>
+    <t>82002.42</t>
   </si>
   <si>
     <t>Rg-графия шейного,грудн.,поясн.-крестц.отдела позвоночника,копчика</t>
@@ -394,6 +394,12 @@
     <t>225.36</t>
   </si>
   <si>
+    <t>Rg-графия лопатки, грудины, ключицы</t>
+  </si>
+  <si>
+    <t>268.07</t>
+  </si>
+  <si>
     <t>Сцинтиграфия щитовидной железы</t>
   </si>
   <si>
@@ -439,7 +445,7 @@
     <t>Эхокардиография с допплеровским анализом</t>
   </si>
   <si>
-    <t>119778.4</t>
+    <t>123388.16</t>
   </si>
   <si>
     <t>Эхокардиография чреспищеводная</t>
@@ -457,7 +463,7 @@
     <t>УЗ-допплерография в дуплексном режиме парных сосудов (артерий или вен)</t>
   </si>
   <si>
-    <t>11629.2</t>
+    <t>12422.1</t>
   </si>
   <si>
     <t>Электрофорез лекарственный</t>
@@ -541,13 +547,13 @@
     <t>Синдромы головной боли. Расстройства вегетативной нервной системы</t>
   </si>
   <si>
-    <t>89700.42</t>
+    <t>179400.84</t>
   </si>
   <si>
     <t>Спондилез и связанные с ним состояния. Остеохондроз позвоночника</t>
   </si>
   <si>
-    <t>28874.75</t>
+    <t>57749.50</t>
   </si>
   <si>
     <t>Острый перикардит (кроме ревматического)</t>
@@ -559,19 +565,19 @@
     <t>Гипертоническая болезнь, артериальная гипертония без сердечной недостаточности и ХПН. Нейроциркуляторная дистония</t>
   </si>
   <si>
-    <t>5126759.01</t>
+    <t>6326815.78</t>
   </si>
   <si>
     <t>Гипертоническая болезнь, артериальная гипертония с сердечной недостаточностью и ХПН</t>
   </si>
   <si>
-    <t>198930</t>
+    <t>238716</t>
   </si>
   <si>
     <t>Хроническая ишемическая болезнь сердца. Хронические сосудистые болезни</t>
   </si>
   <si>
-    <t>5529547.52</t>
+    <t>6386362.32</t>
   </si>
   <si>
     <t>Плановое коронарографическое исследование</t>
@@ -589,7 +595,7 @@
     <t>Острый инфаркт миокарда неосложненный</t>
   </si>
   <si>
-    <t>218588.05</t>
+    <t>262305.66</t>
   </si>
   <si>
     <t>Острый инфаркт миокарда осложненный</t>
@@ -601,7 +607,7 @@
     <t>Сердечная недостаточность застойного характера</t>
   </si>
   <si>
-    <t>3782293.73</t>
+    <t>4355368.54</t>
   </si>
   <si>
     <t>Гипертрофическая кардиомиопатия</t>
@@ -613,31 +619,31 @@
     <t>Дилатационная кардиомиопатия</t>
   </si>
   <si>
-    <t>177224.37</t>
+    <t>233486.07</t>
   </si>
   <si>
     <t>Нарушения проводимости сердца</t>
   </si>
   <si>
-    <t>34683.72</t>
+    <t>52025.58</t>
   </si>
   <si>
     <t>Пароксизмальная тахикардия</t>
   </si>
   <si>
-    <t>280538.58</t>
+    <t>340653.99</t>
   </si>
   <si>
     <t>Фибрилляция и мерцание предсердий</t>
   </si>
   <si>
-    <t>3936000</t>
+    <t>4950000</t>
   </si>
   <si>
     <t>Экстрасистолическая аритмия</t>
   </si>
   <si>
-    <t>104033.04</t>
+    <t>173388.40</t>
   </si>
   <si>
     <t>Синдром слабости синусового узла</t>
@@ -661,7 +667,7 @@
     <t>Хроническая легочно-сердечная недостаточность</t>
   </si>
   <si>
-    <t>868305.24</t>
+    <t>1137779.28</t>
   </si>
   <si>
     <t>Тромбоз и эмболия аорты и других артерий.Аневризма</t>
@@ -697,13 +703,13 @@
     <t>Реанимация 1-ой категории сложности</t>
   </si>
   <si>
-    <t>1393286</t>
+    <t>1540810.4</t>
   </si>
   <si>
     <t>Реанимация 2-ой категории сложности</t>
   </si>
   <si>
-    <t>443910.72</t>
+    <t>630820.50</t>
   </si>
   <si>
     <t>Реанимация 3-ей категории сложности</t>
@@ -712,6 +718,18 @@
     <t>223058.9</t>
   </si>
   <si>
+    <t>Реанимация 4-ой категории сложности</t>
+  </si>
+  <si>
+    <t>171170.91</t>
+  </si>
+  <si>
+    <t>Реанимация 5-ой категории сложности</t>
+  </si>
+  <si>
+    <t>1066470.3</t>
+  </si>
+  <si>
     <t>Имплантация частотно-адаптированного однокамерного кардиостимулятора (у взрослых)</t>
   </si>
   <si>
@@ -721,37 +739,37 @@
     <t>Имплантация частотно-адаптированного двухкамерного кардиостимулятора</t>
   </si>
   <si>
-    <t>4293079.36</t>
+    <t>4545613.44</t>
   </si>
   <si>
     <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>3333437.76</t>
+    <t>3541777.62</t>
   </si>
   <si>
     <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>957732.36</t>
+    <t>1676031.63</t>
   </si>
   <si>
     <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>3157935.64</t>
+    <t>5201305.76</t>
   </si>
   <si>
     <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>1923234.75</t>
+    <t>2136927.50</t>
   </si>
   <si>
     <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>271972.5</t>
+    <t>815917.5</t>
   </si>
   <si>
     <t>Total</t>
@@ -810,8 +828,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A1:G122" totalsRowCount="1" headerRowCount="1">
-  <autoFilter ref="A1:G121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A1:G125" totalsRowCount="1" headerRowCount="1">
+  <autoFilter ref="A1:G124">
     <filterColumn colId="0" hiddenButton="0"/>
     <filterColumn colId="1" hiddenButton="0"/>
     <filterColumn colId="2" hiddenButton="0"/>
@@ -1155,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G125"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,16 +1207,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1212,16 +1230,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="D3">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="E3">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="F3">
-        <v>406</v>
+        <v>478</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1396,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>708</v>
+        <v>828</v>
       </c>
       <c r="D11">
-        <v>708</v>
+        <v>828</v>
       </c>
       <c r="E11">
-        <v>708</v>
+        <v>828</v>
       </c>
       <c r="F11">
-        <v>691</v>
+        <v>810</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -1419,16 +1437,16 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F12">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -2132,16 +2150,16 @@
         <v>89</v>
       </c>
       <c r="C43">
-        <v>572</v>
+        <v>651</v>
       </c>
       <c r="D43">
-        <v>572</v>
+        <v>651</v>
       </c>
       <c r="E43">
-        <v>572</v>
+        <v>651</v>
       </c>
       <c r="F43">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="G43" t="s">
         <v>90</v>
@@ -2155,16 +2173,16 @@
         <v>91</v>
       </c>
       <c r="C44">
+        <v>83</v>
+      </c>
+      <c r="D44">
+        <v>83</v>
+      </c>
+      <c r="E44">
+        <v>83</v>
+      </c>
+      <c r="F44">
         <v>82</v>
-      </c>
-      <c r="D44">
-        <v>82</v>
-      </c>
-      <c r="E44">
-        <v>82</v>
-      </c>
-      <c r="F44">
-        <v>81</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -2178,16 +2196,16 @@
         <v>93</v>
       </c>
       <c r="C45">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D45">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E45">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F45">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G45" t="s">
         <v>94</v>
@@ -2224,16 +2242,16 @@
         <v>97</v>
       </c>
       <c r="C47">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="D47">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="E47">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="F47">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -2247,16 +2265,16 @@
         <v>99</v>
       </c>
       <c r="C48">
-        <v>317</v>
+        <v>452</v>
       </c>
       <c r="D48">
-        <v>317</v>
+        <v>452</v>
       </c>
       <c r="E48">
-        <v>317</v>
+        <v>452</v>
       </c>
       <c r="F48">
-        <v>311</v>
+        <v>444</v>
       </c>
       <c r="G48" t="s">
         <v>100</v>
@@ -2270,16 +2288,16 @@
         <v>101</v>
       </c>
       <c r="C49">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D49">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E49">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F49">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
         <v>102</v>
@@ -2316,16 +2334,16 @@
         <v>105</v>
       </c>
       <c r="C51">
-        <v>3884</v>
+        <v>5475</v>
       </c>
       <c r="D51">
-        <v>389</v>
+        <v>551</v>
       </c>
       <c r="E51">
-        <v>389</v>
+        <v>551</v>
       </c>
       <c r="F51">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="G51" t="s">
         <v>106</v>
@@ -2339,16 +2357,16 @@
         <v>107</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
         <v>108</v>
@@ -2362,16 +2380,16 @@
         <v>109</v>
       </c>
       <c r="C53">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D53">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E53">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F53">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="G53" t="s">
         <v>110</v>
@@ -2408,16 +2426,16 @@
         <v>113</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D55">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E55">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F55">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
         <v>114</v>
@@ -2454,16 +2472,16 @@
         <v>117</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D57">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E57">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F57">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
         <v>118</v>
@@ -2500,16 +2518,16 @@
         <v>121</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G59" t="s">
         <v>122</v>
@@ -2523,16 +2541,16 @@
         <v>123</v>
       </c>
       <c r="C60">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D60">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="E60">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="F60">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="G60" t="s">
         <v>124</v>
@@ -2563,22 +2581,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>38002</v>
+        <v>35204</v>
       </c>
       <c r="B62" t="s">
         <v>127</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" t="s">
         <v>128</v>
@@ -2586,22 +2604,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>38003</v>
+        <v>38002</v>
       </c>
       <c r="B63" t="s">
         <v>129</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
         <v>130</v>
@@ -2609,22 +2627,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>38006</v>
+        <v>38003</v>
       </c>
       <c r="B64" t="s">
         <v>131</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
         <v>132</v>
@@ -2632,22 +2650,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>38013</v>
+        <v>38006</v>
       </c>
       <c r="B65" t="s">
         <v>133</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
         <v>134</v>
@@ -2655,22 +2673,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>38046</v>
+        <v>38013</v>
       </c>
       <c r="B66" t="s">
         <v>135</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
         <v>136</v>
@@ -2678,22 +2696,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>40032</v>
+        <v>38046</v>
       </c>
       <c r="B67" t="s">
         <v>137</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
         <v>138</v>
@@ -2701,22 +2719,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>40051</v>
+        <v>40032</v>
       </c>
       <c r="B68" t="s">
         <v>139</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>140</v>
@@ -2724,22 +2742,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>40083</v>
+        <v>40051</v>
       </c>
       <c r="B69" t="s">
         <v>141</v>
       </c>
       <c r="C69">
-        <v>365</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>365</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>365</v>
+        <v>9</v>
       </c>
       <c r="F69">
-        <v>365</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
         <v>142</v>
@@ -2747,22 +2765,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>40084</v>
+        <v>40083</v>
       </c>
       <c r="B70" t="s">
         <v>143</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="G70" t="s">
         <v>144</v>
@@ -2770,22 +2788,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>40089</v>
+        <v>40084</v>
       </c>
       <c r="B71" t="s">
         <v>145</v>
       </c>
       <c r="C71">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="G71" t="s">
         <v>146</v>
@@ -2793,22 +2811,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>40091</v>
+        <v>40089</v>
       </c>
       <c r="B72" t="s">
         <v>147</v>
       </c>
       <c r="C72">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="D72">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="E72">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F72">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
         <v>148</v>
@@ -2816,22 +2834,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>50003</v>
+        <v>40091</v>
       </c>
       <c r="B73" t="s">
         <v>149</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="G73" t="s">
         <v>150</v>
@@ -2839,22 +2857,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>50006</v>
+        <v>50003</v>
       </c>
       <c r="B74" t="s">
         <v>151</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E74">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
         <v>152</v>
@@ -2862,22 +2880,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>50007</v>
+        <v>50006</v>
       </c>
       <c r="B75" t="s">
         <v>153</v>
       </c>
       <c r="C75">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
         <v>154</v>
@@ -2885,22 +2903,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>50012</v>
+        <v>50007</v>
       </c>
       <c r="B76" t="s">
         <v>155</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E76">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
         <v>156</v>
@@ -2908,22 +2926,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>50013</v>
+        <v>50012</v>
       </c>
       <c r="B77" t="s">
         <v>157</v>
       </c>
       <c r="C77">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
         <v>158</v>
@@ -2931,19 +2949,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>50031</v>
+        <v>50013</v>
       </c>
       <c r="B78" t="s">
         <v>159</v>
       </c>
       <c r="C78">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F78">
         <v>5</v>
@@ -2954,22 +2972,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>50037</v>
+        <v>50031</v>
       </c>
       <c r="B79" t="s">
         <v>161</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G79" t="s">
         <v>162</v>
@@ -2977,22 +2995,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>50042</v>
+        <v>50037</v>
       </c>
       <c r="B80" t="s">
         <v>163</v>
       </c>
       <c r="C80">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G80" t="s">
         <v>164</v>
@@ -3000,22 +3018,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>50047</v>
+        <v>50042</v>
       </c>
       <c r="B81" t="s">
         <v>165</v>
       </c>
       <c r="C81">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E81">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G81" t="s">
         <v>166</v>
@@ -3023,22 +3041,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>50066</v>
+        <v>50047</v>
       </c>
       <c r="B82" t="s">
         <v>167</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G82" t="s">
         <v>168</v>
@@ -3046,22 +3064,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>50076</v>
+        <v>50066</v>
       </c>
       <c r="B83" t="s">
         <v>169</v>
       </c>
       <c r="C83">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G83" t="s">
         <v>170</v>
@@ -3069,22 +3087,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>50139</v>
+        <v>50076</v>
       </c>
       <c r="B84" t="s">
         <v>171</v>
       </c>
       <c r="C84">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
         <v>172</v>
@@ -3092,22 +3110,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>59004</v>
+        <v>50139</v>
       </c>
       <c r="B85" t="s">
         <v>173</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
         <v>174</v>
@@ -3115,22 +3133,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>66130</v>
+        <v>59004</v>
       </c>
       <c r="B86" t="s">
         <v>175</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
         <v>176</v>
@@ -3138,22 +3156,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>66250</v>
+        <v>66130</v>
       </c>
       <c r="B87" t="s">
         <v>177</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G87" t="s">
         <v>178</v>
@@ -3161,22 +3179,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>69020</v>
+        <v>66250</v>
       </c>
       <c r="B88" t="s">
         <v>179</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="s">
         <v>180</v>
@@ -3184,22 +3202,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>69070</v>
+        <v>69020</v>
       </c>
       <c r="B89" t="s">
         <v>181</v>
       </c>
       <c r="C89">
-        <v>2323</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="G89" t="s">
         <v>182</v>
@@ -3207,22 +3225,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>69080</v>
+        <v>69070</v>
       </c>
       <c r="B90" t="s">
         <v>183</v>
       </c>
       <c r="C90">
-        <v>37</v>
+        <v>2839</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="G90" t="s">
         <v>184</v>
@@ -3230,22 +3248,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>69090</v>
+        <v>69080</v>
       </c>
       <c r="B91" t="s">
         <v>185</v>
       </c>
       <c r="C91">
-        <v>2368</v>
+        <v>51</v>
       </c>
       <c r="D91">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="E91">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="F91">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="G91" t="s">
         <v>186</v>
@@ -3253,22 +3271,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>69095</v>
+        <v>69090</v>
       </c>
       <c r="B92" t="s">
         <v>187</v>
       </c>
       <c r="C92">
-        <v>13</v>
+        <v>2712</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="G92" t="s">
         <v>188</v>
@@ -3276,22 +3294,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>69100</v>
+        <v>69095</v>
       </c>
       <c r="B93" t="s">
         <v>189</v>
       </c>
       <c r="C93">
+        <v>13</v>
+      </c>
+      <c r="D93">
         <v>4</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
       <c r="E93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93" t="s">
         <v>190</v>
@@ -3299,22 +3317,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>69110</v>
+        <v>69100</v>
       </c>
       <c r="B94" t="s">
         <v>191</v>
       </c>
       <c r="C94">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G94" t="s">
         <v>192</v>
@@ -3322,22 +3340,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>69120</v>
+        <v>69110</v>
       </c>
       <c r="B95" t="s">
         <v>193</v>
       </c>
       <c r="C95">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G95" t="s">
         <v>194</v>
@@ -3345,22 +3363,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>69140</v>
+        <v>69120</v>
       </c>
       <c r="B96" t="s">
         <v>195</v>
       </c>
       <c r="C96">
-        <v>891</v>
+        <v>13</v>
       </c>
       <c r="D96">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="G96" t="s">
         <v>196</v>
@@ -3368,22 +3386,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>69150</v>
+        <v>69140</v>
       </c>
       <c r="B97" t="s">
         <v>197</v>
       </c>
       <c r="C97">
-        <v>49</v>
+        <v>1028</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="G97" t="s">
         <v>198</v>
@@ -3391,22 +3409,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>69151</v>
+        <v>69150</v>
       </c>
       <c r="B98" t="s">
         <v>199</v>
       </c>
       <c r="C98">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G98" t="s">
         <v>200</v>
@@ -3414,22 +3432,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>69170</v>
+        <v>69151</v>
       </c>
       <c r="B99" t="s">
         <v>201</v>
       </c>
       <c r="C99">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G99" t="s">
         <v>202</v>
@@ -3437,22 +3455,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>69180</v>
+        <v>69170</v>
       </c>
       <c r="B100" t="s">
         <v>203</v>
       </c>
       <c r="C100">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="D100">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G100" t="s">
         <v>204</v>
@@ -3460,22 +3478,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>69190</v>
+        <v>69180</v>
       </c>
       <c r="B101" t="s">
         <v>205</v>
       </c>
       <c r="C101">
-        <v>924</v>
+        <v>169</v>
       </c>
       <c r="D101">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="F101">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G101" t="s">
         <v>206</v>
@@ -3483,22 +3501,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>69191</v>
+        <v>69190</v>
       </c>
       <c r="B102" t="s">
         <v>207</v>
       </c>
       <c r="C102">
-        <v>58</v>
+        <v>1129</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="G102" t="s">
         <v>208</v>
@@ -3506,22 +3524,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>69200</v>
+        <v>69191</v>
       </c>
       <c r="B103" t="s">
         <v>209</v>
       </c>
       <c r="C103">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G103" t="s">
         <v>210</v>
@@ -3529,22 +3547,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>69300</v>
+        <v>69200</v>
       </c>
       <c r="B104" t="s">
         <v>211</v>
       </c>
       <c r="C104">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G104" t="s">
         <v>212</v>
@@ -3552,22 +3570,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>70050</v>
+        <v>69300</v>
       </c>
       <c r="B105" t="s">
         <v>213</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G105" t="s">
         <v>214</v>
@@ -3575,22 +3593,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>70120</v>
+        <v>70050</v>
       </c>
       <c r="B106" t="s">
         <v>215</v>
       </c>
       <c r="C106">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G106" t="s">
         <v>216</v>
@@ -3598,22 +3616,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>72010</v>
+        <v>70120</v>
       </c>
       <c r="B107" t="s">
         <v>217</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>373</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
         <v>218</v>
@@ -3621,22 +3639,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>72040</v>
+        <v>72010</v>
       </c>
       <c r="B108" t="s">
         <v>219</v>
       </c>
       <c r="C108">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G108" t="s">
         <v>220</v>
@@ -3644,22 +3662,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>72080</v>
+        <v>72040</v>
       </c>
       <c r="B109" t="s">
         <v>221</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G109" t="s">
         <v>222</v>
@@ -3667,22 +3685,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>72100</v>
+        <v>72080</v>
       </c>
       <c r="B110" t="s">
         <v>223</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" t="s">
         <v>224</v>
@@ -3690,22 +3708,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>78160</v>
+        <v>72100</v>
       </c>
       <c r="B111" t="s">
         <v>225</v>
       </c>
       <c r="C111">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
         <v>226</v>
@@ -3713,22 +3731,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>83010</v>
+        <v>78160</v>
       </c>
       <c r="B112" t="s">
         <v>227</v>
       </c>
       <c r="C112">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="D112">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="F112">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="G112" t="s">
         <v>228</v>
@@ -3736,22 +3754,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>83020</v>
+        <v>83010</v>
       </c>
       <c r="B113" t="s">
         <v>229</v>
       </c>
       <c r="C113">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="F113">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="G113" t="s">
         <v>230</v>
@@ -3759,22 +3777,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>83030</v>
+        <v>83020</v>
       </c>
       <c r="B114" t="s">
         <v>231</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G114" t="s">
         <v>232</v>
@@ -3782,22 +3800,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>200409</v>
+        <v>83030</v>
       </c>
       <c r="B115" t="s">
         <v>233</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115" t="s">
         <v>234</v>
@@ -3805,22 +3823,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>200510</v>
+        <v>83040</v>
       </c>
       <c r="B116" t="s">
         <v>235</v>
       </c>
       <c r="C116">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="D116">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G116" t="s">
         <v>236</v>
@@ -3828,22 +3846,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>200518</v>
+        <v>83050</v>
       </c>
       <c r="B117" t="s">
         <v>237</v>
       </c>
       <c r="C117">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G117" t="s">
         <v>238</v>
@@ -3851,22 +3869,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>200519</v>
+        <v>200409</v>
       </c>
       <c r="B118" t="s">
         <v>239</v>
       </c>
       <c r="C118">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118" t="s">
         <v>240</v>
@@ -3874,22 +3892,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>200522</v>
+        <v>200510</v>
       </c>
       <c r="B119" t="s">
         <v>241</v>
       </c>
       <c r="C119">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="D119">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E119">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F119">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
         <v>242</v>
@@ -3897,22 +3915,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>200523</v>
+        <v>200518</v>
       </c>
       <c r="B120" t="s">
         <v>243</v>
       </c>
       <c r="C120">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F120">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G120" t="s">
         <v>244</v>
@@ -3920,30 +3938,99 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>200524</v>
+        <v>200519</v>
       </c>
       <c r="B121" t="s">
         <v>245</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122">
+        <v>200522</v>
+      </c>
+      <c r="B122" t="s">
         <v>247</v>
+      </c>
+      <c r="C122">
+        <v>246</v>
+      </c>
+      <c r="D122">
+        <v>28</v>
+      </c>
+      <c r="E122">
+        <v>28</v>
+      </c>
+      <c r="F122">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>200523</v>
+      </c>
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123">
+        <v>77</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>200524</v>
+      </c>
+      <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124">
+        <v>26</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/server/export.xlsx
+++ b/server/export.xlsx
@@ -11,32 +11,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>USL</t>
-  </si>
-  <si>
-    <t>NUM_DV</t>
-  </si>
-  <si>
-    <t>NUM_DOC</t>
-  </si>
-  <si>
-    <t>NUM_CI</t>
-  </si>
-  <si>
-    <t>TOTAL_PRICE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="257">
+  <si>
+    <t>Код услуги</t>
+  </si>
+  <si>
+    <t>Наименование услуги</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>Кол-во услуг за период</t>
+  </si>
+  <si>
+    <t>Кол-во движений (по счету) за период</t>
+  </si>
+  <si>
+    <t>Кол-во документов за период</t>
+  </si>
+  <si>
+    <t>Кол-во карт за период</t>
+  </si>
+  <si>
+    <t>Суммарная стоимость услуг (руб) за период</t>
   </si>
   <si>
     <t>Прием врача-кардиолога лечебно-диагностический, первичный, амб.</t>
   </si>
   <si>
+    <t>AMB</t>
+  </si>
+  <si>
     <t>20765.36</t>
   </si>
   <si>
@@ -545,6 +551,9 @@
   </si>
   <si>
     <t>Синдромы головной боли. Расстройства вегетативной нервной системы</t>
+  </si>
+  <si>
+    <t>STAC</t>
   </si>
   <si>
     <t>179400.84</t>
@@ -808,8 +817,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,8 +840,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A1:G125" totalsRowCount="1" headerRowCount="1">
-  <autoFilter ref="A1:G124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A1:H125" totalsRowCount="1" headerRowCount="1">
+  <autoFilter ref="A1:H124">
     <filterColumn colId="0" hiddenButton="0"/>
     <filterColumn colId="1" hiddenButton="0"/>
     <filterColumn colId="2" hiddenButton="0"/>
@@ -837,15 +849,17 @@
     <filterColumn colId="4" hiddenButton="0"/>
     <filterColumn colId="5" hiddenButton="0"/>
     <filterColumn colId="6" hiddenButton="0"/>
+    <filterColumn colId="7" hiddenButton="0"/>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" name="COD" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="NAME" totalsRowFunction="none"/>
-    <tableColumn id="3" name="USL" totalsRowFunction="none"/>
-    <tableColumn id="4" name="NUM_DV" totalsRowFunction="none"/>
-    <tableColumn id="5" name="NUM_DOC" totalsRowFunction="none"/>
-    <tableColumn id="6" name="NUM_CI" totalsRowFunction="none"/>
-    <tableColumn id="7" name="TOTAL_PRICE" totalsRowFunction="none"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Код услуги" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Наименование услуги" totalsRowFunction="none"/>
+    <tableColumn id="3" name="тип" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Кол-во услуг за период" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Кол-во движений (по счету) за период" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Кол-во документов за период" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Кол-во карт за период" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Суммарная стоимость услуг (руб) за период" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1173,41 +1187,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:H125"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1041</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>154</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
         <v>154</v>
@@ -1218,19 +1235,22 @@
       <c r="F2">
         <v>154</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1042</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>528</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>528</v>
@@ -1239,21 +1259,24 @@
         <v>528</v>
       </c>
       <c r="F3">
+        <v>528</v>
+      </c>
+      <c r="G3">
         <v>478</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1071</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1264,19 +1287,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -1287,19 +1313,22 @@
       <c r="F5">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -1308,21 +1337,24 @@
         <v>32</v>
       </c>
       <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1261</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1333,19 +1365,22 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1271</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1356,19 +1391,22 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1379,19 +1417,22 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1402,19 +1443,22 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1702</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>828</v>
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
       </c>
       <c r="D11">
         <v>828</v>
@@ -1423,21 +1467,24 @@
         <v>828</v>
       </c>
       <c r="F11">
+        <v>828</v>
+      </c>
+      <c r="G11">
         <v>810</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1705</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>93</v>
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
       <c r="D12">
         <v>93</v>
@@ -1446,21 +1493,24 @@
         <v>93</v>
       </c>
       <c r="F12">
+        <v>93</v>
+      </c>
+      <c r="G12">
         <v>92</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1707</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>56</v>
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
       </c>
       <c r="D13">
         <v>56</v>
@@ -1471,19 +1521,22 @@
       <c r="F13">
         <v>56</v>
       </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1710</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
       </c>
       <c r="D14">
         <v>22</v>
@@ -1494,19 +1547,22 @@
       <c r="F14">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1712</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
       <c r="D15">
         <v>59</v>
@@ -1517,19 +1573,22 @@
       <c r="F15">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1720</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1540,19 +1599,22 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7002</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
       </c>
       <c r="D17">
         <v>18</v>
@@ -1563,19 +1625,22 @@
       <c r="F17">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7012</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="D18">
         <v>21</v>
@@ -1586,19 +1651,22 @@
       <c r="F18">
         <v>21</v>
       </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7021</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
       </c>
       <c r="D19">
         <v>23</v>
@@ -1609,19 +1677,22 @@
       <c r="F19">
         <v>23</v>
       </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7051</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1632,19 +1703,22 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7066</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -1655,19 +1729,22 @@
       <c r="F21">
         <v>19</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7068</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -1678,19 +1755,22 @@
       <c r="F22">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9001</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -1699,21 +1779,24 @@
         <v>15</v>
       </c>
       <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9004</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1724,19 +1807,22 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9005</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1745,21 +1831,24 @@
         <v>3</v>
       </c>
       <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9006</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1768,21 +1857,24 @@
         <v>3</v>
       </c>
       <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9007</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1793,19 +1885,22 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9010</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1816,19 +1911,22 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9011</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1837,21 +1935,24 @@
         <v>5</v>
       </c>
       <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9015</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1862,19 +1963,22 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9016</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1883,21 +1987,24 @@
         <v>5</v>
       </c>
       <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="G31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9032</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
       </c>
       <c r="D32">
         <v>7</v>
@@ -1908,19 +2015,22 @@
       <c r="F32">
         <v>7</v>
       </c>
-      <c r="G32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9043</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1931,19 +2041,22 @@
       <c r="F33">
         <v>6</v>
       </c>
-      <c r="G33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9045</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -1954,19 +2067,22 @@
       <c r="F34">
         <v>8</v>
       </c>
-      <c r="G34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9046</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1977,19 +2093,22 @@
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9074</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -1998,21 +2117,24 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9150</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37">
-        <v>16</v>
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -2021,21 +2143,24 @@
         <v>16</v>
       </c>
       <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
         <v>14</v>
       </c>
-      <c r="G37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9159</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2044,21 +2169,24 @@
         <v>3</v>
       </c>
       <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9200</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
       </c>
       <c r="D39">
         <v>13</v>
@@ -2067,21 +2195,24 @@
         <v>13</v>
       </c>
       <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9207</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
       </c>
       <c r="D40">
         <v>15</v>
@@ -2090,21 +2221,24 @@
         <v>15</v>
       </c>
       <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
         <v>13</v>
       </c>
-      <c r="G40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9401</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -2115,19 +2249,22 @@
       <c r="F41">
         <v>15</v>
       </c>
-      <c r="G41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9402</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
       </c>
       <c r="D42">
         <v>20</v>
@@ -2136,21 +2273,24 @@
         <v>20</v>
       </c>
       <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
         <v>10</v>
       </c>
-      <c r="G42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22105</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43">
-        <v>651</v>
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
       </c>
       <c r="D43">
         <v>651</v>
@@ -2159,21 +2299,24 @@
         <v>651</v>
       </c>
       <c r="F43">
+        <v>651</v>
+      </c>
+      <c r="G43">
         <v>640</v>
       </c>
-      <c r="G43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22128</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
       </c>
       <c r="D44">
         <v>83</v>
@@ -2182,21 +2325,24 @@
         <v>83</v>
       </c>
       <c r="F44">
+        <v>83</v>
+      </c>
+      <c r="G44">
         <v>82</v>
       </c>
-      <c r="G44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22142</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45">
-        <v>159</v>
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
       </c>
       <c r="D45">
         <v>159</v>
@@ -2207,19 +2353,22 @@
       <c r="F45">
         <v>159</v>
       </c>
-      <c r="G45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>159</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22511</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2230,19 +2379,22 @@
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="G46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>25016</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47">
-        <v>408</v>
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
       </c>
       <c r="D47">
         <v>408</v>
@@ -2251,21 +2403,24 @@
         <v>408</v>
       </c>
       <c r="F47">
+        <v>408</v>
+      </c>
+      <c r="G47">
         <v>400</v>
       </c>
-      <c r="G47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>25064</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48">
-        <v>452</v>
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
       </c>
       <c r="D48">
         <v>452</v>
@@ -2274,21 +2429,24 @@
         <v>452</v>
       </c>
       <c r="F48">
+        <v>452</v>
+      </c>
+      <c r="G48">
         <v>444</v>
       </c>
-      <c r="G48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25125</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49">
-        <v>73</v>
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
       </c>
       <c r="D49">
         <v>73</v>
@@ -2297,21 +2455,24 @@
         <v>73</v>
       </c>
       <c r="F49">
+        <v>73</v>
+      </c>
+      <c r="G49">
         <v>70</v>
       </c>
-      <c r="G49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>26001</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2322,45 +2483,51 @@
       <c r="F50">
         <v>2</v>
       </c>
-      <c r="G50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>26002</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
         <v>5475</v>
-      </c>
-      <c r="D51">
-        <v>551</v>
       </c>
       <c r="E51">
         <v>551</v>
       </c>
       <c r="F51">
+        <v>551</v>
+      </c>
+      <c r="G51">
         <v>540</v>
       </c>
-      <c r="G51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>26003</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
         <v>21</v>
-      </c>
-      <c r="D52">
-        <v>13</v>
       </c>
       <c r="E52">
         <v>13</v>
@@ -2368,19 +2535,22 @@
       <c r="F52">
         <v>13</v>
       </c>
-      <c r="G52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26054</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
       </c>
       <c r="D53">
         <v>113</v>
@@ -2389,21 +2559,24 @@
         <v>113</v>
       </c>
       <c r="F53">
+        <v>113</v>
+      </c>
+      <c r="G53">
         <v>109</v>
       </c>
-      <c r="G53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26056</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2414,19 +2587,22 @@
       <c r="F54">
         <v>2</v>
       </c>
-      <c r="G54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26098</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55">
-        <v>74</v>
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
       </c>
       <c r="D55">
         <v>74</v>
@@ -2437,19 +2613,22 @@
       <c r="F55">
         <v>74</v>
       </c>
-      <c r="G55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>26148</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2460,19 +2639,22 @@
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>28019</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57">
-        <v>65</v>
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
       </c>
       <c r="D57">
         <v>65</v>
@@ -2483,19 +2665,22 @@
       <c r="F57">
         <v>65</v>
       </c>
-      <c r="G57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>65</v>
+      </c>
+      <c r="H57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>28126</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2506,19 +2691,22 @@
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>35002</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -2529,19 +2717,22 @@
       <c r="F59">
         <v>10</v>
       </c>
-      <c r="G59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>35004</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60">
-        <v>206</v>
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
       </c>
       <c r="D60">
         <v>206</v>
@@ -2550,21 +2741,24 @@
         <v>206</v>
       </c>
       <c r="F60">
+        <v>206</v>
+      </c>
+      <c r="G60">
         <v>205</v>
       </c>
-      <c r="G60" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>35201</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2575,19 +2769,22 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>35204</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2598,19 +2795,22 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>38002</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -2621,19 +2821,22 @@
       <c r="F63">
         <v>3</v>
       </c>
-      <c r="G63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>38003</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64">
-        <v>24</v>
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
       </c>
       <c r="D64">
         <v>24</v>
@@ -2642,21 +2845,24 @@
         <v>24</v>
       </c>
       <c r="F64">
+        <v>24</v>
+      </c>
+      <c r="G64">
         <v>17</v>
       </c>
-      <c r="G64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>38006</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2667,19 +2873,22 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>38013</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66">
-        <v>8</v>
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -2690,19 +2899,22 @@
       <c r="F66">
         <v>8</v>
       </c>
-      <c r="G66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>38046</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2713,19 +2925,22 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>40032</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68">
-        <v>43</v>
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
       </c>
       <c r="D68">
         <v>43</v>
@@ -2734,20 +2949,23 @@
         <v>43</v>
       </c>
       <c r="F68">
+        <v>43</v>
+      </c>
+      <c r="G68">
         <v>42</v>
       </c>
-      <c r="G68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>40051</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69">
@@ -2759,19 +2977,22 @@
       <c r="F69">
         <v>9</v>
       </c>
-      <c r="G69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>40083</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70">
-        <v>376</v>
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
       </c>
       <c r="D70">
         <v>376</v>
@@ -2782,19 +3003,22 @@
       <c r="F70">
         <v>376</v>
       </c>
-      <c r="G70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>376</v>
+      </c>
+      <c r="H70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>40084</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2805,19 +3029,22 @@
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>40089</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72">
-        <v>47</v>
+        <v>149</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
       </c>
       <c r="D72">
         <v>47</v>
@@ -2828,42 +3055,48 @@
       <c r="F72">
         <v>47</v>
       </c>
-      <c r="G72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>40091</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73">
         <v>141</v>
-      </c>
-      <c r="D73">
-        <v>138</v>
       </c>
       <c r="E73">
         <v>138</v>
       </c>
       <c r="F73">
+        <v>138</v>
+      </c>
+      <c r="G73">
         <v>131</v>
       </c>
-      <c r="G73" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>50003</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74">
-        <v>7</v>
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
       </c>
       <c r="D74">
         <v>7</v>
@@ -2872,21 +3105,24 @@
         <v>7</v>
       </c>
       <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>50006</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75">
-        <v>26</v>
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
       </c>
       <c r="D75">
         <v>26</v>
@@ -2895,21 +3131,24 @@
         <v>26</v>
       </c>
       <c r="F75">
+        <v>26</v>
+      </c>
+      <c r="G75">
         <v>4</v>
       </c>
-      <c r="G75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>50007</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76">
-        <v>47</v>
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
       </c>
       <c r="D76">
         <v>47</v>
@@ -2918,20 +3157,23 @@
         <v>47</v>
       </c>
       <c r="F76">
+        <v>47</v>
+      </c>
+      <c r="G76">
         <v>7</v>
       </c>
-      <c r="G76" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>50012</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77">
+        <v>159</v>
+      </c>
+      <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77">
@@ -2941,21 +3183,24 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>50013</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78">
-        <v>24</v>
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
       </c>
       <c r="D78">
         <v>24</v>
@@ -2964,21 +3209,24 @@
         <v>24</v>
       </c>
       <c r="F78">
+        <v>24</v>
+      </c>
+      <c r="G78">
         <v>5</v>
       </c>
-      <c r="G78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>50031</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79">
-        <v>29</v>
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
       </c>
       <c r="D79">
         <v>29</v>
@@ -2987,21 +3235,24 @@
         <v>29</v>
       </c>
       <c r="F79">
+        <v>29</v>
+      </c>
+      <c r="G79">
         <v>5</v>
       </c>
-      <c r="G79" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>50037</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3012,19 +3263,22 @@
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>50042</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81">
-        <v>29</v>
+        <v>167</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
       </c>
       <c r="D81">
         <v>29</v>
@@ -3033,21 +3287,24 @@
         <v>29</v>
       </c>
       <c r="F81">
+        <v>29</v>
+      </c>
+      <c r="G81">
         <v>5</v>
       </c>
-      <c r="G81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>50047</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82">
-        <v>22</v>
+        <v>169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
       </c>
       <c r="D82">
         <v>22</v>
@@ -3056,21 +3313,24 @@
         <v>22</v>
       </c>
       <c r="F82">
+        <v>22</v>
+      </c>
+      <c r="G82">
         <v>4</v>
       </c>
-      <c r="G82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>50066</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83">
-        <v>5</v>
+        <v>171</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -3079,21 +3339,24 @@
         <v>5</v>
       </c>
       <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>50076</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84">
-        <v>25</v>
+        <v>173</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
       </c>
       <c r="D84">
         <v>25</v>
@@ -3102,21 +3365,24 @@
         <v>25</v>
       </c>
       <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84">
         <v>5</v>
       </c>
-      <c r="G84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>50139</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85">
-        <v>8</v>
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
       </c>
       <c r="D85">
         <v>8</v>
@@ -3127,19 +3393,22 @@
       <c r="F85">
         <v>8</v>
       </c>
-      <c r="G85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>59004</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3150,22 +3419,25 @@
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>66130</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87">
         <v>48</v>
-      </c>
-      <c r="D87">
-        <v>10</v>
       </c>
       <c r="E87">
         <v>10</v>
@@ -3173,22 +3445,25 @@
       <c r="F87">
         <v>10</v>
       </c>
-      <c r="G87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>66250</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88">
+        <v>182</v>
+      </c>
+      <c r="C88" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88">
         <v>8</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -3196,45 +3471,51 @@
       <c r="F88">
         <v>2</v>
       </c>
-      <c r="G88" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>69020</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
-      </c>
-      <c r="C89">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89">
         <v>3</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>69070</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C90">
+        <v>186</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90">
         <v>2839</v>
-      </c>
-      <c r="D90">
-        <v>343</v>
       </c>
       <c r="E90">
         <v>343</v>
@@ -3242,22 +3523,25 @@
       <c r="F90">
         <v>343</v>
       </c>
-      <c r="G90" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>343</v>
+      </c>
+      <c r="H90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>69080</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
-      </c>
-      <c r="C91">
+        <v>188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91">
         <v>51</v>
-      </c>
-      <c r="D91">
-        <v>6</v>
       </c>
       <c r="E91">
         <v>6</v>
@@ -3265,22 +3549,25 @@
       <c r="F91">
         <v>6</v>
       </c>
-      <c r="G91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>69090</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
-      </c>
-      <c r="C92">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92">
         <v>2712</v>
-      </c>
-      <c r="D92">
-        <v>336</v>
       </c>
       <c r="E92">
         <v>336</v>
@@ -3288,22 +3575,25 @@
       <c r="F92">
         <v>336</v>
       </c>
-      <c r="G92" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>336</v>
+      </c>
+      <c r="H92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>69095</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93">
         <v>13</v>
-      </c>
-      <c r="D93">
-        <v>4</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -3311,45 +3601,51 @@
       <c r="F93">
         <v>4</v>
       </c>
-      <c r="G93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>69100</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94">
+        <v>194</v>
+      </c>
+      <c r="C94" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94">
         <v>4</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="G94" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>69110</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95">
+        <v>196</v>
+      </c>
+      <c r="C95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95">
         <v>46</v>
-      </c>
-      <c r="D95">
-        <v>6</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -3357,45 +3653,51 @@
       <c r="F95">
         <v>6</v>
       </c>
-      <c r="G95" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>6</v>
+      </c>
+      <c r="H95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>69120</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96">
+        <v>198</v>
+      </c>
+      <c r="C96" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96">
         <v>13</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="G96" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>69140</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97">
+        <v>200</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97">
         <v>1028</v>
-      </c>
-      <c r="D97">
-        <v>85</v>
       </c>
       <c r="E97">
         <v>85</v>
@@ -3403,22 +3705,25 @@
       <c r="F97">
         <v>85</v>
       </c>
-      <c r="G97" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>85</v>
+      </c>
+      <c r="H97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>69150</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98">
+        <v>202</v>
+      </c>
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98">
         <v>49</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -3426,45 +3731,51 @@
       <c r="F98">
         <v>5</v>
       </c>
-      <c r="G98" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>69151</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99">
         <v>66</v>
       </c>
-      <c r="D99">
-        <v>9</v>
-      </c>
       <c r="E99">
         <v>9</v>
       </c>
       <c r="F99">
         <v>9</v>
       </c>
-      <c r="G99" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>69170</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100">
         <v>27</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -3472,22 +3783,25 @@
       <c r="F100">
         <v>3</v>
       </c>
-      <c r="G100" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>69180</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101">
+        <v>208</v>
+      </c>
+      <c r="C101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101">
         <v>169</v>
-      </c>
-      <c r="D101">
-        <v>17</v>
       </c>
       <c r="E101">
         <v>17</v>
@@ -3495,22 +3809,25 @@
       <c r="F101">
         <v>17</v>
       </c>
-      <c r="G101" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>69190</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
-      </c>
-      <c r="C102">
+        <v>210</v>
+      </c>
+      <c r="C102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102">
         <v>1129</v>
-      </c>
-      <c r="D102">
-        <v>120</v>
       </c>
       <c r="E102">
         <v>120</v>
@@ -3518,22 +3835,25 @@
       <c r="F102">
         <v>120</v>
       </c>
-      <c r="G102" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>120</v>
+      </c>
+      <c r="H102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>69191</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103">
+        <v>212</v>
+      </c>
+      <c r="C103" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103">
         <v>91</v>
-      </c>
-      <c r="D103">
-        <v>10</v>
       </c>
       <c r="E103">
         <v>10</v>
@@ -3541,22 +3861,25 @@
       <c r="F103">
         <v>10</v>
       </c>
-      <c r="G103" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>69200</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104">
+        <v>214</v>
+      </c>
+      <c r="C104" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104">
         <v>23</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3564,22 +3887,25 @@
       <c r="F104">
         <v>2</v>
       </c>
-      <c r="G104" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>69300</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
-      </c>
-      <c r="C105">
+        <v>216</v>
+      </c>
+      <c r="C105" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105">
         <v>77</v>
-      </c>
-      <c r="D105">
-        <v>5</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -3587,45 +3913,51 @@
       <c r="F105">
         <v>5</v>
       </c>
-      <c r="G105" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>70050</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106">
+        <v>218</v>
+      </c>
+      <c r="C106" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106">
         <v>4</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
-      <c r="G106" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>70120</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
-      </c>
-      <c r="C107">
+        <v>220</v>
+      </c>
+      <c r="C107" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107">
         <v>373</v>
-      </c>
-      <c r="D107">
-        <v>38</v>
       </c>
       <c r="E107">
         <v>38</v>
@@ -3633,22 +3965,25 @@
       <c r="F107">
         <v>38</v>
       </c>
-      <c r="G107" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>38</v>
+      </c>
+      <c r="H107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>72010</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
-      </c>
-      <c r="C108">
+        <v>222</v>
+      </c>
+      <c r="C108" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108">
         <v>5</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -3656,22 +3991,25 @@
       <c r="F108">
         <v>2</v>
       </c>
-      <c r="G108" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>72040</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
-      </c>
-      <c r="C109">
+        <v>224</v>
+      </c>
+      <c r="C109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D109">
         <v>37</v>
-      </c>
-      <c r="D109">
-        <v>4</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -3679,22 +4017,25 @@
       <c r="F109">
         <v>4</v>
       </c>
-      <c r="G109" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>72080</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110">
-        <v>9</v>
+        <v>226</v>
+      </c>
+      <c r="C110" t="s">
+        <v>180</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -3702,45 +4043,51 @@
       <c r="F110">
         <v>2</v>
       </c>
-      <c r="G110" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>72100</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
-      </c>
-      <c r="C111">
+        <v>228</v>
+      </c>
+      <c r="C111" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111">
         <v>7</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
-      <c r="G111" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>78160</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
-      </c>
-      <c r="C112">
+        <v>230</v>
+      </c>
+      <c r="C112" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112">
         <v>26</v>
-      </c>
-      <c r="D112">
-        <v>4</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -3748,68 +4095,77 @@
       <c r="F112">
         <v>4</v>
       </c>
-      <c r="G112" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>4</v>
+      </c>
+      <c r="H112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>83010</v>
       </c>
       <c r="B113" t="s">
-        <v>229</v>
-      </c>
-      <c r="C113">
+        <v>232</v>
+      </c>
+      <c r="C113" t="s">
+        <v>180</v>
+      </c>
+      <c r="D113">
         <v>188</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>178</v>
-      </c>
-      <c r="E113">
-        <v>167</v>
       </c>
       <c r="F113">
         <v>167</v>
       </c>
-      <c r="G113" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>167</v>
+      </c>
+      <c r="H113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>83020</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114">
+        <v>234</v>
+      </c>
+      <c r="C114" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114">
         <v>27</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>7</v>
-      </c>
-      <c r="E114">
-        <v>6</v>
       </c>
       <c r="F114">
         <v>6</v>
       </c>
-      <c r="G114" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>6</v>
+      </c>
+      <c r="H114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>83030</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
-      </c>
-      <c r="C115">
+        <v>236</v>
+      </c>
+      <c r="C115" t="s">
+        <v>180</v>
+      </c>
+      <c r="D115">
         <v>10</v>
-      </c>
-      <c r="D115">
-        <v>2</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -3817,68 +4173,77 @@
       <c r="F115">
         <v>2</v>
       </c>
-      <c r="G115" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>83040</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
-      </c>
-      <c r="C116">
+        <v>238</v>
+      </c>
+      <c r="C116" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116">
         <v>8</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
-      <c r="G116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>83050</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
-      </c>
-      <c r="C117">
+        <v>240</v>
+      </c>
+      <c r="C117" t="s">
+        <v>180</v>
+      </c>
+      <c r="D117">
         <v>70</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>2</v>
       </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="G117" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>200409</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
-      </c>
-      <c r="C118">
+        <v>242</v>
+      </c>
+      <c r="C118" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118">
         <v>25</v>
-      </c>
-      <c r="D118">
-        <v>3</v>
       </c>
       <c r="E118">
         <v>3</v>
@@ -3886,22 +4251,25 @@
       <c r="F118">
         <v>3</v>
       </c>
-      <c r="G118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>200510</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
-      </c>
-      <c r="C119">
+        <v>244</v>
+      </c>
+      <c r="C119" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119">
         <v>221</v>
-      </c>
-      <c r="D119">
-        <v>18</v>
       </c>
       <c r="E119">
         <v>18</v>
@@ -3909,22 +4277,25 @@
       <c r="F119">
         <v>18</v>
       </c>
-      <c r="G119" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>18</v>
+      </c>
+      <c r="H119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>200518</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
-      </c>
-      <c r="C120">
+        <v>246</v>
+      </c>
+      <c r="C120" t="s">
+        <v>180</v>
+      </c>
+      <c r="D120">
         <v>156</v>
-      </c>
-      <c r="D120">
-        <v>17</v>
       </c>
       <c r="E120">
         <v>17</v>
@@ -3932,22 +4303,25 @@
       <c r="F120">
         <v>17</v>
       </c>
-      <c r="G120" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>200519</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
-      </c>
-      <c r="C121">
+        <v>248</v>
+      </c>
+      <c r="C121" t="s">
+        <v>180</v>
+      </c>
+      <c r="D121">
         <v>67</v>
-      </c>
-      <c r="D121">
-        <v>7</v>
       </c>
       <c r="E121">
         <v>7</v>
@@ -3955,22 +4329,25 @@
       <c r="F121">
         <v>7</v>
       </c>
-      <c r="G121" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>7</v>
+      </c>
+      <c r="H121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>200522</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
-      </c>
-      <c r="C122">
+        <v>250</v>
+      </c>
+      <c r="C122" t="s">
+        <v>180</v>
+      </c>
+      <c r="D122">
         <v>246</v>
-      </c>
-      <c r="D122">
-        <v>28</v>
       </c>
       <c r="E122">
         <v>28</v>
@@ -3978,22 +4355,25 @@
       <c r="F122">
         <v>28</v>
       </c>
-      <c r="G122" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>200523</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
-      </c>
-      <c r="C123">
+        <v>252</v>
+      </c>
+      <c r="C123" t="s">
+        <v>180</v>
+      </c>
+      <c r="D123">
         <v>77</v>
-      </c>
-      <c r="D123">
-        <v>10</v>
       </c>
       <c r="E123">
         <v>10</v>
@@ -4001,22 +4381,25 @@
       <c r="F123">
         <v>10</v>
       </c>
-      <c r="G123" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>200524</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
-      </c>
-      <c r="C124">
+        <v>254</v>
+      </c>
+      <c r="C124" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124">
         <v>26</v>
-      </c>
-      <c r="D124">
-        <v>3</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -4024,13 +4407,16 @@
       <c r="F124">
         <v>3</v>
       </c>
-      <c r="G124" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/server/export.xlsx
+++ b/server/export.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="186">
+  <si>
+    <t>Отчет за период с 01-01-2018</t>
+  </si>
+  <si>
+    <t>по 01-12-2018</t>
+  </si>
   <si>
     <t>Код услуги</t>
   </si>
@@ -43,742 +49,523 @@
     <t>AMB</t>
   </si>
   <si>
-    <t>20765.36</t>
-  </si>
-  <si>
     <t>Прием врача-кардиолога лечебно-диагностический, повторный, амб.</t>
   </si>
   <si>
-    <t>52800</t>
-  </si>
-  <si>
     <t>Прием врача-эндокринолога лечебно-диагностический, первичный, амб.</t>
   </si>
   <si>
-    <t>111.77</t>
+    <t>Прием врача-эндокринолога лечебно-диагностический, повторный, амб.</t>
   </si>
   <si>
     <t>Прием врача-физиотерапевта лечебный, первичный, амб.</t>
   </si>
   <si>
-    <t>1540.25</t>
-  </si>
-  <si>
     <t>Прием врача-физиотерапевта лечебный, повторный, амб.</t>
   </si>
   <si>
-    <t>1541.76</t>
-  </si>
-  <si>
     <t>Прием врача-офтальмолога лечебно-диагностический, первичный, амб.</t>
   </si>
   <si>
-    <t>156.84</t>
-  </si>
-  <si>
     <t>Прием врача-отоларинголога лечебно-диагностический, первичный, амб.</t>
   </si>
   <si>
-    <t>84.53</t>
-  </si>
-  <si>
     <t>Прием врача-невролога лечебно-диагностический, первичный, амб.</t>
   </si>
   <si>
-    <t>446.8</t>
-  </si>
-  <si>
     <t>Прием врача-невролога лечебно-диагностический, повторный, амб.</t>
   </si>
   <si>
-    <t>74.07</t>
-  </si>
-  <si>
     <t>Консультация врача-кардиолога</t>
   </si>
   <si>
-    <t>159439.68</t>
-  </si>
-  <si>
     <t>Консультация врача-эндокринолога</t>
   </si>
   <si>
-    <t>16792.08</t>
-  </si>
-  <si>
     <t>Консультация врача-хирурга</t>
   </si>
   <si>
-    <t>29962.24</t>
-  </si>
-  <si>
     <t>Консультация врача-офтальмолога</t>
   </si>
   <si>
-    <t>3212</t>
-  </si>
-  <si>
     <t>Консультация врача-невролога</t>
   </si>
   <si>
-    <t>10596.99</t>
-  </si>
-  <si>
     <t>Консультация снимков, трактовка исследований специалистами, выполненных в других МО</t>
   </si>
   <si>
-    <t>259.82</t>
+    <t>Консультация врача-сердечно-сосудистого хирурга в стационаpе</t>
+  </si>
+  <si>
+    <t>Консультация врача сердечно-сосудистого хирурга КДО стационара (осмотр, консультация врача-специалиста с настройкой ритма кардиостимулятора)</t>
+  </si>
+  <si>
+    <t>Аппликационная анестезия</t>
   </si>
   <si>
     <t>Определение поля взора ( поликлинический уровень)</t>
   </si>
   <si>
-    <t>624.6</t>
+    <t>Исследование бинокулярного зрения (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Определение объема аккомодации (поликлинический уровень)</t>
   </si>
   <si>
     <t>Иссл. глазного дна с помощью щелевой лампы (биомикроофтальмоскопия) (поликлинический уровень)</t>
   </si>
   <si>
-    <t>2831.01</t>
+    <t>Введение лекарственных средств в халязион (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Офтальмоскопия под мидриазом (поликлинический уровень)</t>
   </si>
   <si>
     <t>Биомикроскопия конъюнктивы и эписклеры переднего отрезка глаза и глубоких преломляющих сред (поликлинический уровень)</t>
   </si>
   <si>
-    <t>2458.93</t>
+    <t>Скарификация и туширование роговичных воспалительных очагов (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Скиаскопия (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Исследование на демодекс (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Удаление инородного тела с поверхности глаза (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Инстилляция лекарственных веществ (поликлинический уровень)</t>
   </si>
   <si>
     <t>Офтальмотонометрия (поликлинический уровень)</t>
   </si>
   <si>
-    <t>33.53</t>
+    <t>Рефрактометрия (поликлинический уровень)</t>
   </si>
   <si>
     <t>Рефрактометрия компьютерная (консультативный уровень)</t>
   </si>
   <si>
-    <t>963.3</t>
-  </si>
-  <si>
     <t>Офтальмотонометрия компьютерная (консультативный уровень)</t>
   </si>
   <si>
-    <t>847.98</t>
-  </si>
-  <si>
     <t>Формирование одной кариозной полости</t>
   </si>
   <si>
-    <t>1084.05</t>
+    <t>Раскрытие полости зуба с медикаментозной обработкой.</t>
   </si>
   <si>
     <t>Ампутация пульпы</t>
   </si>
   <si>
-    <t>59.93</t>
-  </si>
-  <si>
     <t>Экстирпация, удаление распада из 1 канала</t>
   </si>
   <si>
-    <t>323.79</t>
-  </si>
-  <si>
     <t>Импрегнация или медикаментозная  обработка 1 канала.</t>
   </si>
   <si>
-    <t>342.27</t>
-  </si>
-  <si>
     <t>Пломбирование одного канала пастой</t>
   </si>
   <si>
-    <t>282.04</t>
-  </si>
-  <si>
     <t>Наложение мышьяковистой пасты</t>
   </si>
   <si>
-    <t>39.53</t>
-  </si>
-  <si>
     <t>Наложение временной пломбы</t>
   </si>
   <si>
-    <t>286.5</t>
-  </si>
-  <si>
     <t>Механическое и химическое расширение облитерированного  корневого  канала</t>
   </si>
   <si>
-    <t>171.14</t>
-  </si>
-  <si>
     <t>Снятие временной пломбы</t>
   </si>
   <si>
-    <t>290.85</t>
-  </si>
-  <si>
     <t>Снятие пломбы, трепанации коронки</t>
   </si>
   <si>
-    <t>493.99</t>
-  </si>
-  <si>
     <t>Снятие зубных отложений в области 1 зуба (ручным/механическим способом)</t>
   </si>
   <si>
-    <t>276.12</t>
-  </si>
-  <si>
     <t>Медикаментозная обработка патологических пародонтальных карманов</t>
   </si>
   <si>
-    <t>799.84</t>
-  </si>
-  <si>
     <t>Кюретаж в области 1 патологического кармана</t>
   </si>
   <si>
-    <t>116.31</t>
-  </si>
-  <si>
     <t>Перевязка после сложного хирургического вмешательства</t>
   </si>
   <si>
-    <t>806.54</t>
-  </si>
-  <si>
     <t>Полирование пломбы</t>
   </si>
   <si>
-    <t>1068.0</t>
+    <t>Анестезия челюстно-лицевой области инфильтрационная</t>
   </si>
   <si>
     <t>Чтение рентгенограммы</t>
   </si>
   <si>
-    <t>113.67</t>
-  </si>
-  <si>
     <t>Пломба из цемента</t>
   </si>
   <si>
-    <t>654.81</t>
-  </si>
-  <si>
     <t>Пломба из композитного материала химического отверждения</t>
   </si>
   <si>
-    <t>2095.35</t>
-  </si>
-  <si>
     <t>Прием врача-стоматолога первичный, амб.</t>
   </si>
   <si>
-    <t>1638.0</t>
-  </si>
-  <si>
     <t>Прием врача-стоматолога, повторный, амб.</t>
   </si>
   <si>
-    <t>1993.00</t>
+    <t>Эзофагогастродуоденоскопия лечебно-диагностическая (в т.ч. с биопсией)</t>
+  </si>
+  <si>
+    <t>Ректосигмоколоноскопия лечебно-диагностич. (в т.ч. с биопсией)</t>
   </si>
   <si>
     <t>ЭКГ (в 12-ти отведениях) ПА5-02</t>
   </si>
   <si>
-    <t>78419.46</t>
+    <t>ВЭМ при педалировании без периодов отдыха</t>
   </si>
   <si>
     <t>Тредмилтест</t>
   </si>
   <si>
-    <t>40704.86</t>
-  </si>
-  <si>
     <t>Холтеровское мониторирование при длительности  мониторирования до 24 часов</t>
   </si>
   <si>
-    <t>97589.43</t>
+    <t>Чреспищеводная электрическая стимуляция предсердий при исследовании электрофизиологических характеристик  сердца</t>
   </si>
   <si>
     <t>Длительное мониторирование артериального давления свободно передвигающегося человека</t>
   </si>
   <si>
-    <t>823.38</t>
-  </si>
-  <si>
     <t>Исследование скорости оседания эритроцитов</t>
   </si>
   <si>
-    <t>24557.52</t>
-  </si>
-  <si>
     <t>Комплексное исследование на гематологическом анализаторе с функцией дифференциации лейкоцитов по 5-ти популяциям (без определения ретикулоцитов)</t>
   </si>
   <si>
-    <t>88813.48</t>
-  </si>
-  <si>
     <t>Исследование мочи на мочевом анализаторе</t>
   </si>
   <si>
-    <t>5571.36</t>
+    <t>Исследование кала на скрытую кровь</t>
+  </si>
+  <si>
+    <t>Проведение срочного лабораторного исследования для пациентов в критических ситуациях</t>
   </si>
   <si>
     <t>Исследование уровня глюкозы и (или) лактата в крови с помощью анализатора</t>
   </si>
   <si>
-    <t>119.2</t>
-  </si>
-  <si>
     <t>Определение одного биохимического показателя в крови с выдачей результата в количественном виде с определенной размерностью.</t>
   </si>
   <si>
-    <t>296416.50</t>
-  </si>
-  <si>
     <t>Определение одного биохимического показателя в моче и других биологических жидкостях с выдачей результата в количественном виде с определенной размерностью.</t>
   </si>
   <si>
-    <t>2093.28</t>
-  </si>
-  <si>
     <t>Коагулограмма (Исследование на автоматическом коагулометре)</t>
   </si>
   <si>
-    <t>47915.39</t>
+    <t>Определение Д-димера</t>
   </si>
   <si>
     <t>Определение протромбинового (тромбопластинового) времени с расчетом МНО</t>
   </si>
   <si>
-    <t>97.92</t>
+    <t>Обработка крови, включая регистрацию</t>
+  </si>
+  <si>
+    <t>Исследование уровня антитромбина III в крови</t>
   </si>
   <si>
     <t>Исследование уровня  гликированного гемоглобина в крови</t>
   </si>
   <si>
-    <t>18114.46</t>
-  </si>
-  <si>
     <t>Исследование уровня паратиреоидного гормона в крови</t>
   </si>
   <si>
-    <t>167.45</t>
+    <t>Исследование уровня адреналина, норадреналина</t>
+  </si>
+  <si>
+    <t>Определение уровня остеокальцина в крови</t>
+  </si>
+  <si>
+    <t>Определение одного маркера резорбции костной ткани</t>
   </si>
   <si>
     <t>Определение одного антигена групп крови по системе (АВО, подгруппы и групп крови меньшего значения)</t>
   </si>
   <si>
-    <t>7815.60</t>
-  </si>
-  <si>
     <t>Определение одного аутоантитела</t>
   </si>
   <si>
-    <t>297.3</t>
-  </si>
-  <si>
     <t>Rg-графия органов грудной клетки</t>
   </si>
   <si>
-    <t>2746.90</t>
-  </si>
-  <si>
     <t>Rg-скопия и Rg-графия сердца с контрастир. пищевода (3 проекции)</t>
   </si>
   <si>
-    <t>82002.42</t>
-  </si>
-  <si>
     <t>Rg-графия шейного,грудн.,поясн.-крестц.отдела позвоночника,копчика</t>
   </si>
   <si>
-    <t>225.36</t>
+    <t>Rg-графия шейного, грудного ,поясн.-крестцового отдела позвоночника, копчика с функциональными пробами</t>
   </si>
   <si>
     <t>Rg-графия лопатки, грудины, ключицы</t>
   </si>
   <si>
-    <t>268.07</t>
+    <t>Rg-графия крупного сустава</t>
+  </si>
+  <si>
+    <t>Компьютерная денситометрия костей</t>
   </si>
   <si>
     <t>Сцинтиграфия щитовидной железы</t>
   </si>
   <si>
-    <t>11088.09</t>
-  </si>
-  <si>
     <t>Сцинтиграфия миокарда</t>
   </si>
   <si>
-    <t>181613.52</t>
+    <t>Однофотонная эмиссионная компьютерная томография, совмещенная с компьютерной томографией</t>
   </si>
   <si>
     <t>Сцинтиграфия легких</t>
   </si>
   <si>
-    <t>4338.04</t>
-  </si>
-  <si>
     <t>Сцинтиграфия костей</t>
   </si>
   <si>
-    <t>37754.88</t>
+    <t>Динамическая нефросцинтиграфия</t>
   </si>
   <si>
     <t>Сцинтиграфия паращитовидных желез</t>
   </si>
   <si>
-    <t>6707.11</t>
+    <t>УЗИ органов  гепатобилиарной  системы ( печень, желч. пузырь и желч. протоки, поджелудочная железа)</t>
+  </si>
+  <si>
+    <t>УЗИ селезенки</t>
+  </si>
+  <si>
+    <t>УЗИ полых органов (желудка, кишечника)</t>
   </si>
   <si>
     <t>УЗИ почек, надпочечников и забрюшинного пространства</t>
   </si>
   <si>
-    <t>7246.79</t>
-  </si>
-  <si>
     <t>УЗИ щитовидной железы</t>
   </si>
   <si>
-    <t>758.43</t>
-  </si>
-  <si>
     <t>Эхокардиография с допплеровским анализом</t>
   </si>
   <si>
-    <t>123388.16</t>
-  </si>
-  <si>
     <t>Эхокардиография чреспищеводная</t>
   </si>
   <si>
-    <t>510.98</t>
-  </si>
-  <si>
     <t>Стресс-эхоКГ с физической нагрузкой (на велоэргометре или тредмиле)</t>
   </si>
   <si>
-    <t>36992.29</t>
-  </si>
-  <si>
     <t>УЗ-допплерография в дуплексном режиме парных сосудов (артерий или вен)</t>
   </si>
   <si>
-    <t>12422.1</t>
-  </si>
-  <si>
     <t>Электрофорез лекарственный</t>
   </si>
   <si>
-    <t>201.88</t>
-  </si>
-  <si>
     <t>Магнитотерапия (1 поле)</t>
   </si>
   <si>
-    <t>496.86</t>
-  </si>
-  <si>
     <t>Магнитотерапия (2 поля)</t>
   </si>
   <si>
-    <t>1561.81</t>
-  </si>
-  <si>
     <t>Диадинамотерапия (1 поле)</t>
   </si>
   <si>
-    <t>642.69</t>
-  </si>
-  <si>
     <t>Диадинамотерапия (2 поля)</t>
   </si>
   <si>
-    <t>2960.88</t>
-  </si>
-  <si>
     <t>Микроволновая терапия (ДМВ,СМВ) (1 поле)</t>
   </si>
   <si>
-    <t>554.19</t>
-  </si>
-  <si>
     <t>УЗ-терапия (1-2 поля)</t>
   </si>
   <si>
-    <t>51.06</t>
-  </si>
-  <si>
     <t>Фонофорез (1-2 поля)</t>
   </si>
   <si>
-    <t>1534.39</t>
+    <t>Фонофорез (3-4 поля и более)</t>
   </si>
   <si>
     <t>УВЧ-терапия (1 поле)</t>
   </si>
   <si>
-    <t>420.42</t>
+    <t>ОКУФ-терапия (1 поле)</t>
   </si>
   <si>
     <t>ОКУФ-терапия (2 поля)</t>
   </si>
   <si>
-    <t>160.2</t>
-  </si>
-  <si>
     <t>Аэрозольтерапия,электроаэрозольтерапия, УЗ-ингаляции</t>
   </si>
   <si>
-    <t>485.75</t>
-  </si>
-  <si>
     <t>Сегментарный массаж шейно-воротниковой области и головы</t>
   </si>
   <si>
-    <t>587.28</t>
+    <t>Сегментарный массаж шейно-грудного отдела позвоночника</t>
   </si>
   <si>
     <t>Аутопсия (вскрытие) 4-й категории сложности</t>
   </si>
   <si>
-    <t>11868.95</t>
-  </si>
-  <si>
     <t>Синдромы головной боли. Расстройства вегетативной нервной системы</t>
   </si>
   <si>
     <t>STAC</t>
   </si>
   <si>
-    <t>179400.84</t>
-  </si>
-  <si>
     <t>Спондилез и связанные с ним состояния. Остеохондроз позвоночника</t>
   </si>
   <si>
-    <t>57749.50</t>
-  </si>
-  <si>
     <t>Острый перикардит (кроме ревматического)</t>
   </si>
   <si>
-    <t>36651.58</t>
-  </si>
-  <si>
     <t>Гипертоническая болезнь, артериальная гипертония без сердечной недостаточности и ХПН. Нейроциркуляторная дистония</t>
   </si>
   <si>
-    <t>6326815.78</t>
-  </si>
-  <si>
     <t>Гипертоническая болезнь, артериальная гипертония с сердечной недостаточностью и ХПН</t>
   </si>
   <si>
-    <t>238716</t>
-  </si>
-  <si>
     <t>Хроническая ишемическая болезнь сердца. Хронические сосудистые болезни</t>
   </si>
   <si>
-    <t>6386362.32</t>
-  </si>
-  <si>
     <t>Плановое коронарографическое исследование</t>
   </si>
   <si>
-    <t>57629.52</t>
-  </si>
-  <si>
     <t>Другие острые и подострые формы ишемической болезни сердца</t>
   </si>
   <si>
-    <t>32351.47</t>
-  </si>
-  <si>
     <t>Острый инфаркт миокарда неосложненный</t>
   </si>
   <si>
-    <t>262305.66</t>
-  </si>
-  <si>
     <t>Острый инфаркт миокарда осложненный</t>
   </si>
   <si>
-    <t>61322.66</t>
-  </si>
-  <si>
     <t>Сердечная недостаточность застойного характера</t>
   </si>
   <si>
-    <t>4355368.54</t>
-  </si>
-  <si>
     <t>Гипертрофическая кардиомиопатия</t>
   </si>
   <si>
-    <t>174142.75</t>
-  </si>
-  <si>
     <t>Дилатационная кардиомиопатия</t>
   </si>
   <si>
-    <t>233486.07</t>
+    <t>Рестриктивная кардиомиопатия</t>
+  </si>
+  <si>
+    <t>Вторичная кардиомиопатия</t>
   </si>
   <si>
     <t>Нарушения проводимости сердца</t>
   </si>
   <si>
-    <t>52025.58</t>
-  </si>
-  <si>
     <t>Пароксизмальная тахикардия</t>
   </si>
   <si>
-    <t>340653.99</t>
-  </si>
-  <si>
     <t>Фибрилляция и мерцание предсердий</t>
   </si>
   <si>
-    <t>4950000</t>
-  </si>
-  <si>
     <t>Экстрасистолическая аритмия</t>
   </si>
   <si>
-    <t>173388.40</t>
-  </si>
-  <si>
     <t>Синдром слабости синусового узла</t>
   </si>
   <si>
-    <t>43293.58</t>
-  </si>
-  <si>
     <t>Фибрилляция и мерцание предсердий (с оперативным пособием)</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
     <t>Острая очаговая пневмония неосложненная</t>
   </si>
   <si>
-    <t>15718.04</t>
-  </si>
-  <si>
     <t>Хроническая легочно-сердечная недостаточность</t>
   </si>
   <si>
-    <t>1137779.28</t>
-  </si>
-  <si>
     <t>Тромбоз и эмболия аорты и других артерий.Аневризма</t>
   </si>
   <si>
-    <t>29381.35</t>
+    <t>Тромбоз и эмболия аорты и других артерий. Аневризма+ РЭВ</t>
   </si>
   <si>
     <t>Артериосклеротическая болезнь и другие поражения сосудов</t>
   </si>
   <si>
-    <t>177995.43</t>
+    <t>Артериосклеротическая болезнь и другие поражения сосудов + РЭВ (Эндоваскулярная реканализация артерий нижних конечностей с применением баллонной дилатации при критической ишемии нижених конечностей)</t>
+  </si>
+  <si>
+    <t>Артериосклеротическая болезнь и другие поражения сосудов + РЭВ (Эндоваскулярная реканализация артерий нижних конечностей с применением баллонной дилатации и стентирования при критической ишемии нижени</t>
+  </si>
+  <si>
+    <t>Аневризмы артерий (кроме аорты)</t>
   </si>
   <si>
     <t>Варикозное расширение вен нижних конечностей без осложнений.Аномалия развития системы кровообращения</t>
   </si>
   <si>
-    <t>41617.4</t>
+    <t>Флебит и тромбофлебит</t>
   </si>
   <si>
     <t>Флебит и тромбофлебит поверхностных вен нижней конечности</t>
   </si>
   <si>
-    <t>21572.67</t>
+    <t>Нефрогенная гипертония</t>
   </si>
   <si>
     <t>Ревматические пороки сердца</t>
   </si>
   <si>
-    <t>77630.12</t>
+    <t>Рентгеноэлектротехнический контроль электрокардиостимулятора</t>
   </si>
   <si>
     <t>Реанимация 1-ой категории сложности</t>
   </si>
   <si>
-    <t>1540810.4</t>
-  </si>
-  <si>
     <t>Реанимация 2-ой категории сложности</t>
   </si>
   <si>
-    <t>630820.50</t>
-  </si>
-  <si>
     <t>Реанимация 3-ей категории сложности</t>
   </si>
   <si>
-    <t>223058.9</t>
-  </si>
-  <si>
     <t>Реанимация 4-ой категории сложности</t>
   </si>
   <si>
-    <t>171170.91</t>
-  </si>
-  <si>
     <t>Реанимация 5-ой категории сложности</t>
   </si>
   <si>
-    <t>1066470.3</t>
-  </si>
-  <si>
     <t>Имплантация частотно-адаптированного однокамерного кардиостимулятора (у взрослых)</t>
   </si>
   <si>
-    <t>456548.37</t>
-  </si>
-  <si>
     <t>Имплантация частотно-адаптированного двухкамерного кардиостимулятора</t>
   </si>
   <si>
-    <t>4545613.44</t>
-  </si>
-  <si>
     <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>3541777.62</t>
-  </si>
-  <si>
     <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>1676031.63</t>
+    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
   </si>
   <si>
     <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>5201305.76</t>
-  </si>
-  <si>
     <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>2136927.50</t>
-  </si>
-  <si>
     <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
   </si>
   <si>
-    <t>815917.5</t>
+    <t>Аортокоронарное шунтирование у больных ишемической болезнью сердца в условиях искусственного кровоснабжения</t>
   </si>
   <si>
     <t>Total</t>
@@ -826,7 +613,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -840,8 +636,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A1:H125" totalsRowCount="1" headerRowCount="1">
-  <autoFilter ref="A1:H124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A3:H177" totalsRowCount="1" headerRowCount="1">
+  <autoFilter ref="A3:H176">
     <filterColumn colId="0" hiddenButton="0"/>
     <filterColumn colId="1" hiddenButton="0"/>
     <filterColumn colId="2" hiddenButton="0"/>
@@ -852,16 +648,16 @@
     <filterColumn colId="7" hiddenButton="0"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Код услуги" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Наименование услуги" totalsRowFunction="none"/>
-    <tableColumn id="3" name="тип" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Кол-во услуг за период" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Кол-во движений (по счету) за период" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Кол-во документов за период" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Кол-во карт за период" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Суммарная стоимость услуг (руб) за период" totalsRowFunction="none"/>
+    <tableColumn id="1" name="Код услуги" totalsRowLabel="Total" dxfId="0"/>
+    <tableColumn id="2" name="Наименование услуги" totalsRowFunction="none" dxfId="1"/>
+    <tableColumn id="3" name="тип" totalsRowFunction="none" dxfId="2"/>
+    <tableColumn id="4" name="Кол-во услуг за период" totalsRowFunction="none" dxfId="3"/>
+    <tableColumn id="5" name="Кол-во движений (по счету) за период" totalsRowFunction="none" dxfId="4"/>
+    <tableColumn id="6" name="Кол-во документов за период" totalsRowFunction="none" dxfId="5"/>
+    <tableColumn id="7" name="Кол-во карт за период" totalsRowFunction="none" dxfId="6"/>
+    <tableColumn id="8" name="Суммарная стоимость услуг (руб) за период" totalsRowFunction="none" dxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1187,174 +983,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H177"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1041</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2">
-        <v>154</v>
-      </c>
-      <c r="E2">
-        <v>154</v>
-      </c>
-      <c r="F2">
-        <v>154</v>
-      </c>
-      <c r="G2">
-        <v>154</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1042</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>528</v>
-      </c>
-      <c r="E3">
-        <v>528</v>
-      </c>
-      <c r="F3">
-        <v>528</v>
-      </c>
-      <c r="G3">
-        <v>478</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1816</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1816</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1816</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
+        <v>1816</v>
+      </c>
+      <c r="H4">
+        <v>244869.44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1101</v>
+        <v>1042</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>3320</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>3320</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>3320</v>
       </c>
       <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
+        <v>3027</v>
+      </c>
+      <c r="H5">
+        <v>332000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1102</v>
+        <v>1071</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>1676.55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1261</v>
+        <v>1072</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1368,435 +1124,435 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
+      <c r="H7">
+        <v>73.86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1271</v>
+        <v>1101</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="H8">
+        <v>6037.78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1301</v>
+        <v>1102</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="H9">
+        <v>4769.82</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1302</v>
+        <v>1261</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>627.36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1702</v>
+        <v>1271</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>828</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>828</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>828</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>810</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>253.59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1705</v>
+        <v>1301</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>2010.6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1707</v>
+        <v>1302</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>74.07</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>4824</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>4824</v>
       </c>
       <c r="F14">
-        <v>22</v>
+        <v>4824</v>
       </c>
       <c r="G14">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
+        <v>4637</v>
+      </c>
+      <c r="H14">
+        <v>928909.44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="E15">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="F15">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="G15">
-        <v>59</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
+        <v>346</v>
+      </c>
+      <c r="H15">
+        <v>63918.24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
+        <v>148</v>
+      </c>
+      <c r="H16">
+        <v>80256</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7002</v>
+        <v>1710</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G17">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="H17">
+        <v>16060</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7012</v>
+        <v>1712</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="F18">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="G18">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
+        <v>345</v>
+      </c>
+      <c r="H18">
+        <v>62145.06</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7021</v>
+        <v>1720</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
         <v>9</v>
       </c>
-      <c r="D19">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>1169.19</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7051</v>
+        <v>1755</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
+        <v>202</v>
+      </c>
+      <c r="H20">
+        <v>19472.96</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7066</v>
+        <v>1780</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="G21">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
+        <v>161</v>
+      </c>
+      <c r="H21">
+        <v>186621.54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7068</v>
+        <v>3043</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>296.92</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9001</v>
+        <v>7002</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G23">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>52</v>
+        <v>86</v>
+      </c>
+      <c r="H23">
+        <v>2984.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>9004</v>
+        <v>7005</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1810,149 +1566,149 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>54</v>
+      <c r="H24">
+        <v>44.42</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>9005</v>
+        <v>7008</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>34.38</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>9006</v>
+        <v>7012</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>58</v>
+        <v>108</v>
+      </c>
+      <c r="H26">
+        <v>14559.48</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9007</v>
+        <v>7018</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>67.12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9010</v>
+        <v>7019</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>62</v>
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>9011</v>
+        <v>7021</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="H29">
+        <v>8125.16</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9015</v>
+        <v>7023</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1966,825 +1722,825 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>66</v>
+      <c r="H30">
+        <v>42.05</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9016</v>
+        <v>7024</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
-        <v>68</v>
+      <c r="H31">
+        <v>98.72</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>9032</v>
+        <v>7025</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>7</v>
-      </c>
-      <c r="H32" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>75.97</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>9043</v>
+        <v>7036</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>78.44</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9045</v>
+        <v>7040</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>6.45</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9046</v>
+        <v>7051</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>134.12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>9074</v>
+        <v>7056</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>321.7</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9150</v>
+        <v>7066</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="G37">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="H37">
+        <v>5222.1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9159</v>
+        <v>7068</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>4711</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>9200</v>
+        <v>9001</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E39">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="G39">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="H39">
+        <v>7516.08</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9207</v>
+        <v>9003</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>424.72</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>9401</v>
+        <v>9004</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>659.23</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9402</v>
+        <v>9005</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G42">
-        <v>10</v>
-      </c>
-      <c r="H42" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>2482.39</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>22105</v>
+        <v>9006</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>651</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>651</v>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>651</v>
+        <v>20</v>
       </c>
       <c r="G43">
-        <v>640</v>
-      </c>
-      <c r="H43" t="s">
-        <v>92</v>
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>2281.8</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>22128</v>
+        <v>9007</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G44">
-        <v>82</v>
-      </c>
-      <c r="H44" t="s">
-        <v>94</v>
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>1974.28</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>22142</v>
+        <v>9010</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
         <v>9</v>
       </c>
-      <c r="D45">
-        <v>159</v>
-      </c>
       <c r="E45">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="G45">
-        <v>159</v>
-      </c>
-      <c r="H45" t="s">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>355.77</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>22511</v>
+        <v>9011</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>2120.1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>25016</v>
+        <v>9015</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>408</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>408</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>408</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>400</v>
-      </c>
-      <c r="H47" t="s">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>513.42</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>25064</v>
+        <v>9016</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>452</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>452</v>
+        <v>35</v>
       </c>
       <c r="F48">
-        <v>452</v>
+        <v>35</v>
       </c>
       <c r="G48">
-        <v>444</v>
-      </c>
-      <c r="H48" t="s">
-        <v>102</v>
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>2035.95</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>25125</v>
+        <v>9032</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E49">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F49">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G49">
-        <v>70</v>
-      </c>
-      <c r="H49" t="s">
-        <v>104</v>
+        <v>41</v>
+      </c>
+      <c r="H49">
+        <v>4445.91</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>26001</v>
+        <v>9043</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50" t="s">
-        <v>106</v>
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>874.38</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>26002</v>
+        <v>9045</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>5475</v>
+        <v>29</v>
       </c>
       <c r="E51">
-        <v>551</v>
+        <v>29</v>
       </c>
       <c r="F51">
-        <v>551</v>
+        <v>29</v>
       </c>
       <c r="G51">
-        <v>540</v>
-      </c>
-      <c r="H51" t="s">
-        <v>108</v>
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>2899.42</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>26003</v>
+        <v>9046</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>271.39</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>26054</v>
+        <v>9074</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>109</v>
-      </c>
-      <c r="H53" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1152.2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>26056</v>
+        <v>9150</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54" t="s">
-        <v>114</v>
+        <v>69</v>
+      </c>
+      <c r="H54">
+        <v>6942</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>26098</v>
+        <v>9153</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>74</v>
-      </c>
-      <c r="H55" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>35.23</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>26148</v>
+        <v>9159</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>757.8</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>28019</v>
+        <v>9200</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E57">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G57">
-        <v>65</v>
-      </c>
-      <c r="H57" t="s">
-        <v>120</v>
+        <v>55</v>
+      </c>
+      <c r="H57">
+        <v>4029.6</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>28126</v>
+        <v>9207</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>122</v>
+        <v>68</v>
+      </c>
+      <c r="H58">
+        <v>14388.07</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>35002</v>
+        <v>9401</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59" t="s">
-        <v>124</v>
+        <v>60</v>
+      </c>
+      <c r="H59">
+        <v>6661.2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>35004</v>
+        <v>9402</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="E60">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="F60">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="G60">
-        <v>205</v>
-      </c>
-      <c r="H60" t="s">
-        <v>126</v>
+        <v>63</v>
+      </c>
+      <c r="H60">
+        <v>11360.1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>35201</v>
+        <v>21022</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>128</v>
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1227.7</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>35204</v>
+        <v>21027</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2798,123 +2554,123 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="H62" t="s">
-        <v>130</v>
+      <c r="H62">
+        <v>1015.42</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>38002</v>
+        <v>22105</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>3714</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>3714</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>3714</v>
       </c>
       <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63" t="s">
-        <v>132</v>
+        <v>3559</v>
+      </c>
+      <c r="H63">
+        <v>447388.44</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>38003</v>
+        <v>22124</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="E64">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F64">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="G64">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
-        <v>134</v>
+        <v>114</v>
+      </c>
+      <c r="H64">
+        <v>58096.68</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>38006</v>
+        <v>22128</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>136</v>
+        <v>416</v>
+      </c>
+      <c r="H65">
+        <v>204505.14</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>38013</v>
+        <v>22142</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>760</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>760</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>760</v>
       </c>
       <c r="G66">
-        <v>8</v>
-      </c>
-      <c r="H66" t="s">
-        <v>138</v>
+        <v>759</v>
+      </c>
+      <c r="H66">
+        <v>466465.2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>38046</v>
+        <v>22150</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2928,331 +2684,331 @@
       <c r="G67">
         <v>1</v>
       </c>
-      <c r="H67" t="s">
-        <v>140</v>
+      <c r="H67">
+        <v>527.65</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>40032</v>
+        <v>22511</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E68">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F68">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G68">
-        <v>42</v>
-      </c>
-      <c r="H68" t="s">
-        <v>142</v>
+        <v>23</v>
+      </c>
+      <c r="H68">
+        <v>9468.87</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>40051</v>
+        <v>25016</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>1380</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>1380</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>1380</v>
       </c>
       <c r="G69">
-        <v>9</v>
-      </c>
-      <c r="H69" t="s">
-        <v>144</v>
+        <v>1363</v>
+      </c>
+      <c r="H69">
+        <v>83062.2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>40083</v>
+        <v>25064</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>376</v>
+        <v>1649</v>
       </c>
       <c r="E70">
-        <v>376</v>
+        <v>1649</v>
       </c>
       <c r="F70">
-        <v>376</v>
+        <v>1649</v>
       </c>
       <c r="G70">
-        <v>376</v>
-      </c>
-      <c r="H70" t="s">
-        <v>146</v>
+        <v>1625</v>
+      </c>
+      <c r="H70">
+        <v>324012.01</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>40084</v>
+        <v>25125</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>148</v>
+        <v>294</v>
+      </c>
+      <c r="H71">
+        <v>22972.32</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>40089</v>
+        <v>25204</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>47</v>
-      </c>
-      <c r="H72" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>29.32</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>40091</v>
+        <v>25990</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>131</v>
-      </c>
-      <c r="H73" t="s">
-        <v>152</v>
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>52.5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>50003</v>
+        <v>26001</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>154</v>
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>238.4</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>50006</v>
+        <v>26002</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>26</v>
+        <v>18956</v>
       </c>
       <c r="E75">
-        <v>26</v>
+        <v>1951</v>
       </c>
       <c r="F75">
-        <v>26</v>
+        <v>1951</v>
       </c>
       <c r="G75">
-        <v>4</v>
-      </c>
-      <c r="H75" t="s">
-        <v>156</v>
+        <v>1914</v>
+      </c>
+      <c r="H75">
+        <v>1026277.84</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>50007</v>
+        <v>26003</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E76">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F76">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G76">
-        <v>7</v>
-      </c>
-      <c r="H76" t="s">
-        <v>158</v>
+        <v>68</v>
+      </c>
+      <c r="H76">
+        <v>9070.88</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>50012</v>
+        <v>26054</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>423</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>423</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>423</v>
       </c>
       <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>160</v>
+        <v>411</v>
+      </c>
+      <c r="H77">
+        <v>179364.69</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>50013</v>
+        <v>26055</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D78">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F78">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G78">
         <v>5</v>
       </c>
-      <c r="H78" t="s">
-        <v>162</v>
+      <c r="H78">
+        <v>4341.8</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>50031</v>
+        <v>26056</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F79">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G79">
-        <v>5</v>
-      </c>
-      <c r="H79" t="s">
-        <v>164</v>
+        <v>16</v>
+      </c>
+      <c r="H79">
+        <v>783.36</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>50037</v>
+        <v>26061</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3266,149 +3022,149 @@
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="H80" t="s">
-        <v>166</v>
+      <c r="H80">
+        <v>24.72</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>50042</v>
+        <v>26068</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>5</v>
-      </c>
-      <c r="H81" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>127.37</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>50047</v>
+        <v>26098</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="E82">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="F82">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="G82">
-        <v>4</v>
-      </c>
-      <c r="H82" t="s">
-        <v>170</v>
+        <v>313</v>
+      </c>
+      <c r="H82">
+        <v>77108.85</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>50066</v>
+        <v>26148</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>669.8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>50076</v>
+        <v>26167</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>5</v>
-      </c>
-      <c r="H84" t="s">
-        <v>174</v>
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>345.44</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>50139</v>
+        <v>26226</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>8</v>
-      </c>
-      <c r="H85" t="s">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>225.8</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>59004</v>
+        <v>26228</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3422,204 +3178,204 @@
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="H86" t="s">
-        <v>178</v>
+      <c r="H86">
+        <v>243.85</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>66130</v>
+        <v>28019</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G87">
-        <v>10</v>
-      </c>
-      <c r="H87" t="s">
-        <v>181</v>
+        <v>201</v>
+      </c>
+      <c r="H87">
+        <v>24168.24</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>66250</v>
+        <v>28126</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88" t="s">
-        <v>183</v>
+        <v>7</v>
+      </c>
+      <c r="H88">
+        <v>2081.1</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>69020</v>
+        <v>35002</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>185</v>
+        <v>22</v>
+      </c>
+      <c r="H89">
+        <v>6043.18</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>69070</v>
+        <v>35004</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>2839</v>
+        <v>961</v>
       </c>
       <c r="E90">
-        <v>343</v>
+        <v>961</v>
       </c>
       <c r="F90">
-        <v>343</v>
+        <v>961</v>
       </c>
       <c r="G90">
-        <v>343</v>
-      </c>
-      <c r="H90" t="s">
-        <v>187</v>
+        <v>948</v>
+      </c>
+      <c r="H90">
+        <v>382545.27</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>69080</v>
+        <v>35201</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D91">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>6</v>
-      </c>
-      <c r="H91" t="s">
-        <v>189</v>
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>225.36</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>69090</v>
+        <v>35203</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>2712</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>336</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>336</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>336</v>
-      </c>
-      <c r="H92" t="s">
-        <v>191</v>
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>444.57</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>69095</v>
+        <v>35204</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>4</v>
-      </c>
-      <c r="H93" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>268.07</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>69100</v>
+        <v>35210</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3630,256 +3386,256 @@
       <c r="G94">
         <v>1</v>
       </c>
-      <c r="H94" t="s">
-        <v>195</v>
+      <c r="H94">
+        <v>189.45</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>69110</v>
+        <v>37008</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>6</v>
-      </c>
-      <c r="H95" t="s">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>805.02</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>69120</v>
+        <v>38002</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>199</v>
+        <v>35</v>
+      </c>
+      <c r="H96">
+        <v>129361.05</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>69140</v>
+        <v>38003</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>1028</v>
+        <v>480</v>
       </c>
       <c r="E97">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="F97">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="G97">
-        <v>85</v>
-      </c>
-      <c r="H97" t="s">
-        <v>201</v>
+        <v>296</v>
+      </c>
+      <c r="H97">
+        <v>3632270.4</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>69150</v>
+        <v>38005</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G98">
-        <v>5</v>
-      </c>
-      <c r="H98" t="s">
-        <v>203</v>
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>30603.33</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>69151</v>
+        <v>38006</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G99">
-        <v>9</v>
-      </c>
-      <c r="H99" t="s">
-        <v>205</v>
+        <v>8</v>
+      </c>
+      <c r="H99">
+        <v>34704.32</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>69170</v>
+        <v>38013</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="G100">
-        <v>3</v>
-      </c>
-      <c r="H100" t="s">
-        <v>207</v>
+        <v>223</v>
+      </c>
+      <c r="H100">
+        <v>1057136.64</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>69180</v>
+        <v>38037</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="E101">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F101">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G101">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s">
-        <v>209</v>
+        <v>68</v>
+      </c>
+      <c r="H101">
+        <v>254383.92</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>69190</v>
+        <v>38046</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>1129</v>
+        <v>34</v>
       </c>
       <c r="E102">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="F102">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="G102">
-        <v>120</v>
-      </c>
-      <c r="H102" t="s">
-        <v>211</v>
+        <v>34</v>
+      </c>
+      <c r="H102">
+        <v>228041.74</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>69191</v>
+        <v>40001</v>
       </c>
       <c r="B103" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G103">
-        <v>10</v>
-      </c>
-      <c r="H103" t="s">
-        <v>213</v>
+        <v>8</v>
+      </c>
+      <c r="H103">
+        <v>1372.08</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>69200</v>
+        <v>40003</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3890,536 +3646,1892 @@
       <c r="G104">
         <v>2</v>
       </c>
-      <c r="H104" t="s">
-        <v>215</v>
+      <c r="H104">
+        <v>218.04</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>69300</v>
+        <v>40005</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>5</v>
-      </c>
-      <c r="H105" t="s">
-        <v>217</v>
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>228.01</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>70050</v>
+        <v>40032</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>219</v>
+        <v>294</v>
+      </c>
+      <c r="H106">
+        <v>49716.35</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>70120</v>
+        <v>40051</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D107">
-        <v>373</v>
+        <v>69</v>
       </c>
       <c r="E107">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F107">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G107">
-        <v>38</v>
-      </c>
-      <c r="H107" t="s">
-        <v>221</v>
+        <v>69</v>
+      </c>
+      <c r="H107">
+        <v>5814.63</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>72010</v>
+        <v>40083</v>
       </c>
       <c r="B108" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>2273</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>2273</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>2273</v>
       </c>
       <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108" t="s">
-        <v>223</v>
+        <v>2272</v>
+      </c>
+      <c r="H108">
+        <v>745907.68</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>72040</v>
+        <v>40084</v>
       </c>
       <c r="B109" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D109">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>4</v>
-      </c>
-      <c r="H109" t="s">
-        <v>225</v>
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>1021.96</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>72080</v>
+        <v>40089</v>
       </c>
       <c r="B110" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>407</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>407</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>407</v>
       </c>
       <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110" t="s">
-        <v>227</v>
+        <v>406</v>
+      </c>
+      <c r="H110">
+        <v>320337.49</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>72100</v>
+        <v>40091</v>
       </c>
       <c r="B111" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>712</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>681</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>681</v>
       </c>
       <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>229</v>
+        <v>654</v>
+      </c>
+      <c r="H111">
+        <v>62727.2</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>78160</v>
+        <v>50003</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G112">
         <v>4</v>
       </c>
-      <c r="H112" t="s">
-        <v>231</v>
+      <c r="H112">
+        <v>461.44</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>83010</v>
+        <v>50006</v>
       </c>
       <c r="B113" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E113">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F113">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G113">
-        <v>167</v>
-      </c>
-      <c r="H113" t="s">
-        <v>233</v>
+        <v>33</v>
+      </c>
+      <c r="H113">
+        <v>3306.03</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>83020</v>
+        <v>50007</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E114">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F114">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G114">
-        <v>6</v>
-      </c>
-      <c r="H114" t="s">
-        <v>235</v>
+        <v>11</v>
+      </c>
+      <c r="H114">
+        <v>1794.42</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>83030</v>
+        <v>50012</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D115">
+        <v>46</v>
+      </c>
+      <c r="E115">
+        <v>46</v>
+      </c>
+      <c r="F115">
+        <v>46</v>
+      </c>
+      <c r="G115">
         <v>10</v>
       </c>
-      <c r="E115">
-        <v>2</v>
-      </c>
-      <c r="F115">
-        <v>2</v>
-      </c>
-      <c r="G115">
-        <v>2</v>
-      </c>
-      <c r="H115" t="s">
-        <v>237</v>
+      <c r="H115">
+        <v>3284.86</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>83040</v>
+        <v>50013</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
-        <v>239</v>
+        <v>11</v>
+      </c>
+      <c r="H116">
+        <v>8759.27</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>83050</v>
+        <v>50031</v>
       </c>
       <c r="B117" t="s">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
-        <v>241</v>
+        <v>14</v>
+      </c>
+      <c r="H117">
+        <v>1586.13</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>200409</v>
+        <v>50037</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>3</v>
-      </c>
-      <c r="H118" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>51.06</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>200510</v>
+        <v>50042</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D119">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="E119">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F119">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G119">
-        <v>18</v>
-      </c>
-      <c r="H119" t="s">
-        <v>245</v>
+        <v>14</v>
+      </c>
+      <c r="H119">
+        <v>4444.44</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>200518</v>
+        <v>50043</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="E120">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F120">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G120">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s">
-        <v>247</v>
+        <v>4</v>
+      </c>
+      <c r="H120">
+        <v>1466.43</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>200519</v>
+        <v>50047</v>
       </c>
       <c r="B121" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E121">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G121">
-        <v>7</v>
-      </c>
-      <c r="H121" t="s">
-        <v>249</v>
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>1031.94</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>200522</v>
+        <v>50065</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F122">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G122">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s">
-        <v>251</v>
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>200523</v>
+        <v>50066</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E123">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G123">
-        <v>10</v>
-      </c>
-      <c r="H123" t="s">
-        <v>253</v>
+        <v>6</v>
+      </c>
+      <c r="H123">
+        <v>1153.44</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
+        <v>50076</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <v>81</v>
+      </c>
+      <c r="E124">
+        <v>81</v>
+      </c>
+      <c r="F124">
+        <v>81</v>
+      </c>
+      <c r="G124">
+        <v>15</v>
+      </c>
+      <c r="H124">
+        <v>1573.83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>50139</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125">
+        <v>58</v>
+      </c>
+      <c r="E125">
+        <v>58</v>
+      </c>
+      <c r="F125">
+        <v>58</v>
+      </c>
+      <c r="G125">
+        <v>44</v>
+      </c>
+      <c r="H125">
+        <v>4257.78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>50141</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>76.44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>59004</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>10</v>
+      </c>
+      <c r="H127">
+        <v>118689.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>66130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128">
+        <v>210</v>
+      </c>
+      <c r="E128">
+        <v>30</v>
+      </c>
+      <c r="F128">
+        <v>30</v>
+      </c>
+      <c r="G128">
+        <v>30</v>
+      </c>
+      <c r="H128">
+        <v>598810.94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>66250</v>
+      </c>
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>86624.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>69020</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130">
+        <v>13</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>4</v>
+      </c>
+      <c r="H130">
+        <v>116618.66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>69070</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131">
+        <v>11555</v>
+      </c>
+      <c r="E131">
+        <v>1378</v>
+      </c>
+      <c r="F131">
+        <v>1378</v>
+      </c>
+      <c r="G131">
+        <v>1378</v>
+      </c>
+      <c r="H131">
+        <v>30989402.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>69080</v>
+      </c>
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132">
+        <v>378</v>
+      </c>
+      <c r="E132">
+        <v>39</v>
+      </c>
+      <c r="F132">
+        <v>39</v>
+      </c>
+      <c r="G132">
+        <v>39</v>
+      </c>
+      <c r="H132">
+        <v>1926871.11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>69090</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133">
+        <v>13273</v>
+      </c>
+      <c r="E133">
+        <v>1630</v>
+      </c>
+      <c r="F133">
+        <v>1630</v>
+      </c>
+      <c r="G133">
+        <v>1630</v>
+      </c>
+      <c r="H133">
+        <v>38234149.85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>69095</v>
+      </c>
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134">
+        <v>163</v>
+      </c>
+      <c r="E134">
+        <v>59</v>
+      </c>
+      <c r="F134">
+        <v>59</v>
+      </c>
+      <c r="G134">
+        <v>59</v>
+      </c>
+      <c r="H134">
+        <v>850035.42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>69100</v>
+      </c>
+      <c r="B135" t="s">
+        <v>143</v>
+      </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135">
+        <v>56</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <v>8</v>
+      </c>
+      <c r="G135">
+        <v>8</v>
+      </c>
+      <c r="H135">
+        <v>264318.72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>69110</v>
+      </c>
+      <c r="B136" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136">
+        <v>293</v>
+      </c>
+      <c r="E136">
+        <v>34</v>
+      </c>
+      <c r="F136">
+        <v>34</v>
+      </c>
+      <c r="G136">
+        <v>34</v>
+      </c>
+      <c r="H136">
+        <v>1420822.32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>69120</v>
+      </c>
+      <c r="B137" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" t="s">
+        <v>136</v>
+      </c>
+      <c r="D137">
+        <v>28</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <v>4</v>
+      </c>
+      <c r="H137">
+        <v>163527.11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>69140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138">
+        <v>5363</v>
+      </c>
+      <c r="E138">
+        <v>454</v>
+      </c>
+      <c r="F138">
+        <v>454</v>
+      </c>
+      <c r="G138">
+        <v>454</v>
+      </c>
+      <c r="H138">
+        <v>25766604.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>69150</v>
+      </c>
+      <c r="B139" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139">
+        <v>253</v>
+      </c>
+      <c r="E139">
+        <v>26</v>
+      </c>
+      <c r="F139">
+        <v>26</v>
+      </c>
+      <c r="G139">
+        <v>26</v>
+      </c>
+      <c r="H139">
+        <v>905542.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>69151</v>
+      </c>
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" t="s">
+        <v>136</v>
+      </c>
+      <c r="D140">
+        <v>490</v>
+      </c>
+      <c r="E140">
+        <v>63</v>
+      </c>
+      <c r="F140">
+        <v>63</v>
+      </c>
+      <c r="G140">
+        <v>63</v>
+      </c>
+      <c r="H140">
+        <v>1704729.54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>69152</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" t="s">
+        <v>136</v>
+      </c>
+      <c r="D141">
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>25656.15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>69160</v>
+      </c>
+      <c r="B142" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142">
+        <v>28</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
+        <v>43449.38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>69170</v>
+      </c>
+      <c r="B143" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" t="s">
+        <v>136</v>
+      </c>
+      <c r="D143">
+        <v>141</v>
+      </c>
+      <c r="E143">
+        <v>19</v>
+      </c>
+      <c r="F143">
+        <v>19</v>
+      </c>
+      <c r="G143">
+        <v>19</v>
+      </c>
+      <c r="H143">
+        <v>299766.45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>69180</v>
+      </c>
+      <c r="B144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144">
+        <v>667</v>
+      </c>
+      <c r="E144">
+        <v>76</v>
+      </c>
+      <c r="F144">
+        <v>76</v>
+      </c>
+      <c r="G144">
+        <v>76</v>
+      </c>
+      <c r="H144">
+        <v>1459945.71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>69190</v>
+      </c>
+      <c r="B145" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" t="s">
+        <v>136</v>
+      </c>
+      <c r="D145">
+        <v>4911</v>
+      </c>
+      <c r="E145">
+        <v>539</v>
+      </c>
+      <c r="F145">
+        <v>539</v>
+      </c>
+      <c r="G145">
+        <v>539</v>
+      </c>
+      <c r="H145">
+        <v>24368657.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>69191</v>
+      </c>
+      <c r="B146" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" t="s">
+        <v>136</v>
+      </c>
+      <c r="D146">
+        <v>878</v>
+      </c>
+      <c r="E146">
+        <v>91</v>
+      </c>
+      <c r="F146">
+        <v>91</v>
+      </c>
+      <c r="G146">
+        <v>91</v>
+      </c>
+      <c r="H146">
+        <v>1548936.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>69200</v>
+      </c>
+      <c r="B147" t="s">
+        <v>155</v>
+      </c>
+      <c r="C147" t="s">
+        <v>136</v>
+      </c>
+      <c r="D147">
+        <v>142</v>
+      </c>
+      <c r="E147">
+        <v>14</v>
+      </c>
+      <c r="F147">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <v>14</v>
+      </c>
+      <c r="H147">
+        <v>286819.98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>69300</v>
+      </c>
+      <c r="B148" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" t="s">
+        <v>136</v>
+      </c>
+      <c r="D148">
+        <v>1035</v>
+      </c>
+      <c r="E148">
+        <v>86</v>
+      </c>
+      <c r="F148">
+        <v>86</v>
+      </c>
+      <c r="G148">
+        <v>86</v>
+      </c>
+      <c r="H148">
+        <v>17200000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>70050</v>
+      </c>
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" t="s">
+        <v>136</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>15718.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>70120</v>
+      </c>
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" t="s">
+        <v>136</v>
+      </c>
+      <c r="D150">
+        <v>2581</v>
+      </c>
+      <c r="E150">
+        <v>254</v>
+      </c>
+      <c r="F150">
+        <v>254</v>
+      </c>
+      <c r="G150">
+        <v>254</v>
+      </c>
+      <c r="H150">
+        <v>7263823</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>72010</v>
+      </c>
+      <c r="B151" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" t="s">
+        <v>136</v>
+      </c>
+      <c r="D151">
+        <v>15</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151">
+        <v>4</v>
+      </c>
+      <c r="H151">
+        <v>88144.05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>72011</v>
+      </c>
+      <c r="B152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" t="s">
+        <v>136</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>72040</v>
+      </c>
+      <c r="B153" t="s">
+        <v>161</v>
+      </c>
+      <c r="C153" t="s">
+        <v>136</v>
+      </c>
+      <c r="D153">
+        <v>100</v>
+      </c>
+      <c r="E153">
+        <v>10</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>10</v>
+      </c>
+      <c r="H153">
+        <v>505277.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>72041</v>
+      </c>
+      <c r="B154" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" t="s">
+        <v>136</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>72042</v>
+      </c>
+      <c r="B155" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" t="s">
+        <v>136</v>
+      </c>
+      <c r="D155">
+        <v>99</v>
+      </c>
+      <c r="E155">
+        <v>14</v>
+      </c>
+      <c r="F155">
+        <v>14</v>
+      </c>
+      <c r="G155">
+        <v>14</v>
+      </c>
+      <c r="H155">
+        <v>5180000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>72050</v>
+      </c>
+      <c r="B156" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" t="s">
+        <v>136</v>
+      </c>
+      <c r="D156">
+        <v>27</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>69137.86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>72080</v>
+      </c>
+      <c r="B157" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" t="s">
+        <v>136</v>
+      </c>
+      <c r="D157">
+        <v>41</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>9</v>
+      </c>
+      <c r="G157">
+        <v>9</v>
+      </c>
+      <c r="H157">
+        <v>187278.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>72090</v>
+      </c>
+      <c r="B158" t="s">
+        <v>166</v>
+      </c>
+      <c r="C158" t="s">
+        <v>136</v>
+      </c>
+      <c r="D158">
+        <v>10</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>65693.72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>72100</v>
+      </c>
+      <c r="B159" t="s">
+        <v>167</v>
+      </c>
+      <c r="C159" t="s">
+        <v>136</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>21572.67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>74070</v>
+      </c>
+      <c r="B160" t="s">
+        <v>168</v>
+      </c>
+      <c r="C160" t="s">
+        <v>136</v>
+      </c>
+      <c r="D160">
+        <v>11</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>22564.77</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>78160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>169</v>
+      </c>
+      <c r="C161" t="s">
+        <v>136</v>
+      </c>
+      <c r="D161">
+        <v>186</v>
+      </c>
+      <c r="E161">
+        <v>21</v>
+      </c>
+      <c r="F161">
+        <v>21</v>
+      </c>
+      <c r="G161">
+        <v>21</v>
+      </c>
+      <c r="H161">
+        <v>388150.58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>82010</v>
+      </c>
+      <c r="B162" t="s">
+        <v>170</v>
+      </c>
+      <c r="C162" t="s">
+        <v>136</v>
+      </c>
+      <c r="D162">
+        <v>68</v>
+      </c>
+      <c r="E162">
+        <v>8</v>
+      </c>
+      <c r="F162">
+        <v>8</v>
+      </c>
+      <c r="G162">
+        <v>8</v>
+      </c>
+      <c r="H162">
+        <v>270191.76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>83010</v>
+      </c>
+      <c r="B163" t="s">
+        <v>171</v>
+      </c>
+      <c r="C163" t="s">
+        <v>136</v>
+      </c>
+      <c r="D163">
+        <v>571</v>
+      </c>
+      <c r="E163">
+        <v>531</v>
+      </c>
+      <c r="F163">
+        <v>504</v>
+      </c>
+      <c r="G163">
+        <v>504</v>
+      </c>
+      <c r="H163">
+        <v>4679801.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>83020</v>
+      </c>
+      <c r="B164" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" t="s">
+        <v>136</v>
+      </c>
+      <c r="D164">
+        <v>81</v>
+      </c>
+      <c r="E164">
+        <v>23</v>
+      </c>
+      <c r="F164">
+        <v>20</v>
+      </c>
+      <c r="G164">
+        <v>20</v>
+      </c>
+      <c r="H164">
+        <v>1892461.44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>83030</v>
+      </c>
+      <c r="B165" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" t="s">
+        <v>136</v>
+      </c>
+      <c r="D165">
+        <v>76</v>
+      </c>
+      <c r="E165">
+        <v>14</v>
+      </c>
+      <c r="F165">
+        <v>14</v>
+      </c>
+      <c r="G165">
+        <v>14</v>
+      </c>
+      <c r="H165">
+        <v>1695247.64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>83040</v>
+      </c>
+      <c r="B166" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" t="s">
+        <v>136</v>
+      </c>
+      <c r="D166">
+        <v>22</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>470719.95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>83050</v>
+      </c>
+      <c r="B167" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167" t="s">
+        <v>136</v>
+      </c>
+      <c r="D167">
+        <v>178</v>
+      </c>
+      <c r="E167">
+        <v>11</v>
+      </c>
+      <c r="F167">
+        <v>10</v>
+      </c>
+      <c r="G167">
+        <v>10</v>
+      </c>
+      <c r="H167">
+        <v>2711881.62</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>200409</v>
+      </c>
+      <c r="B168" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" t="s">
+        <v>136</v>
+      </c>
+      <c r="D168">
+        <v>493</v>
+      </c>
+      <c r="E168">
+        <v>33</v>
+      </c>
+      <c r="F168">
+        <v>33</v>
+      </c>
+      <c r="G168">
+        <v>33</v>
+      </c>
+      <c r="H168">
+        <v>5022032.07</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>200510</v>
+      </c>
+      <c r="B169" t="s">
+        <v>177</v>
+      </c>
+      <c r="C169" t="s">
+        <v>136</v>
+      </c>
+      <c r="D169">
+        <v>2145</v>
+      </c>
+      <c r="E169">
+        <v>180</v>
+      </c>
+      <c r="F169">
+        <v>180</v>
+      </c>
+      <c r="G169">
+        <v>180</v>
+      </c>
+      <c r="H169">
+        <v>45456134.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>200518</v>
+      </c>
+      <c r="B170" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" t="s">
+        <v>136</v>
+      </c>
+      <c r="D170">
+        <v>552</v>
+      </c>
+      <c r="E170">
+        <v>52</v>
+      </c>
+      <c r="F170">
+        <v>52</v>
+      </c>
+      <c r="G170">
+        <v>52</v>
+      </c>
+      <c r="H170">
+        <v>10662638.22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>200519</v>
+      </c>
+      <c r="B171" t="s">
+        <v>179</v>
+      </c>
+      <c r="C171" t="s">
+        <v>136</v>
+      </c>
+      <c r="D171">
+        <v>207</v>
+      </c>
+      <c r="E171">
+        <v>22</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171">
+        <v>22</v>
+      </c>
+      <c r="H171">
+        <v>5267527.98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>200520</v>
+      </c>
+      <c r="B172" t="s">
+        <v>180</v>
+      </c>
+      <c r="C172" t="s">
+        <v>136</v>
+      </c>
+      <c r="D172">
+        <v>142</v>
+      </c>
+      <c r="E172">
+        <v>9</v>
+      </c>
+      <c r="F172">
+        <v>9</v>
+      </c>
+      <c r="G172">
+        <v>9</v>
+      </c>
+      <c r="H172">
+        <v>2742598.98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>200522</v>
+      </c>
+      <c r="B173" t="s">
+        <v>181</v>
+      </c>
+      <c r="C173" t="s">
+        <v>136</v>
+      </c>
+      <c r="D173">
+        <v>648</v>
+      </c>
+      <c r="E173">
+        <v>84</v>
+      </c>
+      <c r="F173">
+        <v>84</v>
+      </c>
+      <c r="G173">
+        <v>84</v>
+      </c>
+      <c r="H173">
+        <v>15330786.09</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>200523</v>
+      </c>
+      <c r="B174" t="s">
+        <v>182</v>
+      </c>
+      <c r="C174" t="s">
+        <v>136</v>
+      </c>
+      <c r="D174">
+        <v>426</v>
+      </c>
+      <c r="E174">
+        <v>50</v>
+      </c>
+      <c r="F174">
+        <v>50</v>
+      </c>
+      <c r="G174">
+        <v>50</v>
+      </c>
+      <c r="H174">
+        <v>10684637.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>200524</v>
       </c>
-      <c r="B124" t="s">
-        <v>254</v>
-      </c>
-      <c r="C124" t="s">
-        <v>180</v>
-      </c>
-      <c r="D124">
-        <v>26</v>
-      </c>
-      <c r="E124">
-        <v>3</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
-      <c r="H124" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>256</v>
+      <c r="B175" t="s">
+        <v>183</v>
+      </c>
+      <c r="C175" t="s">
+        <v>136</v>
+      </c>
+      <c r="D175">
+        <v>211</v>
+      </c>
+      <c r="E175">
+        <v>20</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175">
+        <v>20</v>
+      </c>
+      <c r="H175">
+        <v>5439450</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>200525</v>
+      </c>
+      <c r="B176" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" t="s">
+        <v>136</v>
+      </c>
+      <c r="D176">
+        <v>91</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176">
+        <v>5</v>
+      </c>
+      <c r="H176">
+        <v>2006955.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <headerFooter differentFirst="1">

--- a/server/export.xlsx
+++ b/server/export.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
-  <si>
-    <t>Отчет за период с 01-01-2018</t>
-  </si>
-  <si>
-    <t>по 01-01-2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="143">
+  <si>
+    <t>Отчет за период с 01-06-2018</t>
+  </si>
+  <si>
+    <t>по 01-09-2018</t>
   </si>
   <si>
     <t>Код услуги</t>
@@ -52,21 +52,144 @@
     <t>Прием врача-кардиолога лечебно-диагностический, повторный, амб.</t>
   </si>
   <si>
+    <t>Прием врача-эндокринолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Прием врача-физиотерапевта лечебный, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Прием врача-физиотерапевта лечебный, повторный, амб.</t>
+  </si>
+  <si>
+    <t>Прием врача-офтальмолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Прием врача-отоларинголога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Прием врача-невролога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
     <t>Консультация врача-кардиолога</t>
   </si>
   <si>
     <t>Консультация врача-эндокринолога</t>
   </si>
   <si>
+    <t>Консультация врача-хирурга</t>
+  </si>
+  <si>
+    <t>Консультация врача-офтальмолога</t>
+  </si>
+  <si>
+    <t>Консультация врача-невролога</t>
+  </si>
+  <si>
+    <t>Консультация снимков, трактовка исследований специалистами, выполненных в других МО</t>
+  </si>
+  <si>
+    <t>Консультация врача сердечно-сосудистого хирурга КДО стационара (осмотр, консультация врача-специалиста с настройкой ритма кардиостимулятора)</t>
+  </si>
+  <si>
+    <t>Определение поля взора ( поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Иссл. глазного дна с помощью щелевой лампы (биомикроофтальмоскопия) (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Офтальмоскопия под мидриазом (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Биомикроскопия конъюнктивы и эписклеры переднего отрезка глаза и глубоких преломляющих сред (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Скиаскопия (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Офтальмотонометрия (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Рефрактометрия (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Рефрактометрия компьютерная (консультативный уровень)</t>
+  </si>
+  <si>
+    <t>Офтальмотонометрия компьютерная (консультативный уровень)</t>
+  </si>
+  <si>
+    <t>Формирование одной кариозной полости</t>
+  </si>
+  <si>
+    <t>Раскрытие полости зуба с медикаментозной обработкой.</t>
+  </si>
+  <si>
+    <t>Ампутация пульпы</t>
+  </si>
+  <si>
+    <t>Экстирпация, удаление распада из 1 канала</t>
+  </si>
+  <si>
+    <t>Импрегнация или медикаментозная  обработка 1 канала.</t>
+  </si>
+  <si>
+    <t>Пломбирование одного канала пастой</t>
+  </si>
+  <si>
+    <t>Наложение мышьяковистой пасты</t>
+  </si>
+  <si>
+    <t>Наложение временной пломбы</t>
+  </si>
+  <si>
+    <t>Снятие временной пломбы</t>
+  </si>
+  <si>
+    <t>Снятие пломбы, трепанации коронки</t>
+  </si>
+  <si>
+    <t>Снятие зубных отложений в области 1 зуба (ручным/механическим способом)</t>
+  </si>
+  <si>
+    <t>Медикаментозная обработка патологических пародонтальных карманов</t>
+  </si>
+  <si>
+    <t>Кюретаж в области 1 патологического кармана</t>
+  </si>
+  <si>
+    <t>Полирование пломбы</t>
+  </si>
+  <si>
+    <t>Чтение рентгенограммы</t>
+  </si>
+  <si>
+    <t>Пломба из цемента</t>
+  </si>
+  <si>
+    <t>Пломба из композитного материала химического отверждения</t>
+  </si>
+  <si>
+    <t>Прием врача-стоматолога первичный, амб.</t>
+  </si>
+  <si>
+    <t>Прием врача-стоматолога, повторный, амб.</t>
+  </si>
+  <si>
     <t>ЭКГ (в 12-ти отведениях) ПА5-02</t>
   </si>
   <si>
+    <t>ВЭМ при педалировании без периодов отдыха</t>
+  </si>
+  <si>
     <t>Тредмилтест</t>
   </si>
   <si>
     <t>Холтеровское мониторирование при длительности  мониторирования до 24 часов</t>
   </si>
   <si>
+    <t>Длительное мониторирование артериального давления свободно передвигающегося человека</t>
+  </si>
+  <si>
     <t>Исследование скорости оседания эритроцитов</t>
   </si>
   <si>
@@ -76,6 +199,9 @@
     <t>Исследование мочи на мочевом анализаторе</t>
   </si>
   <si>
+    <t>Исследование кала на скрытую кровь</t>
+  </si>
+  <si>
     <t>Определение одного биохимического показателя в крови с выдачей результата в количественном виде с определенной размерностью.</t>
   </si>
   <si>
@@ -85,34 +211,118 @@
     <t>Коагулограмма (Исследование на автоматическом коагулометре)</t>
   </si>
   <si>
+    <t>Определение Д-димера</t>
+  </si>
+  <si>
+    <t>Определение протромбинового (тромбопластинового) времени с расчетом МНО</t>
+  </si>
+  <si>
     <t>Исследование уровня  гликированного гемоглобина в крови</t>
   </si>
   <si>
+    <t>Исследование уровня адреналина, норадреналина</t>
+  </si>
+  <si>
     <t>Определение одного антигена групп крови по системе (АВО, подгруппы и групп крови меньшего значения)</t>
   </si>
   <si>
+    <t>Определение одного аутоантитела</t>
+  </si>
+  <si>
     <t>Rg-графия органов грудной клетки</t>
   </si>
   <si>
     <t>Rg-скопия и Rg-графия сердца с контрастир. пищевода (3 проекции)</t>
   </si>
   <si>
-    <t>Rg-графия лопатки, грудины, ключицы</t>
+    <t>Rg-графия крупного сустава</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия щитовидной железы</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия миокарда</t>
+  </si>
+  <si>
+    <t>Однофотонная эмиссионная компьютерная томография, совмещенная с компьютерной томографией</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия легких</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия костей</t>
+  </si>
+  <si>
+    <t>Динамическая нефросцинтиграфия</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия паращитовидных желез</t>
+  </si>
+  <si>
+    <t>УЗИ органов  гепатобилиарной  системы ( печень, желч. пузырь и желч. протоки, поджелудочная железа)</t>
+  </si>
+  <si>
+    <t>УЗИ селезенки</t>
+  </si>
+  <si>
+    <t>УЗИ почек, надпочечников и забрюшинного пространства</t>
+  </si>
+  <si>
+    <t>УЗИ щитовидной железы</t>
   </si>
   <si>
     <t>Эхокардиография с допплеровским анализом</t>
   </si>
   <si>
+    <t>Стресс-эхоКГ с физической нагрузкой (на велоэргометре или тредмиле)</t>
+  </si>
+  <si>
     <t>УЗ-допплерография в дуплексном режиме парных сосудов (артерий или вен)</t>
   </si>
   <si>
+    <t>Магнитотерапия (1 поле)</t>
+  </si>
+  <si>
+    <t>Магнитотерапия (2 поля)</t>
+  </si>
+  <si>
+    <t>Диадинамотерапия (1 поле)</t>
+  </si>
+  <si>
+    <t>Диадинамотерапия (2 поля)</t>
+  </si>
+  <si>
+    <t>Микроволновая терапия (ДМВ,СМВ) (1 поле)</t>
+  </si>
+  <si>
+    <t>Фонофорез (1-2 поля)</t>
+  </si>
+  <si>
+    <t>Фонофорез (3-4 поля и более)</t>
+  </si>
+  <si>
+    <t>ОКУФ-терапия (1 поле)</t>
+  </si>
+  <si>
+    <t>ОКУФ-терапия (2 поля)</t>
+  </si>
+  <si>
+    <t>Аэрозольтерапия,электроаэрозольтерапия, УЗ-ингаляции</t>
+  </si>
+  <si>
+    <t>Сегментарный массаж шейно-воротниковой области и головы</t>
+  </si>
+  <si>
+    <t>Аутопсия (вскрытие) 4-й категории сложности</t>
+  </si>
+  <si>
     <t>Синдромы головной боли. Расстройства вегетативной нервной системы</t>
   </si>
   <si>
     <t>STAC</t>
   </si>
   <si>
-    <t>Спондилез и связанные с ним состояния. Остеохондроз позвоночника</t>
+    <t>Острый перикардит (кроме ревматического)</t>
   </si>
   <si>
     <t>Гипертоническая болезнь, артериальная гипертония без сердечной недостаточности и ХПН. Нейроциркуляторная дистония</t>
@@ -124,12 +334,24 @@
     <t>Хроническая ишемическая болезнь сердца. Хронические сосудистые болезни</t>
   </si>
   <si>
+    <t>Плановое коронарографическое исследование</t>
+  </si>
+  <si>
+    <t>Другие острые и подострые формы ишемической болезни сердца</t>
+  </si>
+  <si>
     <t>Острый инфаркт миокарда неосложненный</t>
   </si>
   <si>
+    <t>Острый инфаркт миокарда осложненный</t>
+  </si>
+  <si>
     <t>Сердечная недостаточность застойного характера</t>
   </si>
   <si>
+    <t>Гипертрофическая кардиомиопатия</t>
+  </si>
+  <si>
     <t>Дилатационная кардиомиопатия</t>
   </si>
   <si>
@@ -145,21 +367,57 @@
     <t>Экстрасистолическая аритмия</t>
   </si>
   <si>
+    <t>Синдром слабости синусового узла</t>
+  </si>
+  <si>
+    <t>Фибрилляция и мерцание предсердий (с оперативным пособием)</t>
+  </si>
+  <si>
     <t>Хроническая легочно-сердечная недостаточность</t>
   </si>
   <si>
+    <t>Тромбоз и эмболия аорты и других артерий.Аневризма</t>
+  </si>
+  <si>
+    <t>Тромбоз и эмболия аорты и других артерий. Аневризма+ РЭВ</t>
+  </si>
+  <si>
+    <t>Артериосклеротическая болезнь и другие поражения сосудов</t>
+  </si>
+  <si>
+    <t>Артериосклеротическая болезнь и другие поражения сосудов + РЭВ (Эндоваскулярная реканализация артерий нижних конечностей с применением баллонной дилатации при критической ишемии нижених конечностей)</t>
+  </si>
+  <si>
+    <t>Артериосклеротическая болезнь и другие поражения сосудов + РЭВ (Эндоваскулярная реканализация артерий нижних конечностей с применением баллонной дилатации и стентирования при критической ишемии нижени</t>
+  </si>
+  <si>
+    <t>Варикозное расширение вен нижних конечностей без осложнений.Аномалия развития системы кровообращения</t>
+  </si>
+  <si>
+    <t>Нефрогенная гипертония</t>
+  </si>
+  <si>
+    <t>Ревматические пороки сердца</t>
+  </si>
+  <si>
+    <t>Рентгеноэлектротехнический контроль электрокардиостимулятора</t>
+  </si>
+  <si>
     <t>Реанимация 1-ой категории сложности</t>
   </si>
   <si>
     <t>Реанимация 2-ой категории сложности</t>
   </si>
   <si>
-    <t>Реанимация 4-ой категории сложности</t>
+    <t>Реанимация 3-ей категории сложности</t>
   </si>
   <si>
     <t>Реанимация 5-ой категории сложности</t>
   </si>
   <si>
+    <t>Имплантация частотно-адаптированного однокамерного кардиостимулятора (у взрослых)</t>
+  </si>
+  <si>
     <t>Имплантация частотно-адаптированного двухкамерного кардиостимулятора</t>
   </si>
   <si>
@@ -167,6 +425,9 @@
   </si>
   <si>
     <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
   </si>
   <si>
     <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
@@ -246,8 +507,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A3:H47" totalsRowCount="1" headerRowCount="1">
-  <autoFilter ref="A3:H46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A3:H134" totalsRowCount="1" headerRowCount="1">
+  <autoFilter ref="A3:H133">
     <filterColumn colId="0" hiddenButton="0"/>
     <filterColumn colId="1" hiddenButton="0"/>
     <filterColumn colId="2" hiddenButton="0"/>
@@ -593,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H134"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -645,19 +906,19 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="H4">
-        <v>943.88</v>
+        <v>56363.12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,24 +932,24 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>943</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>943</v>
       </c>
       <c r="F5">
-        <v>77</v>
+        <v>943</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>877</v>
       </c>
       <c r="H5">
-        <v>7700</v>
+        <v>94300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1702</v>
+        <v>1071</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -697,24 +958,24 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>23107.2</v>
+        <v>558.85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1705</v>
+        <v>1101</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -723,24 +984,24 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>5958.48</v>
+        <v>1601.86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>22105</v>
+        <v>1102</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -749,24 +1010,24 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>9516.34</v>
+        <v>1204.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22128</v>
+        <v>1261</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -775,24 +1036,24 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>490.42</v>
+        <v>313.68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>22142</v>
+        <v>1271</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -801,24 +1062,24 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>8592.78</v>
+        <v>84.53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>25016</v>
+        <v>1301</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -827,24 +1088,24 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>7403.37</v>
+        <v>670.2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>25064</v>
+        <v>1702</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -853,24 +1114,24 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>135</v>
+        <v>1899</v>
       </c>
       <c r="E12">
-        <v>135</v>
+        <v>1899</v>
       </c>
       <c r="F12">
-        <v>135</v>
+        <v>1899</v>
       </c>
       <c r="G12">
-        <v>133</v>
+        <v>1798</v>
       </c>
       <c r="H12">
-        <v>26526.15</v>
+        <v>365671.44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>25125</v>
+        <v>1705</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -879,24 +1140,24 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="H13">
-        <v>1221.12</v>
+        <v>18958.8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>26002</v>
+        <v>1707</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -905,24 +1166,24 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>1591</v>
+        <v>67</v>
       </c>
       <c r="E14">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="F14">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="G14">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="H14">
-        <v>86136.74</v>
+        <v>35847.68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>26003</v>
+        <v>1710</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -931,24 +1192,24 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>996.8</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>26054</v>
+        <v>1712</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -957,24 +1218,24 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="E16">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H16">
-        <v>11024.78</v>
+        <v>21193.98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>26098</v>
+        <v>1720</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -983,24 +1244,24 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>5140.59</v>
+        <v>779.46</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>28019</v>
+        <v>1780</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1009,24 +1270,24 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="H18">
-        <v>2044.08</v>
+        <v>120550.56</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>35002</v>
+        <v>7002</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1035,24 +1296,24 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>2472.21</v>
+        <v>867.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>35004</v>
+        <v>7012</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -1061,24 +1322,24 @@
         <v>11</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F20">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>19107.36</v>
+        <v>4583.54</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>35204</v>
+        <v>7019</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1087,24 +1348,24 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>268.07</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>40083</v>
+        <v>7021</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1113,24 +1374,24 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>3609.76</v>
+        <v>3100.39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>40091</v>
+        <v>7024</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -1139,59 +1400,59 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>792.9</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>66130</v>
+        <v>7051</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>89700.42</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>66250</v>
+        <v>7056</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1203,99 +1464,99 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>28874.75</v>
+        <v>64.34</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>69070</v>
+        <v>7066</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>516</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G26">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>1200056.77</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>69080</v>
+        <v>7068</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>39786</v>
+        <v>1271.97</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>69090</v>
+        <v>9001</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F28">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G28">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>856814.8</v>
+        <v>3902.58</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>69110</v>
+        <v>9003</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1307,454 +1568,2716 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>43717.61</v>
+        <v>106.18</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>69140</v>
+        <v>9004</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>573074.81</v>
+        <v>239.72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>69151</v>
+        <v>9005</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>56261.7</v>
+        <v>1079.3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>69170</v>
+        <v>9006</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>17341.86</v>
+        <v>1026.81</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>69180</v>
+        <v>9007</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>60115.41</v>
+        <v>564.08</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>69190</v>
+        <v>9010</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>1014000</v>
+        <v>158.12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>69191</v>
+        <v>9011</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H35">
-        <v>69355.36</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>70120</v>
+        <v>9016</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36">
-        <v>269474.04</v>
+        <v>756.21</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>83010</v>
+        <v>9032</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F37">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>147524.4</v>
+        <v>2540.52</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>83020</v>
+        <v>9043</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H38">
-        <v>186909.78</v>
+        <v>552.24</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>83040</v>
+        <v>9045</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H39">
-        <v>171170.91</v>
+        <v>1699.66</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>83050</v>
+        <v>9046</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>1066470.3</v>
+        <v>155.08</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>200510</v>
+        <v>9150</v>
       </c>
       <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
         <v>49</v>
       </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>22</v>
-      </c>
       <c r="E41">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>252534.08</v>
+        <v>3270.75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>200518</v>
+        <v>9159</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>7</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>208339.86</v>
+        <v>265.23</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>200519</v>
+        <v>9200</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H43">
-        <v>718299.27</v>
+        <v>1662.21</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>200522</v>
+        <v>9207</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E44">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2043370.12</v>
+        <v>6844.81</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>200523</v>
+        <v>9401</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H45">
-        <v>213692.75</v>
+        <v>2948.4</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>9402</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>55</v>
+      </c>
+      <c r="G46">
+        <v>31</v>
+      </c>
+      <c r="H46">
+        <v>5480.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>1681</v>
+      </c>
+      <c r="E47">
+        <v>1681</v>
+      </c>
+      <c r="F47">
+        <v>1681</v>
+      </c>
+      <c r="G47">
+        <v>1589</v>
+      </c>
+      <c r="H47">
+        <v>202493.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>22124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>113</v>
+      </c>
+      <c r="E48">
+        <v>113</v>
+      </c>
+      <c r="F48">
+        <v>113</v>
+      </c>
+      <c r="G48">
+        <v>113</v>
+      </c>
+      <c r="H48">
+        <v>57587.06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>22128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>138</v>
+      </c>
+      <c r="E49">
+        <v>138</v>
+      </c>
+      <c r="F49">
+        <v>138</v>
+      </c>
+      <c r="G49">
+        <v>138</v>
+      </c>
+      <c r="H49">
+        <v>67677.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>22142</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>234</v>
+      </c>
+      <c r="E50">
+        <v>234</v>
+      </c>
+      <c r="F50">
+        <v>234</v>
+      </c>
+      <c r="G50">
+        <v>233</v>
+      </c>
+      <c r="H50">
+        <v>143622.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>22511</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>2881.83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>25016</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>322</v>
+      </c>
+      <c r="E52">
+        <v>322</v>
+      </c>
+      <c r="F52">
+        <v>322</v>
+      </c>
+      <c r="G52">
+        <v>318</v>
+      </c>
+      <c r="H52">
+        <v>19381.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>25064</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>438</v>
+      </c>
+      <c r="E53">
+        <v>438</v>
+      </c>
+      <c r="F53">
+        <v>438</v>
+      </c>
+      <c r="G53">
+        <v>432</v>
+      </c>
+      <c r="H53">
+        <v>86062.62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>25125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>99</v>
+      </c>
+      <c r="E54">
+        <v>99</v>
+      </c>
+      <c r="F54">
+        <v>99</v>
+      </c>
+      <c r="G54">
+        <v>97</v>
+      </c>
+      <c r="H54">
+        <v>7555.68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>25204</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>29.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>26002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>4985</v>
+      </c>
+      <c r="E56">
+        <v>524</v>
+      </c>
+      <c r="F56">
+        <v>524</v>
+      </c>
+      <c r="G56">
+        <v>510</v>
+      </c>
+      <c r="H56">
+        <v>269887.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>26003</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>24</v>
+      </c>
+      <c r="F57">
+        <v>24</v>
+      </c>
+      <c r="G57">
+        <v>24</v>
+      </c>
+      <c r="H57">
+        <v>2990.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>26054</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>135</v>
+      </c>
+      <c r="E58">
+        <v>135</v>
+      </c>
+      <c r="F58">
+        <v>135</v>
+      </c>
+      <c r="G58">
+        <v>132</v>
+      </c>
+      <c r="H58">
+        <v>57244.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>26055</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>868.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>26056</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>195.84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>26098</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>110</v>
+      </c>
+      <c r="E61">
+        <v>110</v>
+      </c>
+      <c r="F61">
+        <v>110</v>
+      </c>
+      <c r="G61">
+        <v>110</v>
+      </c>
+      <c r="H61">
+        <v>26926.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>26167</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>172.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>28019</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>63</v>
+      </c>
+      <c r="E63">
+        <v>63</v>
+      </c>
+      <c r="F63">
+        <v>63</v>
+      </c>
+      <c r="G63">
+        <v>63</v>
+      </c>
+      <c r="H63">
+        <v>7575.12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>28126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>594.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>35002</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>1648.14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>35004</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>299</v>
+      </c>
+      <c r="E66">
+        <v>299</v>
+      </c>
+      <c r="F66">
+        <v>299</v>
+      </c>
+      <c r="G66">
+        <v>296</v>
+      </c>
+      <c r="H66">
+        <v>119022.93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>35210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>189.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>38002</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>44352.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>38003</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>254</v>
+      </c>
+      <c r="E69">
+        <v>254</v>
+      </c>
+      <c r="F69">
+        <v>254</v>
+      </c>
+      <c r="G69">
+        <v>151</v>
+      </c>
+      <c r="H69">
+        <v>1922076.42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>38005</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>20402.22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>38006</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>13014.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>38013</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>63</v>
+      </c>
+      <c r="E72">
+        <v>63</v>
+      </c>
+      <c r="F72">
+        <v>63</v>
+      </c>
+      <c r="G72">
+        <v>63</v>
+      </c>
+      <c r="H72">
+        <v>297319.68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>38037</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>26</v>
+      </c>
+      <c r="E73">
+        <v>26</v>
+      </c>
+      <c r="F73">
+        <v>26</v>
+      </c>
+      <c r="G73">
+        <v>26</v>
+      </c>
+      <c r="H73">
+        <v>97264.44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>38046</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>60363.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>40001</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>686.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>40003</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>109.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>40032</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>104</v>
+      </c>
+      <c r="E77">
+        <v>104</v>
+      </c>
+      <c r="F77">
+        <v>104</v>
+      </c>
+      <c r="G77">
+        <v>104</v>
+      </c>
+      <c r="H77">
+        <v>17527.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>40051</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>25</v>
+      </c>
+      <c r="F78">
+        <v>25</v>
+      </c>
+      <c r="G78">
+        <v>25</v>
+      </c>
+      <c r="H78">
+        <v>2106.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>40083</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>796</v>
+      </c>
+      <c r="E79">
+        <v>796</v>
+      </c>
+      <c r="F79">
+        <v>796</v>
+      </c>
+      <c r="G79">
+        <v>796</v>
+      </c>
+      <c r="H79">
+        <v>261215.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>40089</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>113</v>
+      </c>
+      <c r="E80">
+        <v>113</v>
+      </c>
+      <c r="F80">
+        <v>113</v>
+      </c>
+      <c r="G80">
+        <v>113</v>
+      </c>
+      <c r="H80">
+        <v>88938.91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>40091</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>220</v>
+      </c>
+      <c r="E81">
+        <v>208</v>
+      </c>
+      <c r="F81">
+        <v>208</v>
+      </c>
+      <c r="G81">
+        <v>201</v>
+      </c>
+      <c r="H81">
+        <v>19382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>50006</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>57</v>
+      </c>
+      <c r="E82">
+        <v>57</v>
+      </c>
+      <c r="F82">
+        <v>57</v>
+      </c>
+      <c r="G82">
+        <v>12</v>
+      </c>
+      <c r="H82">
+        <v>1089.27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>50007</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>166.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>50012</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>13</v>
+      </c>
+      <c r="E84">
+        <v>13</v>
+      </c>
+      <c r="F84">
+        <v>13</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>928.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>50013</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>1233.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>50031</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>382.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>50042</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>22</v>
+      </c>
+      <c r="E87">
+        <v>22</v>
+      </c>
+      <c r="F87">
+        <v>22</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>1164.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>50043</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>15</v>
+      </c>
+      <c r="E88">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>1047.45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>50065</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>75.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>50066</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+      <c r="E90">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>416.52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>50076</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>31</v>
+      </c>
+      <c r="E91">
+        <v>31</v>
+      </c>
+      <c r="F91">
+        <v>31</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+      <c r="H91">
+        <v>602.33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>50139</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>13</v>
+      </c>
+      <c r="E92">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>13</v>
+      </c>
+      <c r="G92">
+        <v>13</v>
+      </c>
+      <c r="H92">
+        <v>954.33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>59004</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>59344.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>66130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94">
+        <v>77</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
+      </c>
+      <c r="H94">
+        <v>150308.84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>69020</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>43315.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>69070</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96">
+        <v>3297</v>
+      </c>
+      <c r="E96">
+        <v>384</v>
+      </c>
+      <c r="F96">
+        <v>384</v>
+      </c>
+      <c r="G96">
+        <v>384</v>
+      </c>
+      <c r="H96">
+        <v>9297285.27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>69080</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97">
+        <v>166</v>
+      </c>
+      <c r="E97">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97">
+        <v>16</v>
+      </c>
+      <c r="H97">
+        <v>803339.16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>69090</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98">
+        <v>4133</v>
+      </c>
+      <c r="E98">
+        <v>493</v>
+      </c>
+      <c r="F98">
+        <v>493</v>
+      </c>
+      <c r="G98">
+        <v>493</v>
+      </c>
+      <c r="H98">
+        <v>12435807.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>69095</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99">
+        <v>88</v>
+      </c>
+      <c r="E99">
+        <v>19</v>
+      </c>
+      <c r="F99">
+        <v>19</v>
+      </c>
+      <c r="G99">
+        <v>19</v>
+      </c>
+      <c r="H99">
+        <v>273740.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>69100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>32351.47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>69110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101">
+        <v>121</v>
+      </c>
+      <c r="E101">
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101">
+        <v>13</v>
+      </c>
+      <c r="H101">
+        <v>530076.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>69120</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>40881.78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>69140</v>
+      </c>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103">
+        <v>1912</v>
+      </c>
+      <c r="E103">
+        <v>157</v>
+      </c>
+      <c r="F103">
+        <v>157</v>
+      </c>
+      <c r="G103">
+        <v>157</v>
+      </c>
+      <c r="H103">
+        <v>9021341.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>69150</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104">
+        <v>77</v>
+      </c>
+      <c r="E104">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+      <c r="G104">
+        <v>8</v>
+      </c>
+      <c r="H104">
+        <v>278628.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>69151</v>
+      </c>
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105">
+        <v>155</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+      <c r="F105">
+        <v>20</v>
+      </c>
+      <c r="G105">
+        <v>20</v>
+      </c>
+      <c r="H105">
+        <v>514794.57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>69170</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106">
+        <v>55</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106">
+        <v>8</v>
+      </c>
+      <c r="H106">
+        <v>118915.62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>69180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107">
+        <v>211</v>
+      </c>
+      <c r="E107">
+        <v>27</v>
+      </c>
+      <c r="F107">
+        <v>27</v>
+      </c>
+      <c r="G107">
+        <v>27</v>
+      </c>
+      <c r="H107">
+        <v>498099.14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>69190</v>
+      </c>
+      <c r="B108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108">
+        <v>1629</v>
+      </c>
+      <c r="E108">
+        <v>176</v>
+      </c>
+      <c r="F108">
+        <v>176</v>
+      </c>
+      <c r="G108">
+        <v>176</v>
+      </c>
+      <c r="H108">
+        <v>8183024.82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>69191</v>
+      </c>
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109">
+        <v>426</v>
+      </c>
+      <c r="E109">
+        <v>43</v>
+      </c>
+      <c r="F109">
+        <v>43</v>
+      </c>
+      <c r="G109">
+        <v>43</v>
+      </c>
+      <c r="H109">
+        <v>726304.76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>69200</v>
+      </c>
+      <c r="B110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110">
+        <v>67</v>
+      </c>
+      <c r="E110">
+        <v>6</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110">
+        <v>6</v>
+      </c>
+      <c r="H110">
+        <v>127174.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>69300</v>
+      </c>
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111">
+        <v>329</v>
+      </c>
+      <c r="E111">
+        <v>28</v>
+      </c>
+      <c r="F111">
+        <v>28</v>
+      </c>
+      <c r="G111">
+        <v>28</v>
+      </c>
+      <c r="H111">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>70120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112">
+        <v>836</v>
+      </c>
+      <c r="E112">
+        <v>79</v>
+      </c>
+      <c r="F112">
+        <v>79</v>
+      </c>
+      <c r="G112">
+        <v>79</v>
+      </c>
+      <c r="H112">
+        <v>2329453.44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>72010</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>35257.62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>72011</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>72040</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>102</v>
+      </c>
+      <c r="D115">
+        <v>22</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>120577.56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>72041</v>
+      </c>
+      <c r="B116" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>72042</v>
+      </c>
+      <c r="B117" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" t="s">
+        <v>102</v>
+      </c>
+      <c r="D117">
+        <v>47</v>
+      </c>
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117">
+        <v>6</v>
+      </c>
+      <c r="H117">
+        <v>2220000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>72080</v>
+      </c>
+      <c r="B118" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118">
+        <v>13</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>62426.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>74070</v>
+      </c>
+      <c r="B119" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119">
+        <v>11</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>22564.77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>78160</v>
+      </c>
+      <c r="B120" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120">
+        <v>25</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>43666.93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>82010</v>
+      </c>
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>67547.94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>83010</v>
+      </c>
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122">
+        <v>95</v>
+      </c>
+      <c r="E122">
+        <v>84</v>
+      </c>
+      <c r="F122">
+        <v>80</v>
+      </c>
+      <c r="G122">
+        <v>80</v>
+      </c>
+      <c r="H122">
+        <v>778601</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>83020</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
+        <v>140182.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>83030</v>
+      </c>
+      <c r="B124" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124">
+        <v>23</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+      <c r="H124">
+        <v>513035.47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>83050</v>
+      </c>
+      <c r="B125" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>304705.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>200409</v>
+      </c>
+      <c r="B126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126">
+        <v>239</v>
+      </c>
+      <c r="E126">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126">
+        <v>14</v>
+      </c>
+      <c r="H126">
+        <v>2130559.06</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>200510</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127">
+        <v>714</v>
+      </c>
+      <c r="E127">
+        <v>61</v>
+      </c>
+      <c r="F127">
+        <v>61</v>
+      </c>
+      <c r="G127">
+        <v>61</v>
+      </c>
+      <c r="H127">
+        <v>15404578.88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>200518</v>
+      </c>
+      <c r="B128" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128">
+        <v>174</v>
+      </c>
+      <c r="E128">
+        <v>14</v>
+      </c>
+      <c r="F128">
+        <v>14</v>
+      </c>
+      <c r="G128">
+        <v>14</v>
+      </c>
+      <c r="H128">
+        <v>2882551.14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>200519</v>
+      </c>
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>102</v>
+      </c>
+      <c r="D129">
+        <v>54</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
+      </c>
+      <c r="H129">
+        <v>1436598.54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>200520</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130">
+        <v>27</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>609466.44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>200522</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131">
+        <v>111</v>
+      </c>
+      <c r="E131">
+        <v>14</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131">
+        <v>14</v>
+      </c>
+      <c r="H131">
+        <v>2509609.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>200523</v>
+      </c>
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
+        <v>102</v>
+      </c>
+      <c r="D132">
+        <v>196</v>
+      </c>
+      <c r="E132">
+        <v>20</v>
+      </c>
+      <c r="F132">
+        <v>20</v>
+      </c>
+      <c r="G132">
+        <v>20</v>
+      </c>
+      <c r="H132">
+        <v>4273855</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>200524</v>
       </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46">
-        <v>16</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>543945</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>55</v>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>102</v>
+      </c>
+      <c r="D133">
+        <v>35</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>815917.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/server/export.xlsx
+++ b/server/export.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="ОМС 3" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Report" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
-  <si>
-    <t>Отчет за период с 01-01-2021</t>
-  </si>
-  <si>
-    <t>по 01-01-2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="173">
+  <si>
+    <t>Отчет за период с 01-03-2018</t>
+  </si>
+  <si>
+    <t>по 01-06-2018</t>
   </si>
   <si>
     <t>Наименование отделения</t>
@@ -37,235 +37,496 @@
     <t>Суммарная стоимость услуг (руб) за период</t>
   </si>
   <si>
+    <t>19007600: ЛАБОРАТОРИЯ РАДИОИЗОТОПНОЙ ДИАГНОСТИКИ</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия щитовидной железы</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия легких</t>
+  </si>
+  <si>
+    <t>Однофотонная эмиссионная компьютерная томография, совмещенная с компьютерной томографией</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия миокарда</t>
+  </si>
+  <si>
+    <t>Динамическая нефросцинтиграфия</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия паращитовидных желез</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия костей</t>
+  </si>
+  <si>
+    <t>10302906: ШЕСТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Гипертоническая болезнь, артериальная гипертония без сердечной недостаточности и ХПН. Нейроциркуляторная дистония</t>
+  </si>
+  <si>
+    <t>Хроническая ишемическая болезнь сердца. Хронические сосудистые болезни</t>
+  </si>
+  <si>
+    <t>Пароксизмальная тахикардия</t>
+  </si>
+  <si>
+    <t>Экстрасистолическая аритмия</t>
+  </si>
+  <si>
+    <t>Консультация врача-кардиолога</t>
+  </si>
+  <si>
+    <t>Гипертоническая болезнь, артериальная гипертония с сердечной недостаточностью и ХПН</t>
+  </si>
+  <si>
+    <t>Синдромы головной боли. Расстройства вегетативной нервной системы</t>
+  </si>
+  <si>
+    <t>Нарушения проводимости сердца</t>
+  </si>
+  <si>
+    <t>Дилатационная кардиомиопатия</t>
+  </si>
+  <si>
+    <t>Сердечная недостаточность застойного характера</t>
+  </si>
+  <si>
+    <t>Синдром слабости синусового узла</t>
+  </si>
+  <si>
+    <t>Имплантация частотно-адаптированного двухкамерного кардиостимулятора</t>
+  </si>
+  <si>
+    <t>Гипертрофическая кардиомиопатия</t>
+  </si>
+  <si>
+    <t>Прием врача-кардиолога лечебно-диагностический, повторный, амб.</t>
+  </si>
+  <si>
+    <t>Ревматические пороки сердца</t>
+  </si>
+  <si>
+    <t>Фибрилляция и мерцание предсердий</t>
+  </si>
+  <si>
+    <t>12508102: 3 "А" КАРДИОХИРУРГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Артериосклеротическая болезнь и другие поражения сосудов</t>
+  </si>
+  <si>
+    <t>Имплантация частотно-адаптированного однокамерного кардиостимулятора (у взрослых)</t>
+  </si>
+  <si>
+    <t>Фибрилляция и мерцание предсердий (с оперативным пособием)</t>
+  </si>
+  <si>
+    <t>Варикозное расширение вен нижних конечностей без осложнений.Аномалия развития системы кровообращения</t>
+  </si>
+  <si>
+    <t>Тромбоз и эмболия аорты и других артерий.Аневризма</t>
+  </si>
+  <si>
+    <t>Артериосклеротическая болезнь и другие поражения сосудов + РЭВ (Эндоваскулярная реканализация артерий нижних конечностей с применением баллонной дилатации и стентирования при критической ишемии нижени</t>
+  </si>
+  <si>
+    <t>Хроническая легочно-сердечная недостаточность</t>
+  </si>
+  <si>
+    <t>17116700: ПАЛАТА РЕАНИМАЦИИ И ИНТЕНСИВНОЙ ТЕРАПИИ 1  К/О</t>
+  </si>
+  <si>
+    <t>Реанимация 2-ой категории сложности</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Реанимация 1-ой категории сложности</t>
+  </si>
+  <si>
+    <t>Реанимация 5-ой категории сложности</t>
+  </si>
+  <si>
+    <t>Реанимация 3-ей категории сложности</t>
+  </si>
+  <si>
+    <t>10002900: КОНСУЛЬТАТИВНО-ДИАГНОСТИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Эхокардиография с допплеровским анализом</t>
+  </si>
+  <si>
+    <t>Определение поля взора ( поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>УЗ-допплерография в дуплексном режиме парных сосудов (артерий или вен)</t>
+  </si>
+  <si>
+    <t>ЭКГ (в 12-ти отведениях) ПА5-02</t>
+  </si>
+  <si>
+    <t>Консультация врача-эндокринолога</t>
+  </si>
+  <si>
+    <t>Биомикроскопия конъюнктивы и эписклеры переднего отрезка глаза и глубоких преломляющих сред (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Иссл. глазного дна с помощью щелевой лампы (биомикроофтальмоскопия) (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Консультация врача-невролога</t>
+  </si>
+  <si>
+    <t>Консультация врача-хирурга</t>
+  </si>
+  <si>
+    <t>Прием врача-офтальмолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Рефрактометрия компьютерная (консультативный уровень)</t>
+  </si>
+  <si>
+    <t>Прием врача-кардиолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Офтальмотонометрия компьютерная (консультативный уровень)</t>
+  </si>
+  <si>
+    <t>УЗИ щитовидной железы</t>
+  </si>
+  <si>
+    <t>Тредмилтест</t>
+  </si>
+  <si>
+    <t>Холтеровское мониторирование при длительности  мониторирования до 24 часов</t>
+  </si>
+  <si>
+    <t>Консультация врача-сердечно-сосудистого хирурга в стационаpе</t>
+  </si>
+  <si>
+    <t>Длительное мониторирование артериального давления свободно передвигающегося человека</t>
+  </si>
+  <si>
+    <t>УЗИ органов  гепатобилиарной  системы ( печень, желч. пузырь и желч. протоки, поджелудочная железа)</t>
+  </si>
+  <si>
+    <t>Рефрактометрия (поликлинический уровень)</t>
+  </si>
+  <si>
+    <t>Стресс-эхоКГ с физической нагрузкой (на велоэргометре или тредмиле)</t>
+  </si>
+  <si>
+    <t>Консультация врача-офтальмолога</t>
+  </si>
+  <si>
+    <t>УЗИ почек, надпочечников и забрюшинного пространства</t>
+  </si>
+  <si>
+    <t>Эхокардиография чреспищеводная</t>
+  </si>
+  <si>
+    <t>Консультация врача сердечно-сосудистого хирурга КДО стационара (осмотр, консультация врача-специалиста с настройкой ритма кардиостимулятора)</t>
+  </si>
+  <si>
+    <t>19003400: ЛАБОРАТОРИЯ КЛИНИЧЕСКИХ ПРОБЛЕМ АТЕРОТРОМБОЗА</t>
+  </si>
+  <si>
+    <t>Определение протромбинового (тромбопластинового) времени с расчетом МНО</t>
+  </si>
+  <si>
+    <t>Определение Д-димера</t>
+  </si>
+  <si>
+    <t>17116702: ПАЛАТА РЕАНИМАЦИИ И ИНТЕНСИВНОЙ ТЕРАПИИ 7  К/О</t>
+  </si>
+  <si>
+    <t>Реанимация 4-ой категории сложности</t>
+  </si>
+  <si>
+    <t>10402902: ВТОРОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Плановое коронарографическое исследование</t>
+  </si>
+  <si>
+    <t>Острый перикардит (кроме ревматического)</t>
+  </si>
+  <si>
+    <t>10002900: КОНСУЛЬТАТИВНО-ПОЛИКЛИНИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Rg-скопия и Rg-графия сердца с контрастир. пищевода (3 проекции)</t>
+  </si>
+  <si>
+    <t>17100500: ОТДЕЛЕНИЕ АНЕСТЕЗИОЛОГИИ И РЕАНИМАЦИИ</t>
+  </si>
+  <si>
+    <t>19002901: (ДС) КАБИНЕТ РЕНТГЕНОАНГИОГРАФИИ ПРИ КПО</t>
+  </si>
+  <si>
+    <t>10302900: ВОСЬМОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>10402903: СЕДЬМОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>19011100: ОТДЕЛЕНИЕ ФУНКЦИОНАЛЬНОЙ ДИАГНОСТИКИ</t>
+  </si>
+  <si>
+    <t>ВЭМ при педалировании без периодов отдыха</t>
+  </si>
+  <si>
+    <t>18506700: ПАТОЛОГОАНАТОМИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Аутопсия (вскрытие) 4-й категории сложности</t>
+  </si>
+  <si>
+    <t>10302904: ЧЕТВЕРТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>17116701: ПАЛАТА РЕАНИМАЦИИ И ИНТЕНСИВНОЙ ТЕРАПИИ 2  К/О</t>
+  </si>
+  <si>
+    <t>19003402: ЛАБОРАТОРИЯ КЛИНИЧЕСКОЙ ИММУНОЛОГИИ</t>
+  </si>
+  <si>
+    <t>Исследование уровня паратиреоидного гормона в крови</t>
+  </si>
+  <si>
+    <t>Определение одного маркера резорбции костной ткани</t>
+  </si>
+  <si>
+    <t>Определение уровня остеокальцина в крови</t>
+  </si>
+  <si>
+    <t>Исследование уровня глюкозы и (или) лактата в крови с помощью анализатора</t>
+  </si>
+  <si>
+    <t>Определение одного аутоантитела</t>
+  </si>
+  <si>
+    <t>10302905: ПЯТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>19010600: КАБИНЕТ УЛЬТРАЗВУКОВОЙ ДИАГНОСТИКИ</t>
+  </si>
+  <si>
+    <t>19010900: КАБИНЕТ ФИЗИОТЕРАПИИ</t>
+  </si>
+  <si>
+    <t>Фонофорез (1-2 поля)</t>
+  </si>
+  <si>
+    <t>Диадинамотерапия (1 поле)</t>
+  </si>
+  <si>
+    <t>Микроволновая терапия (ДМВ,СМВ) (1 поле)</t>
+  </si>
+  <si>
+    <t>Аэрозольтерапия,электроаэрозольтерапия, УЗ-ингаляции</t>
+  </si>
+  <si>
+    <t>УВЧ-терапия (1 поле)</t>
+  </si>
+  <si>
+    <t>Сегментарный массаж шейно-воротниковой области и головы</t>
+  </si>
+  <si>
+    <t>Прием врача-физиотерапевта лечебный, повторный, амб.</t>
+  </si>
+  <si>
+    <t>Прием врача-физиотерапевта лечебный, первичный, амб.</t>
+  </si>
+  <si>
+    <t>ОКУФ-терапия (1 поле)</t>
+  </si>
+  <si>
+    <t>Магнитотерапия (2 поля)</t>
+  </si>
+  <si>
+    <t>Фонофорез (3-4 поля и более)</t>
+  </si>
+  <si>
+    <t>ОКУФ-терапия (2 поля)</t>
+  </si>
+  <si>
+    <t>Диадинамотерапия (2 поля)</t>
+  </si>
+  <si>
+    <t>Магнитотерапия (1 поле)</t>
+  </si>
+  <si>
+    <t>12508100: ТРЕТЬЕ КАРДИОХИРУРГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Флебит и тромбофлебит поверхностных вен нижней конечности</t>
+  </si>
+  <si>
+    <t>Флебит и тромбофлебит</t>
+  </si>
+  <si>
+    <t>19002900: ОБЩЕКЛИНИЧЕСКИЙ ПЕРСОНАЛ</t>
+  </si>
+  <si>
+    <t>Прием врача-невролога лечебно-диагностический, повторный, амб.</t>
+  </si>
+  <si>
+    <t>Снятие временной пломбы</t>
+  </si>
+  <si>
+    <t>Прием врача-стоматолога первичный, амб.</t>
+  </si>
+  <si>
+    <t>Импрегнация или медикаментозная  обработка 1 канала.</t>
+  </si>
+  <si>
+    <t>Чтение рентгенограммы</t>
+  </si>
+  <si>
+    <t>Прием врача-отоларинголога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Наложение мышьяковистой пасты</t>
+  </si>
+  <si>
+    <t>Пломба из цемента</t>
+  </si>
+  <si>
+    <t>Прием врача-стоматолога, повторный, амб.</t>
+  </si>
+  <si>
+    <t>Пломбирование одного канала пастой</t>
+  </si>
+  <si>
+    <t>Снятие зубных отложений в области 1 зуба (ручным/механическим способом)</t>
+  </si>
+  <si>
+    <t>Медикаментозная обработка патологических пародонтальных карманов</t>
+  </si>
+  <si>
+    <t>Кюретаж в области 1 патологического кармана</t>
+  </si>
+  <si>
+    <t>Пломба из композитного материала химического отверждения</t>
+  </si>
+  <si>
+    <t>Прием врача-эндокринолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Ампутация пульпы</t>
+  </si>
+  <si>
+    <t>Полирование пломбы</t>
+  </si>
+  <si>
+    <t>Снятие пломбы, трепанации коронки</t>
+  </si>
+  <si>
+    <t>Формирование одной кариозной полости</t>
+  </si>
+  <si>
+    <t>Раскрытие полости зуба с медикаментозной обработкой.</t>
+  </si>
+  <si>
+    <t>Перевязка после сложного хирургического вмешательства</t>
+  </si>
+  <si>
+    <t>Экстирпация, удаление распада из 1 канала</t>
+  </si>
+  <si>
+    <t>Прием врача-невролога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Наложение временной пломбы</t>
+  </si>
+  <si>
+    <t>10402901: ПЕРВОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Другие острые и подострые формы ишемической болезни сердца</t>
+  </si>
+  <si>
+    <t>Острая очаговая пневмония неосложненная</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Спондилез и связанные с ним состояния. Остеохондроз позвоночника</t>
+  </si>
+  <si>
+    <t>Острый инфаркт миокарда неосложненный</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
     <t>19007800: РЕНТГЕНОВСКИЙ КАБИНЕТ</t>
   </si>
   <si>
-    <t>Rg-графия шейного, грудного ,поясн.-крестцового отдела позвоночника, копчика с функциональными пробами</t>
-  </si>
-  <si>
     <t>Rg-графия органов грудной клетки</t>
   </si>
   <si>
-    <t>10102901: КОНСУЛЬТАТИВНО-ПОЛИКЛИНИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>Холтеровское мониторирование при длительности  мониторирования до 24 часов</t>
-  </si>
-  <si>
-    <t>УЗИ почек, надпочечников и забрюшинного пространства</t>
-  </si>
-  <si>
-    <t>УЗИ органов  гепатобилиарной  системы ( печень, желч. пузырь и желч. протоки, поджелудочная железа)</t>
-  </si>
-  <si>
-    <t>Прием врача-кардиолога лечебно-диагностический, повторный, амб.</t>
-  </si>
-  <si>
-    <t>ЭКГ (в 12-ти отведениях) 2-3-канальным электрокардиографом</t>
-  </si>
-  <si>
-    <t>Консультация врача-хирурга</t>
-  </si>
-  <si>
-    <t>Консультация врача-кардиолога</t>
-  </si>
-  <si>
-    <t>УЗИ щитовидной железы</t>
-  </si>
-  <si>
-    <t>Эхокардиография с допплеровским анализом</t>
-  </si>
-  <si>
-    <t>Консультация врача-эндокринолога</t>
-  </si>
-  <si>
-    <t>УЗИ полых органов (желудка, кишечника)</t>
-  </si>
-  <si>
-    <t>Прием врача-кардиолога лечебно-диагностический, первичный, амб.</t>
-  </si>
-  <si>
-    <t>Консультация врача сердечно-сосудистого хирурга (врача-кардиолога) КДО стационара (осмотр, консультация врача-специалиста с настройкой ритма кардиостимулятора)</t>
-  </si>
-  <si>
-    <t>УЗ-допплерография в дуплексном режиме парных сосудов (артерий или вен)</t>
-  </si>
-  <si>
-    <t>Стресс-эхоКГ с физической нагрузкой (на велоэргометре или тредмиле)</t>
-  </si>
-  <si>
-    <t>Консультация врача-невролога</t>
-  </si>
-  <si>
-    <t>Длительное мониторирование артериального давления свободно передвигающегося человека</t>
-  </si>
-  <si>
-    <t>ЭКГ (в 12-ти отведениях) ЭКЧМП-3051</t>
-  </si>
-  <si>
-    <t>Прием врача-офтальмолога лечебно-диагностический, первичный, амб.</t>
-  </si>
-  <si>
-    <t>10402901: ПЕРВОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
-  </si>
-  <si>
-    <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
-  </si>
-  <si>
-    <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
-  </si>
-  <si>
-    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
-  </si>
-  <si>
-    <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
-  </si>
-  <si>
-    <t>Фибрилляция и мерцание предсердий</t>
-  </si>
-  <si>
-    <t>Экстрасистолическая аритмия</t>
-  </si>
-  <si>
-    <t>Сердечная недостаточность застойного характера</t>
-  </si>
-  <si>
-    <t>Острый инфаркт миокарда неосложненный</t>
-  </si>
-  <si>
-    <t>Гипертоническая болезнь, артериальная гипертония без сердечной недостаточности и ХПН. Нейроциркуляторная дистония</t>
-  </si>
-  <si>
-    <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
-  </si>
-  <si>
-    <t>Другие острые и подострые формы ишемической болезни сердца</t>
-  </si>
-  <si>
-    <t>Хроническая ишемическая болезнь сердца. Хронические сосудистые болезни</t>
-  </si>
-  <si>
-    <t>10402903: СЕДЬМОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>Гипертоническая болезнь, артериальная гипертония с сердечной недостаточностью и ХПН</t>
-  </si>
-  <si>
-    <t>Пароксизмальная тахикардия</t>
-  </si>
-  <si>
-    <t>Спондилез и связанные с ним состояния. Остеохондроз позвоночника</t>
-  </si>
-  <si>
-    <t>10302900: ВОСЬМОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>Дилатационная кардиомиопатия</t>
-  </si>
-  <si>
-    <t>19002901: (ДС) КАБИНЕТ РЕНТГЕНОАНГИОГРАФИИ ПРИ КПО</t>
-  </si>
-  <si>
-    <t>Консультация снимков, трактовка исследований специалистами, выполненных в других МО</t>
-  </si>
-  <si>
-    <t>18506700: ПАТОЛОГОАНАТОМИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>Аутопсия (вскрытие) 4-й категории сложности</t>
-  </si>
-  <si>
-    <t>10302904: ЧЕТВЕРТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+    <t>19012300: ЭНДОСКОПИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Ректосигмоколоноскопия лечебно-диагностич. (в т.ч. с биопсией)</t>
+  </si>
+  <si>
+    <t>Эзофагогастродуоденоскопия лечебно-диагностическая (в т.ч. с биопсией)</t>
+  </si>
+  <si>
+    <t>Аппликационная анестезия</t>
   </si>
   <si>
     <t>19003401: КЛИНИКО-ДИАГНОСТИЧЕСКАЯ ЛАБОРАТОРИЯ</t>
   </si>
   <si>
-    <t>Определение уровня тропонина в крови</t>
-  </si>
-  <si>
-    <t>Определение одного гормона</t>
+    <t>Исследование уровня адреналина, норадреналина</t>
+  </si>
+  <si>
+    <t>Определение одного антигена групп крови по системе (АВО, подгруппы и групп крови меньшего значения)</t>
+  </si>
+  <si>
+    <t>Исследование мочи на мочевом анализаторе</t>
+  </si>
+  <si>
+    <t>Определение одного биохимического показателя в крови с выдачей результата в количественном виде с определенной размерностью.</t>
+  </si>
+  <si>
+    <t>Исследование скорости оседания эритроцитов</t>
   </si>
   <si>
     <t>Коагулограмма (Исследование на автоматическом коагулометре)</t>
   </si>
   <si>
-    <t>Исследование уровня антитромбина III в крови</t>
-  </si>
-  <si>
-    <t>Исследование скорости оседания эритроцитов</t>
-  </si>
-  <si>
-    <t>Определение одного биохимического показателя в крови с выдачей результата в количественном виде с определенной размерностью.</t>
-  </si>
-  <si>
-    <t>Исследование мочи на мочевом анализаторе</t>
-  </si>
-  <si>
     <t>Комплексное исследование на гематологическом анализаторе с функцией дифференциации лейкоцитов по 5-ти популяциям (без определения ретикулоцитов)</t>
   </si>
   <si>
+    <t>Определение одного биохимического показателя в моче и других биологических жидкостях с выдачей результата в количественном виде с определенной размерностью.</t>
+  </si>
+  <si>
     <t>Исследование уровня  гликированного гемоглобина в крови</t>
   </si>
   <si>
-    <t>Определение Д-димера</t>
-  </si>
-  <si>
-    <t>Комплексное исследование на гематологическом анализаторе с функцией дифференциации лейкоцитов по 5-ти популяциям (с определением ретикулоцитов)</t>
-  </si>
-  <si>
-    <t>11202806: ОБСЕРВАЦИОННОЕ ОТДЕЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>17116700: ПАЛАТА РЕАНИМАЦИИ И ИНТЕНСИВНОЙ ТЕРАПИИ 1  К/О</t>
-  </si>
-  <si>
-    <t>Реанимация 3-ей категории сложности</t>
-  </si>
-  <si>
-    <t>Реанимация 1-ой категории сложности</t>
-  </si>
-  <si>
-    <t>Реанимация 2-ой категории сложности</t>
-  </si>
-  <si>
-    <t>10302905: ПЯТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>10302906: ШЕСТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>19007600: ЛАБОРАТОРИЯ РАДИОИЗОТОПНОЙ ДИАГНОСТИКИ</t>
-  </si>
-  <si>
-    <t>Сцинтиграфия миокарда</t>
-  </si>
-  <si>
-    <t>Динамическая нефросцинтиграфия</t>
-  </si>
-  <si>
-    <t>Однофотонная эмиссионная компьютерная томография, совмещенная с компьютерной томографией</t>
-  </si>
-  <si>
-    <t>Сцинтиграфия костей</t>
-  </si>
-  <si>
-    <t>Сцинтиграфия щитовидной железы</t>
-  </si>
-  <si>
-    <t>Сцинтиграфия легких</t>
-  </si>
-  <si>
-    <t>Сцинтиграфия паращитовидных желез</t>
-  </si>
-  <si>
-    <t>19002903: ОТДЕЛ ПОСЛЕДИПЛОМНОГО ОБРАЗОВАНИЯ</t>
-  </si>
-  <si>
-    <t>10402902: ВТОРОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+    <t>10102900: КДО ПРИ СТАЦИОНАРЕ</t>
+  </si>
+  <si>
+    <t>Анестезия челюстно-лицевой области инфильтрационная</t>
   </si>
   <si>
     <t>Total</t>
@@ -334,8 +595,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A3:F96" totalsRowCount="1" headerRowCount="1">
-  <autoFilter ref="A3:F95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A3:F311" totalsRowCount="1" headerRowCount="1">
+  <autoFilter ref="A3:F310">
     <filterColumn colId="0" hiddenButton="0"/>
     <filterColumn colId="1" hiddenButton="0"/>
     <filterColumn colId="2" hiddenButton="0"/>
@@ -677,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F311"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,19 +978,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>35203</v>
+        <v>38002</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>444.57</v>
+        <v>44352.36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,1824 +998,6124 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>35002</v>
+        <v>38006</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>28018.38</v>
+        <v>13014.12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>38005</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>22142</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>15958.02</v>
+        <v>20402.22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>40032</v>
+        <v>38003</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="F7">
-        <v>5730.02</v>
+        <v>1975047.03</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>40001</v>
+        <v>38037</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>514.53</v>
+        <v>71077.86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1042</v>
+        <v>38046</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>242</v>
-      </c>
       <c r="E9">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>24200</v>
+        <v>100606.65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>22106</v>
+        <v>38013</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="F10">
-        <v>10510.08</v>
+        <v>358671.36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>1707</v>
+        <v>69070</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>688</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F11">
-        <v>14446.08</v>
+        <v>1509950.11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>1702</v>
+        <v>69090</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>443</v>
+        <v>955</v>
       </c>
       <c r="E12">
-        <v>443</v>
+        <v>109</v>
       </c>
       <c r="F12">
-        <v>85304.08</v>
+        <v>2164119.88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>40051</v>
+        <v>69180</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>421.35</v>
+        <v>40076.94</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>40083</v>
+        <v>69191</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>47583.2</v>
+        <v>34677.68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>541.68</v>
+        <v>8087.52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>40005</v>
+        <v>69080</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>684.03</v>
+        <v>79572</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1041</v>
+        <v>66130</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>10382.68</v>
+        <v>130914.12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1780</v>
+        <v>69170</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>6954.84</v>
+        <v>17341.86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>40091</v>
+        <v>69151</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>6695.6</v>
+        <v>28130.85</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>40089</v>
+        <v>69140</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="E20">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>73197.51</v>
+        <v>807514.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>1712</v>
+        <v>69200</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>179.61</v>
+        <v>43293.58</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>22511</v>
+        <v>200510</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1646.76</v>
+        <v>505068.16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>22104</v>
+        <v>69150</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>22053.93</v>
+        <v>174142.75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>1261</v>
+        <v>1042</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>156.84</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>78160</v>
+      </c>
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
-        <v>200524</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>1389398.16</v>
+        <v>58222.59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>200519</v>
+        <v>69190</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>1022562.04</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>200518</v>
+        <v>72040</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>2733673.56</v>
+        <v>114835.77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>200520</v>
+        <v>69180</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>846885.39</v>
+        <v>17175.84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>200523</v>
+        <v>200409</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>196434.52</v>
+        <v>760913.95</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>69190</v>
+        <v>69300</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30">
-        <v>111431.23</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>69191</v>
+        <v>69190</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>1926.54</v>
+        <v>294000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>69140</v>
+        <v>69090</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F32">
-        <v>129683.48</v>
+        <v>331243.06</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>69110</v>
+        <v>200510</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>227331.55</v>
+        <v>1767738.56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>69070</v>
+        <v>72080</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>86058.37</v>
+        <v>20808.7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>200522</v>
+        <v>72010</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1175190.8</v>
+        <v>29381.35</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>69100</v>
+        <v>72042</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>13393.58</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>69090</v>
+        <v>69070</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>56972.48</v>
+        <v>41596.41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>69070</v>
+        <v>78160</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>27661.62</v>
+        <v>16981.58</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>69080</v>
+        <v>70120</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>6978.78</v>
+        <v>38924.04</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>69180</v>
+        <v>83020</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>23817.15</v>
+        <v>630820.47</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>69090</v>
+        <v>200523</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>28486.24</v>
+        <v>213692.75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>66250</v>
+        <v>83010</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="F42">
-        <v>2502.48</v>
+        <v>1557202</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>83050</v>
+      </c>
+      <c r="C43" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
-        <v>69110</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
       <c r="D43">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>45466.31</v>
+        <v>1157882.04</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B44">
-        <v>69190</v>
+        <v>69070</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>126288.73</v>
+        <v>18718.39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>69151</v>
+        <v>69300</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>29256.08</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>69090</v>
+        <v>83030</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>56972.48</v>
+        <v>602259.03</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>69140</v>
+        <v>40083</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>367</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="F47">
-        <v>64841.74</v>
+        <v>120434.72</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7002</v>
+      </c>
+      <c r="C48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>69070</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
       <c r="D48">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>92205.39</v>
+        <v>555.2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>1720</v>
+        <v>40091</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="F49">
-        <v>129.91</v>
+        <v>11100.6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>22105</v>
+      </c>
+      <c r="C50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>22106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
       <c r="D50">
-        <v>7</v>
+        <v>838</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>838</v>
       </c>
       <c r="F50">
-        <v>656.88</v>
+        <v>100945.48</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>1042</v>
+        <v>1705</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>1200</v>
+        <v>10833.6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>22104</v>
+        <v>7021</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D52">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F52">
-        <v>3277.09</v>
+        <v>1924.38</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>1041</v>
+        <v>7012</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F53">
-        <v>5932.96</v>
+        <v>2561.39</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B54">
-        <v>59004</v>
+        <v>1712</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F54">
-        <v>11868.95</v>
+        <v>8621.28</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B55">
-        <v>69100</v>
+        <v>1707</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F55">
-        <v>46877.51</v>
+        <v>17656.32</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B56">
-        <v>69190</v>
+        <v>1261</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>156003.72</v>
+        <v>156.84</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B57">
-        <v>69140</v>
+        <v>7066</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F57">
-        <v>64841.74</v>
+        <v>861.9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B58">
-        <v>69090</v>
+        <v>1041</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="F58">
-        <v>28486.24</v>
+        <v>25349.92</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B59">
-        <v>26176</v>
+        <v>1702</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>941</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>941</v>
       </c>
       <c r="F59">
-        <v>5195.71</v>
+        <v>181198.96</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B60">
-        <v>26229</v>
+        <v>7068</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F60">
-        <v>1729.21</v>
+        <v>895.09</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B61">
-        <v>26054</v>
+        <v>40051</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F61">
-        <v>5512.39</v>
+        <v>1264.05</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B62">
-        <v>26068</v>
+        <v>22128</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E62">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F62">
-        <v>1401.07</v>
+        <v>31877.3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B63">
-        <v>25016</v>
+        <v>22142</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E63">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="F63">
-        <v>3912.35</v>
+        <v>93293.04</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B64">
-        <v>26002</v>
+        <v>1755</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D64">
-        <v>1097</v>
+        <v>29</v>
       </c>
       <c r="E64">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="F64">
-        <v>59391.58</v>
+        <v>2714.98</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B65">
-        <v>25125</v>
+        <v>22511</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F65">
-        <v>1450.08</v>
+        <v>2470.14</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B66">
-        <v>25064</v>
+        <v>40001</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D66">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>15326.22</v>
+        <v>171.51</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B67">
-        <v>26098</v>
+        <v>7056</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>2937.48</v>
+        <v>64.34</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B68">
-        <v>26055</v>
+        <v>40089</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="F68">
-        <v>1736.72</v>
+        <v>55881.97</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>25065</v>
+        <v>1710</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F69">
-        <v>222.24</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B70">
-        <v>69090</v>
+        <v>40032</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F70">
-        <v>3165.14</v>
+        <v>8426.5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B71">
-        <v>69070</v>
+        <v>1042</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="F71">
-        <v>3073.51</v>
+        <v>46800</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B72">
-        <v>83030</v>
+        <v>40084</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
-        <v>139188.75</v>
+        <v>510.98</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B73">
-        <v>83010</v>
+        <v>1780</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D73">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>639272.25</v>
+        <v>13909.68</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>83020</v>
+        <v>26056</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F74">
-        <v>291579.24</v>
+        <v>538.56</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>200523</v>
+        <v>26055</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>196434.52</v>
+        <v>1736.72</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>69090</v>
+        <v>83010</v>
       </c>
       <c r="C76" t="s">
         <v>44</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F76">
-        <v>28486.24</v>
+        <v>303244.6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>69070</v>
+        <v>83040</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D77">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>150602.14</v>
+        <v>149774.52</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>69140</v>
+        <v>83020</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>64841.74</v>
+        <v>93454.89</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>69190</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D79">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>156003.72</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>69190</v>
+        <v>69095</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D80">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E80">
         <v>3</v>
       </c>
       <c r="F80">
-        <v>156003.72</v>
+        <v>43222.14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>200524</v>
+        <v>1702</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>231566.36</v>
+        <v>577.68</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B82">
-        <v>69090</v>
+        <v>69140</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F82">
-        <v>28486.24</v>
+        <v>1370169.77</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B83">
-        <v>69070</v>
+        <v>40083</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D83">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="F83">
-        <v>165969.72</v>
+        <v>18048.8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B84">
-        <v>38003</v>
+        <v>70120</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D84">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="E84">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F84">
-        <v>908067.6</v>
+        <v>1610855.96</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B85">
-        <v>38037</v>
+        <v>69070</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>373</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F85">
-        <v>7481.88</v>
+        <v>767453.99</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B86">
-        <v>38005</v>
+        <v>69170</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>10201.11</v>
+        <v>17341.86</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B87">
-        <v>38013</v>
+        <v>1042</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F87">
-        <v>18877.44</v>
+        <v>700</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B88">
-        <v>38002</v>
+        <v>1041</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F88">
-        <v>7392.06</v>
+        <v>2022.6</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B89">
-        <v>38006</v>
+        <v>69020</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>4338.04</v>
+        <v>36651.58</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B90">
-        <v>38046</v>
+        <v>200510</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>6707.11</v>
+        <v>757602.24</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B91">
-        <v>1042</v>
+        <v>69191</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
-        <v>100</v>
+        <v>34677.68</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B92">
-        <v>69100</v>
+        <v>69090</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F92">
-        <v>46877.51</v>
+        <v>1364720.5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B93">
-        <v>69070</v>
+        <v>69080</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>27661.62</v>
+        <v>39786</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B94">
-        <v>69090</v>
+        <v>1042</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>510</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>510</v>
       </c>
       <c r="F94">
-        <v>69633.04</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B95">
-        <v>69190</v>
+        <v>1755</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F95">
-        <v>59429.99</v>
+        <v>1404.3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96">
+        <v>1702</v>
+      </c>
+      <c r="C96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96">
+        <v>795</v>
+      </c>
+      <c r="E96">
+        <v>795</v>
+      </c>
+      <c r="F96">
+        <v>153085.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97">
+        <v>40001</v>
+      </c>
+      <c r="C97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>171.51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98">
+        <v>7021</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98">
+        <v>26</v>
+      </c>
+      <c r="E98">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>2779.66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99">
+        <v>1710</v>
+      </c>
+      <c r="C99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99">
+        <v>26</v>
+      </c>
+      <c r="E99">
+        <v>26</v>
+      </c>
+      <c r="F99">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100">
+        <v>40083</v>
+      </c>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100">
+        <v>357</v>
+      </c>
+      <c r="E100">
+        <v>357</v>
+      </c>
+      <c r="F100">
+        <v>117153.12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101">
+        <v>22105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101">
+        <v>750</v>
+      </c>
+      <c r="E101">
+        <v>750</v>
+      </c>
+      <c r="F101">
+        <v>90345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102">
+        <v>1705</v>
+      </c>
+      <c r="C102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102">
+        <v>68</v>
+      </c>
+      <c r="E102">
+        <v>68</v>
+      </c>
+      <c r="F102">
+        <v>12278.08</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103">
+        <v>7002</v>
+      </c>
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103">
+        <v>19</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>659.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104">
+        <v>40089</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104">
+        <v>49</v>
+      </c>
+      <c r="E104">
+        <v>49</v>
+      </c>
+      <c r="F104">
+        <v>38566.43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105">
+        <v>35004</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>796.14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106">
+        <v>7056</v>
+      </c>
+      <c r="C106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>64.34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107">
+        <v>22128</v>
+      </c>
+      <c r="C107" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107">
+        <v>89</v>
+      </c>
+      <c r="E107">
+        <v>89</v>
+      </c>
+      <c r="F107">
+        <v>43647.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108">
+        <v>1712</v>
+      </c>
+      <c r="C108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108">
+        <v>67</v>
+      </c>
+      <c r="E108">
+        <v>67</v>
+      </c>
+      <c r="F108">
+        <v>12033.87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109">
+        <v>40051</v>
+      </c>
+      <c r="C109" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109">
+        <v>15</v>
+      </c>
+      <c r="E109">
+        <v>15</v>
+      </c>
+      <c r="F109">
+        <v>1264.05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110">
+        <v>7068</v>
+      </c>
+      <c r="C110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110">
+        <v>22</v>
+      </c>
+      <c r="E110">
+        <v>22</v>
+      </c>
+      <c r="F110">
+        <v>1036.42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111">
+        <v>40032</v>
+      </c>
+      <c r="C111" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111">
+        <v>56</v>
+      </c>
+      <c r="E111">
+        <v>56</v>
+      </c>
+      <c r="F111">
+        <v>9437.68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112">
+        <v>7012</v>
+      </c>
+      <c r="C112" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112">
+        <v>26</v>
+      </c>
+      <c r="E112">
+        <v>26</v>
+      </c>
+      <c r="F112">
+        <v>3505.06</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113">
+        <v>40084</v>
+      </c>
+      <c r="C113" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>510.98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114">
+        <v>1041</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114">
+        <v>178</v>
+      </c>
+      <c r="E114">
+        <v>178</v>
+      </c>
+      <c r="F114">
+        <v>24001.52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115">
+        <v>1707</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115">
+        <v>52</v>
+      </c>
+      <c r="E115">
+        <v>52</v>
+      </c>
+      <c r="F115">
+        <v>27822.08</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116">
+        <v>7066</v>
+      </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116">
+        <v>22</v>
+      </c>
+      <c r="E116">
+        <v>22</v>
+      </c>
+      <c r="F116">
+        <v>1115.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117">
+        <v>22511</v>
+      </c>
+      <c r="C117" t="s">
+        <v>65</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>2058.45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118">
+        <v>22142</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118">
+        <v>185</v>
+      </c>
+      <c r="E118">
+        <v>185</v>
+      </c>
+      <c r="F118">
+        <v>113547.45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119">
+        <v>40091</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119">
+        <v>140</v>
+      </c>
+      <c r="E119">
+        <v>137</v>
+      </c>
+      <c r="F119">
+        <v>12334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120">
+        <v>83010</v>
+      </c>
+      <c r="C120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>8</v>
+      </c>
+      <c r="F120">
+        <v>90153.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121">
+        <v>22105</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121">
+        <v>105</v>
+      </c>
+      <c r="E121">
+        <v>105</v>
+      </c>
+      <c r="F121">
+        <v>12648.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122">
+        <v>1041</v>
+      </c>
+      <c r="C122" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122">
+        <v>74</v>
+      </c>
+      <c r="E122">
+        <v>74</v>
+      </c>
+      <c r="F122">
+        <v>9978.16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123">
+        <v>1042</v>
+      </c>
+      <c r="C123" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123">
+        <v>44</v>
+      </c>
+      <c r="E123">
+        <v>44</v>
+      </c>
+      <c r="F123">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124">
+        <v>1702</v>
+      </c>
+      <c r="C124" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124">
+        <v>43</v>
+      </c>
+      <c r="E124">
+        <v>43</v>
+      </c>
+      <c r="F124">
+        <v>8280.08</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>85</v>
+      </c>
+      <c r="B125">
+        <v>69095</v>
+      </c>
+      <c r="C125" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>14407.38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126">
+        <v>66130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>21819.02</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>85</v>
+      </c>
+      <c r="B127">
+        <v>69151</v>
+      </c>
+      <c r="C127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127">
+        <v>92</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
+      </c>
+      <c r="F127">
+        <v>346009.47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128">
+        <v>200510</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128">
+        <v>81</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>2020272.64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129">
+        <v>69190</v>
+      </c>
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129">
+        <v>140</v>
+      </c>
+      <c r="E129">
+        <v>16</v>
+      </c>
+      <c r="F129">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>85</v>
+      </c>
+      <c r="B130">
+        <v>69140</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130">
+        <v>627</v>
+      </c>
+      <c r="E130">
+        <v>53</v>
+      </c>
+      <c r="F130">
+        <v>2651773.42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131">
+        <v>72040</v>
+      </c>
+      <c r="C131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>17225.37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132">
+        <v>69300</v>
+      </c>
+      <c r="C132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132">
+        <v>44</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133">
+        <v>78160</v>
+      </c>
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>26685.35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>85</v>
+      </c>
+      <c r="B134">
+        <v>69150</v>
+      </c>
+      <c r="C134" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134">
+        <v>11</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>34828.55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135">
+        <v>69090</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135">
+        <v>581</v>
+      </c>
+      <c r="E135">
+        <v>86</v>
+      </c>
+      <c r="F135">
+        <v>1665047.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>85</v>
+      </c>
+      <c r="B136">
+        <v>69020</v>
+      </c>
+      <c r="C136" t="s">
+        <v>80</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>36651.58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>85</v>
+      </c>
+      <c r="B137">
+        <v>200409</v>
+      </c>
+      <c r="C137" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137">
+        <v>30</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>304365.58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138">
+        <v>69070</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138">
+        <v>383</v>
+      </c>
+      <c r="E138">
+        <v>48</v>
+      </c>
+      <c r="F138">
+        <v>898482.72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>85</v>
+      </c>
+      <c r="B139">
+        <v>1702</v>
+      </c>
+      <c r="C139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139">
+        <v>31</v>
+      </c>
+      <c r="E139">
+        <v>31</v>
+      </c>
+      <c r="F139">
+        <v>5969.36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>85</v>
+      </c>
+      <c r="B140">
+        <v>69170</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>17341.86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>86</v>
+      </c>
+      <c r="B141">
+        <v>69140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141">
+        <v>81</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141">
+        <v>416781.68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142">
+        <v>69090</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142">
+        <v>84</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>198745.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143">
+        <v>69300</v>
+      </c>
+      <c r="C143" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143">
+        <v>14</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144">
+        <v>1042</v>
+      </c>
+      <c r="C144" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145">
+        <v>69151</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145">
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>112523.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146">
+        <v>69095</v>
+      </c>
+      <c r="C146" t="s">
+        <v>79</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>14407.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147">
+        <v>69191</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147">
+        <v>104</v>
+      </c>
+      <c r="E147">
+        <v>11</v>
+      </c>
+      <c r="F147">
+        <v>190727.24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148">
+        <v>1041</v>
+      </c>
+      <c r="C148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>134.84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>86</v>
+      </c>
+      <c r="B149">
+        <v>200523</v>
+      </c>
+      <c r="C149" t="s">
+        <v>43</v>
+      </c>
+      <c r="D149">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>213692.75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>86</v>
+      </c>
+      <c r="B150">
+        <v>70120</v>
+      </c>
+      <c r="C150" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150">
+        <v>13</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>29941.56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151">
+        <v>200409</v>
+      </c>
+      <c r="C151" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>152182.79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152">
+        <v>69180</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152">
+        <v>117</v>
+      </c>
+      <c r="E152">
+        <v>14</v>
+      </c>
+      <c r="F152">
+        <v>266225.39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153">
+        <v>69150</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>34828.55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>86</v>
+      </c>
+      <c r="B154">
+        <v>69070</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154">
+        <v>200</v>
+      </c>
+      <c r="E154">
+        <v>29</v>
+      </c>
+      <c r="F154">
+        <v>542833.31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155">
+        <v>69170</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155">
+        <v>18</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>34683.72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>86</v>
+      </c>
+      <c r="B156">
+        <v>1702</v>
+      </c>
+      <c r="C156" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156">
+        <v>30</v>
+      </c>
+      <c r="E156">
+        <v>30</v>
+      </c>
+      <c r="F156">
+        <v>5776.8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>86</v>
+      </c>
+      <c r="B157">
+        <v>200510</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157">
+        <v>266</v>
+      </c>
+      <c r="E157">
+        <v>22</v>
+      </c>
+      <c r="F157">
+        <v>5555749.76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>86</v>
+      </c>
+      <c r="B158">
+        <v>69190</v>
+      </c>
+      <c r="C158" t="s">
+        <v>32</v>
+      </c>
+      <c r="D158">
+        <v>549</v>
+      </c>
+      <c r="E158">
+        <v>60</v>
+      </c>
+      <c r="F158">
+        <v>2454000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>86</v>
+      </c>
+      <c r="B159">
+        <v>69200</v>
+      </c>
+      <c r="C159" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159">
+        <v>29</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>43293.58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>87</v>
+      </c>
+      <c r="B160">
+        <v>22124</v>
+      </c>
+      <c r="C160" t="s">
+        <v>88</v>
+      </c>
+      <c r="D160">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>9682.78</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>89</v>
+      </c>
+      <c r="B161">
+        <v>59004</v>
+      </c>
+      <c r="C161" t="s">
+        <v>90</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>35606.85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>91</v>
+      </c>
+      <c r="B162">
+        <v>69300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162">
+        <v>25</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>91</v>
+      </c>
+      <c r="B163">
+        <v>1702</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163">
+        <v>13</v>
+      </c>
+      <c r="E163">
+        <v>13</v>
+      </c>
+      <c r="F163">
+        <v>2503.28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>91</v>
+      </c>
+      <c r="B164">
+        <v>69170</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>11</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>22296.68</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>91</v>
+      </c>
+      <c r="B165">
+        <v>69190</v>
+      </c>
+      <c r="C165" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165">
+        <v>33</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>91</v>
+      </c>
+      <c r="B166">
+        <v>69070</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166">
+        <v>339</v>
+      </c>
+      <c r="E166">
+        <v>37</v>
+      </c>
+      <c r="F166">
+        <v>692580.43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>91</v>
+      </c>
+      <c r="B167">
+        <v>69140</v>
+      </c>
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167">
+        <v>130</v>
+      </c>
+      <c r="E167">
+        <v>9</v>
+      </c>
+      <c r="F167">
+        <v>442830.53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>91</v>
+      </c>
+      <c r="B168">
+        <v>69080</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168">
+        <v>38</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168">
+        <v>119358</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169">
+        <v>1042</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="F169">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>91</v>
+      </c>
+      <c r="B170">
+        <v>200510</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170">
+        <v>31</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170">
+        <v>757602.24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>91</v>
+      </c>
+      <c r="B171">
+        <v>69090</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171">
+        <v>503</v>
+      </c>
+      <c r="E171">
+        <v>52</v>
+      </c>
+      <c r="F171">
+        <v>1006978.24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>91</v>
+      </c>
+      <c r="B172">
+        <v>1041</v>
+      </c>
+      <c r="C172" t="s">
+        <v>59</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>134.84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>91</v>
+      </c>
+      <c r="B173">
+        <v>200409</v>
+      </c>
+      <c r="C173" t="s">
+        <v>35</v>
+      </c>
+      <c r="D173">
+        <v>10</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>152182.79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>91</v>
+      </c>
+      <c r="B174">
+        <v>70120</v>
+      </c>
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174">
+        <v>27</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>29941.56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>91</v>
+      </c>
+      <c r="B175">
+        <v>69180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175">
+        <v>14</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>20038.47</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>92</v>
+      </c>
+      <c r="B176">
+        <v>83030</v>
+      </c>
+      <c r="C176" t="s">
+        <v>46</v>
+      </c>
+      <c r="D176">
+        <v>12</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>267670.68</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>92</v>
+      </c>
+      <c r="B177">
+        <v>83020</v>
+      </c>
+      <c r="C177" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177">
+        <v>11</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="F177">
+        <v>257000.94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>92</v>
+      </c>
+      <c r="B178">
+        <v>83010</v>
+      </c>
+      <c r="C178" t="s">
+        <v>44</v>
+      </c>
+      <c r="D178">
+        <v>26</v>
+      </c>
+      <c r="E178">
+        <v>25</v>
+      </c>
+      <c r="F178">
+        <v>213090.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>93</v>
+      </c>
+      <c r="B179">
+        <v>26148</v>
+      </c>
+      <c r="C179" t="s">
+        <v>94</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="F179">
+        <v>502.35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180">
+        <v>26228</v>
+      </c>
+      <c r="C180" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>243.85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181">
+        <v>26226</v>
+      </c>
+      <c r="C181" t="s">
+        <v>96</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>225.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>93</v>
+      </c>
+      <c r="B182">
+        <v>26001</v>
+      </c>
+      <c r="C182" t="s">
+        <v>97</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>93</v>
+      </c>
+      <c r="B183">
+        <v>28126</v>
+      </c>
+      <c r="C183" t="s">
+        <v>98</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+      <c r="F183">
+        <v>1486.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>99</v>
+      </c>
+      <c r="B184">
+        <v>200409</v>
+      </c>
+      <c r="C184" t="s">
+        <v>35</v>
+      </c>
+      <c r="D184">
+        <v>19</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>304365.58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>99</v>
+      </c>
+      <c r="B185">
+        <v>200522</v>
+      </c>
+      <c r="C185" t="s">
+        <v>100</v>
+      </c>
+      <c r="D185">
+        <v>7</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>185760.92</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>99</v>
+      </c>
+      <c r="B186">
+        <v>66130</v>
+      </c>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186">
+        <v>35</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+      <c r="F186">
+        <v>87276.08</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>99</v>
+      </c>
+      <c r="B187">
+        <v>69190</v>
+      </c>
+      <c r="C187" t="s">
+        <v>32</v>
+      </c>
+      <c r="D187">
+        <v>153</v>
+      </c>
+      <c r="E187">
+        <v>16</v>
+      </c>
+      <c r="F187">
+        <v>636000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>99</v>
+      </c>
+      <c r="B188">
+        <v>70120</v>
+      </c>
+      <c r="C188" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188">
+        <v>159</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
+      </c>
+      <c r="F188">
+        <v>449123.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>99</v>
+      </c>
+      <c r="B189">
+        <v>69180</v>
+      </c>
+      <c r="C189" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189">
+        <v>37</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>60115.41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>99</v>
+      </c>
+      <c r="B190">
+        <v>1041</v>
+      </c>
+      <c r="C190" t="s">
+        <v>59</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>404.52</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>99</v>
+      </c>
+      <c r="B191">
+        <v>200520</v>
+      </c>
+      <c r="C191" t="s">
+        <v>101</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>304733.22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>99</v>
+      </c>
+      <c r="B192">
+        <v>69070</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192">
+        <v>1531</v>
+      </c>
+      <c r="E192">
+        <v>169</v>
+      </c>
+      <c r="F192">
+        <v>3142609.67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>99</v>
+      </c>
+      <c r="B193">
+        <v>69090</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193">
+        <v>602</v>
+      </c>
+      <c r="E193">
+        <v>71</v>
+      </c>
+      <c r="F193">
+        <v>1349262.51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>99</v>
+      </c>
+      <c r="B194">
+        <v>1702</v>
+      </c>
+      <c r="C194" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194">
+        <v>16</v>
+      </c>
+      <c r="E194">
+        <v>16</v>
+      </c>
+      <c r="F194">
+        <v>3080.96</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>99</v>
+      </c>
+      <c r="B195">
+        <v>69140</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195">
+        <v>105</v>
+      </c>
+      <c r="E195">
+        <v>7</v>
+      </c>
+      <c r="F195">
+        <v>364683.97</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>99</v>
+      </c>
+      <c r="B196">
+        <v>200510</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196">
+        <v>95</v>
+      </c>
+      <c r="E196">
+        <v>9</v>
+      </c>
+      <c r="F196">
+        <v>2272806.72</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>99</v>
+      </c>
+      <c r="B197">
+        <v>72040</v>
+      </c>
+      <c r="C197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197">
+        <v>13</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>68901.45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198">
+        <v>40089</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>1574.14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>103</v>
+      </c>
+      <c r="B199">
+        <v>50042</v>
+      </c>
+      <c r="C199" t="s">
+        <v>104</v>
+      </c>
+      <c r="D199">
+        <v>43</v>
+      </c>
+      <c r="E199">
+        <v>43</v>
+      </c>
+      <c r="F199">
+        <v>2275.13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>103</v>
+      </c>
+      <c r="B200">
+        <v>50012</v>
+      </c>
+      <c r="C200" t="s">
+        <v>105</v>
+      </c>
+      <c r="D200">
+        <v>24</v>
+      </c>
+      <c r="E200">
+        <v>24</v>
+      </c>
+      <c r="F200">
+        <v>1713.84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>103</v>
+      </c>
+      <c r="B201">
+        <v>50031</v>
+      </c>
+      <c r="C201" t="s">
+        <v>106</v>
+      </c>
+      <c r="D201">
+        <v>56</v>
+      </c>
+      <c r="E201">
+        <v>56</v>
+      </c>
+      <c r="F201">
+        <v>1070.16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>103</v>
+      </c>
+      <c r="B202">
+        <v>50076</v>
+      </c>
+      <c r="C202" t="s">
+        <v>107</v>
+      </c>
+      <c r="D202">
+        <v>52</v>
+      </c>
+      <c r="E202">
+        <v>52</v>
+      </c>
+      <c r="F202">
+        <v>1010.36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>103</v>
+      </c>
+      <c r="B203">
+        <v>50047</v>
+      </c>
+      <c r="C203" t="s">
+        <v>108</v>
+      </c>
+      <c r="D203">
+        <v>45</v>
+      </c>
+      <c r="E203">
+        <v>45</v>
+      </c>
+      <c r="F203">
+        <v>859.95</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>103</v>
+      </c>
+      <c r="B204">
+        <v>50139</v>
+      </c>
+      <c r="C204" t="s">
+        <v>109</v>
+      </c>
+      <c r="D204">
+        <v>42</v>
+      </c>
+      <c r="E204">
+        <v>42</v>
+      </c>
+      <c r="F204">
+        <v>3083.22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>103</v>
+      </c>
+      <c r="B205">
+        <v>1102</v>
+      </c>
+      <c r="C205" t="s">
+        <v>110</v>
+      </c>
+      <c r="D205">
+        <v>71</v>
+      </c>
+      <c r="E205">
+        <v>71</v>
+      </c>
+      <c r="F205">
+        <v>3420.78</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>103</v>
+      </c>
+      <c r="B206">
+        <v>1101</v>
+      </c>
+      <c r="C206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D206">
+        <v>51</v>
+      </c>
+      <c r="E206">
+        <v>51</v>
+      </c>
+      <c r="F206">
+        <v>3142.11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>103</v>
+      </c>
+      <c r="B207">
+        <v>50065</v>
+      </c>
+      <c r="C207" t="s">
+        <v>112</v>
+      </c>
+      <c r="D207">
+        <v>10</v>
+      </c>
+      <c r="E207">
+        <v>10</v>
+      </c>
+      <c r="F207">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>103</v>
+      </c>
+      <c r="B208">
+        <v>50007</v>
+      </c>
+      <c r="C208" t="s">
+        <v>113</v>
+      </c>
+      <c r="D208">
+        <v>24</v>
+      </c>
+      <c r="E208">
+        <v>24</v>
+      </c>
+      <c r="F208">
+        <v>797.52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>103</v>
+      </c>
+      <c r="B209">
+        <v>50043</v>
+      </c>
+      <c r="C209" t="s">
+        <v>114</v>
+      </c>
+      <c r="D209">
+        <v>11</v>
+      </c>
+      <c r="E209">
+        <v>11</v>
+      </c>
+      <c r="F209">
+        <v>768.13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>103</v>
+      </c>
+      <c r="B210">
+        <v>50066</v>
+      </c>
+      <c r="C210" t="s">
+        <v>115</v>
+      </c>
+      <c r="D210">
+        <v>36</v>
+      </c>
+      <c r="E210">
+        <v>36</v>
+      </c>
+      <c r="F210">
+        <v>1153.44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>103</v>
+      </c>
+      <c r="B211">
+        <v>50013</v>
+      </c>
+      <c r="C211" t="s">
+        <v>116</v>
+      </c>
+      <c r="D211">
+        <v>49</v>
+      </c>
+      <c r="E211">
+        <v>49</v>
+      </c>
+      <c r="F211">
+        <v>6045.13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>103</v>
+      </c>
+      <c r="B212">
+        <v>50006</v>
+      </c>
+      <c r="C212" t="s">
+        <v>117</v>
+      </c>
+      <c r="D212">
+        <v>97</v>
+      </c>
+      <c r="E212">
+        <v>97</v>
+      </c>
+      <c r="F212">
+        <v>1853.67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>103</v>
+      </c>
+      <c r="B213">
+        <v>1702</v>
+      </c>
+      <c r="C213" t="s">
+        <v>21</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>192.56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>118</v>
+      </c>
+      <c r="B214">
+        <v>70120</v>
+      </c>
+      <c r="C214" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214">
+        <v>70</v>
+      </c>
+      <c r="E214">
+        <v>3</v>
+      </c>
+      <c r="F214">
+        <v>80842.24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>118</v>
+      </c>
+      <c r="B215">
+        <v>69170</v>
+      </c>
+      <c r="C215" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215">
+        <v>12</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>17341.86</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>118</v>
+      </c>
+      <c r="B216">
+        <v>69070</v>
+      </c>
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216">
+        <v>33</v>
+      </c>
+      <c r="E216">
+        <v>3</v>
+      </c>
+      <c r="F216">
+        <v>56155.17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>118</v>
+      </c>
+      <c r="B217">
+        <v>200523</v>
+      </c>
+      <c r="C217" t="s">
+        <v>43</v>
+      </c>
+      <c r="D217">
+        <v>14</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>213692.75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>118</v>
+      </c>
+      <c r="B218">
+        <v>69190</v>
+      </c>
+      <c r="C218" t="s">
+        <v>32</v>
+      </c>
+      <c r="D218">
+        <v>17</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>118</v>
+      </c>
+      <c r="B219">
+        <v>72042</v>
+      </c>
+      <c r="C219" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>118</v>
+      </c>
+      <c r="B220">
+        <v>72100</v>
+      </c>
+      <c r="C220" t="s">
+        <v>119</v>
+      </c>
+      <c r="D220">
+        <v>7</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>21572.67</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>118</v>
+      </c>
+      <c r="B221">
+        <v>72090</v>
+      </c>
+      <c r="C221" t="s">
+        <v>120</v>
+      </c>
+      <c r="D221">
+        <v>10</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>65693.72</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>118</v>
+      </c>
+      <c r="B222">
+        <v>69090</v>
+      </c>
+      <c r="C222" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222">
+        <v>297</v>
+      </c>
+      <c r="E222">
+        <v>34</v>
+      </c>
+      <c r="F222">
+        <v>554280.11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>118</v>
+      </c>
+      <c r="B223">
+        <v>78160</v>
+      </c>
+      <c r="C223" t="s">
+        <v>31</v>
+      </c>
+      <c r="D223">
+        <v>10</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>19407.53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>118</v>
+      </c>
+      <c r="B224">
+        <v>200510</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224">
+        <v>87</v>
+      </c>
+      <c r="E224">
+        <v>11</v>
+      </c>
+      <c r="F224">
+        <v>2777874.88</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>118</v>
+      </c>
+      <c r="B225">
+        <v>69140</v>
+      </c>
+      <c r="C225" t="s">
+        <v>26</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>20839.08</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>118</v>
+      </c>
+      <c r="B226">
+        <v>72040</v>
+      </c>
+      <c r="C226" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226">
+        <v>26</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226">
+        <v>160770.09</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>118</v>
+      </c>
+      <c r="B227">
+        <v>69300</v>
+      </c>
+      <c r="C227" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227">
+        <v>25</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>121</v>
+      </c>
+      <c r="B228">
+        <v>1302</v>
+      </c>
+      <c r="C228" t="s">
+        <v>122</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>74.07</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>121</v>
+      </c>
+      <c r="B229">
+        <v>9016</v>
+      </c>
+      <c r="C229" t="s">
+        <v>123</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+      <c r="E229">
+        <v>7</v>
+      </c>
+      <c r="F229">
+        <v>407.19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>121</v>
+      </c>
+      <c r="B230">
+        <v>9401</v>
+      </c>
+      <c r="C230" t="s">
+        <v>124</v>
+      </c>
+      <c r="D230">
+        <v>18</v>
+      </c>
+      <c r="E230">
+        <v>18</v>
+      </c>
+      <c r="F230">
+        <v>1965.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>121</v>
+      </c>
+      <c r="B231">
+        <v>9006</v>
+      </c>
+      <c r="C231" t="s">
+        <v>125</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>228.18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>121</v>
+      </c>
+      <c r="B232">
+        <v>9159</v>
+      </c>
+      <c r="C232" t="s">
+        <v>126</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>75.78</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>121</v>
+      </c>
+      <c r="B233">
+        <v>1271</v>
+      </c>
+      <c r="C233" t="s">
+        <v>127</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>84.53</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>121</v>
+      </c>
+      <c r="B234">
+        <v>9010</v>
+      </c>
+      <c r="C234" t="s">
+        <v>128</v>
+      </c>
+      <c r="D234">
+        <v>4</v>
+      </c>
+      <c r="E234">
+        <v>4</v>
+      </c>
+      <c r="F234">
+        <v>158.12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>121</v>
+      </c>
+      <c r="B235">
+        <v>9200</v>
+      </c>
+      <c r="C235" t="s">
+        <v>129</v>
+      </c>
+      <c r="D235">
+        <v>17</v>
+      </c>
+      <c r="E235">
+        <v>17</v>
+      </c>
+      <c r="F235">
+        <v>856.29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>121</v>
+      </c>
+      <c r="B236">
+        <v>9402</v>
+      </c>
+      <c r="C236" t="s">
+        <v>130</v>
+      </c>
+      <c r="D236">
+        <v>27</v>
+      </c>
+      <c r="E236">
+        <v>27</v>
+      </c>
+      <c r="F236">
+        <v>2690.55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>121</v>
+      </c>
+      <c r="B237">
+        <v>9007</v>
+      </c>
+      <c r="C237" t="s">
+        <v>131</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>282.04</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>121</v>
+      </c>
+      <c r="B238">
+        <v>9043</v>
+      </c>
+      <c r="C238" t="s">
+        <v>132</v>
+      </c>
+      <c r="D238">
+        <v>4</v>
+      </c>
+      <c r="E238">
+        <v>4</v>
+      </c>
+      <c r="F238">
+        <v>184.08</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>121</v>
+      </c>
+      <c r="B239">
+        <v>9045</v>
+      </c>
+      <c r="C239" t="s">
+        <v>133</v>
+      </c>
+      <c r="D239">
+        <v>8</v>
+      </c>
+      <c r="E239">
+        <v>8</v>
+      </c>
+      <c r="F239">
+        <v>799.84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>121</v>
+      </c>
+      <c r="B240">
+        <v>9046</v>
+      </c>
+      <c r="C240" t="s">
+        <v>134</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240">
+        <v>116.31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>121</v>
+      </c>
+      <c r="B241">
+        <v>9207</v>
+      </c>
+      <c r="C241" t="s">
+        <v>135</v>
+      </c>
+      <c r="D241">
+        <v>22</v>
+      </c>
+      <c r="E241">
+        <v>22</v>
+      </c>
+      <c r="F241">
+        <v>3073.18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>121</v>
+      </c>
+      <c r="B242">
+        <v>1071</v>
+      </c>
+      <c r="C242" t="s">
+        <v>136</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>223.54</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>121</v>
+      </c>
+      <c r="B243">
+        <v>9004</v>
+      </c>
+      <c r="C243" t="s">
+        <v>137</v>
+      </c>
+      <c r="D243">
+        <v>4</v>
+      </c>
+      <c r="E243">
+        <v>4</v>
+      </c>
+      <c r="F243">
+        <v>239.72</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>121</v>
+      </c>
+      <c r="B244">
+        <v>9150</v>
+      </c>
+      <c r="C244" t="s">
+        <v>138</v>
+      </c>
+      <c r="D244">
+        <v>22</v>
+      </c>
+      <c r="E244">
+        <v>22</v>
+      </c>
+      <c r="F244">
+        <v>1468.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>121</v>
+      </c>
+      <c r="B245">
+        <v>9032</v>
+      </c>
+      <c r="C245" t="s">
+        <v>139</v>
+      </c>
+      <c r="D245">
+        <v>10</v>
+      </c>
+      <c r="E245">
+        <v>10</v>
+      </c>
+      <c r="F245">
+        <v>705.7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>121</v>
+      </c>
+      <c r="B246">
+        <v>9001</v>
+      </c>
+      <c r="C246" t="s">
+        <v>140</v>
+      </c>
+      <c r="D246">
+        <v>23</v>
+      </c>
+      <c r="E246">
+        <v>23</v>
+      </c>
+      <c r="F246">
+        <v>1662.21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>121</v>
+      </c>
+      <c r="B247">
+        <v>9003</v>
+      </c>
+      <c r="C247" t="s">
+        <v>141</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>106.18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>121</v>
+      </c>
+      <c r="B248">
+        <v>9074</v>
+      </c>
+      <c r="C248" t="s">
+        <v>142</v>
+      </c>
+      <c r="D248">
+        <v>10</v>
+      </c>
+      <c r="E248">
+        <v>10</v>
+      </c>
+      <c r="F248">
+        <v>1152.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>121</v>
+      </c>
+      <c r="B249">
+        <v>9005</v>
+      </c>
+      <c r="C249" t="s">
+        <v>143</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>215.86</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>121</v>
+      </c>
+      <c r="B250">
+        <v>1301</v>
+      </c>
+      <c r="C250" t="s">
+        <v>144</v>
+      </c>
+      <c r="D250">
+        <v>9</v>
+      </c>
+      <c r="E250">
+        <v>9</v>
+      </c>
+      <c r="F250">
+        <v>1005.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>121</v>
+      </c>
+      <c r="B251">
+        <v>9011</v>
+      </c>
+      <c r="C251" t="s">
+        <v>145</v>
+      </c>
+      <c r="D251">
+        <v>7</v>
+      </c>
+      <c r="E251">
+        <v>7</v>
+      </c>
+      <c r="F251">
+        <v>401.1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>146</v>
+      </c>
+      <c r="B252">
+        <v>69100</v>
+      </c>
+      <c r="C252" t="s">
+        <v>147</v>
+      </c>
+      <c r="D252">
+        <v>9</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>32351.47</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>146</v>
+      </c>
+      <c r="B253">
+        <v>200510</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253">
+        <v>117</v>
+      </c>
+      <c r="E253">
+        <v>3</v>
+      </c>
+      <c r="F253">
+        <v>757602.24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>146</v>
+      </c>
+      <c r="B254">
+        <v>200523</v>
+      </c>
+      <c r="C254" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254">
+        <v>150</v>
+      </c>
+      <c r="E254">
+        <v>18</v>
+      </c>
+      <c r="F254">
+        <v>3846469.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>146</v>
+      </c>
+      <c r="B255">
+        <v>70050</v>
+      </c>
+      <c r="C255" t="s">
+        <v>148</v>
+      </c>
+      <c r="D255">
+        <v>4</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>15718.04</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>146</v>
+      </c>
+      <c r="B256">
+        <v>200520</v>
+      </c>
+      <c r="C256" t="s">
+        <v>101</v>
+      </c>
+      <c r="D256">
+        <v>30</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256">
+        <v>914199.66</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>146</v>
+      </c>
+      <c r="B257">
+        <v>22142</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>613.77</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>146</v>
+      </c>
+      <c r="B258">
+        <v>200524</v>
+      </c>
+      <c r="C258" t="s">
+        <v>149</v>
+      </c>
+      <c r="D258">
+        <v>23</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>543945</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>146</v>
+      </c>
+      <c r="B259">
+        <v>66130</v>
+      </c>
+      <c r="C259" t="s">
+        <v>23</v>
+      </c>
+      <c r="D259">
+        <v>4</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>21819.02</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>146</v>
+      </c>
+      <c r="B260">
+        <v>200522</v>
+      </c>
+      <c r="C260" t="s">
+        <v>100</v>
+      </c>
+      <c r="D260">
+        <v>143</v>
+      </c>
+      <c r="E260">
+        <v>20</v>
+      </c>
+      <c r="F260">
+        <v>3624174.67</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>146</v>
+      </c>
+      <c r="B261">
+        <v>69070</v>
+      </c>
+      <c r="C261" t="s">
+        <v>17</v>
+      </c>
+      <c r="D261">
+        <v>624</v>
+      </c>
+      <c r="E261">
+        <v>93</v>
+      </c>
+      <c r="F261">
+        <v>1603542.06</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>146</v>
+      </c>
+      <c r="B262">
+        <v>69140</v>
+      </c>
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262">
+        <v>168</v>
+      </c>
+      <c r="E262">
+        <v>16</v>
+      </c>
+      <c r="F262">
+        <v>823143.81</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>146</v>
+      </c>
+      <c r="B263">
+        <v>70120</v>
+      </c>
+      <c r="C263" t="s">
+        <v>40</v>
+      </c>
+      <c r="D263">
+        <v>29</v>
+      </c>
+      <c r="E263">
+        <v>3</v>
+      </c>
+      <c r="F263">
+        <v>89824.68</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>146</v>
+      </c>
+      <c r="B264">
+        <v>69095</v>
+      </c>
+      <c r="C264" t="s">
+        <v>79</v>
+      </c>
+      <c r="D264">
+        <v>18</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>28814.76</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>146</v>
+      </c>
+      <c r="B265">
+        <v>66250</v>
+      </c>
+      <c r="C265" t="s">
+        <v>150</v>
+      </c>
+      <c r="D265">
+        <v>6</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>28874.75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>146</v>
+      </c>
+      <c r="B266">
+        <v>69090</v>
+      </c>
+      <c r="C266" t="s">
+        <v>18</v>
+      </c>
+      <c r="D266">
+        <v>747</v>
+      </c>
+      <c r="E266">
+        <v>100</v>
+      </c>
+      <c r="F266">
+        <v>1866001.37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>146</v>
+      </c>
+      <c r="B267">
+        <v>69110</v>
+      </c>
+      <c r="C267" t="s">
+        <v>151</v>
+      </c>
+      <c r="D267">
+        <v>111</v>
+      </c>
+      <c r="E267">
+        <v>11</v>
+      </c>
+      <c r="F267">
+        <v>480893.71</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>146</v>
+      </c>
+      <c r="B268">
+        <v>69190</v>
+      </c>
+      <c r="C268" t="s">
+        <v>32</v>
+      </c>
+      <c r="D268">
+        <v>148</v>
+      </c>
+      <c r="E268">
+        <v>18</v>
+      </c>
+      <c r="F268">
+        <v>756000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>146</v>
+      </c>
+      <c r="B269">
+        <v>200519</v>
+      </c>
+      <c r="C269" t="s">
+        <v>152</v>
+      </c>
+      <c r="D269">
+        <v>89</v>
+      </c>
+      <c r="E269">
+        <v>10</v>
+      </c>
+      <c r="F269">
+        <v>2394330.9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>146</v>
+      </c>
+      <c r="B270">
+        <v>200518</v>
+      </c>
+      <c r="C270" t="s">
+        <v>153</v>
+      </c>
+      <c r="D270">
+        <v>253</v>
+      </c>
+      <c r="E270">
+        <v>22</v>
+      </c>
+      <c r="F270">
+        <v>4583476.92</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>146</v>
+      </c>
+      <c r="B271">
+        <v>78160</v>
+      </c>
+      <c r="C271" t="s">
+        <v>31</v>
+      </c>
+      <c r="D271">
+        <v>13</v>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>38815.06</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>146</v>
+      </c>
+      <c r="B272">
+        <v>69020</v>
+      </c>
+      <c r="C272" t="s">
+        <v>80</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>36651.58</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>154</v>
+      </c>
+      <c r="B273">
+        <v>35004</v>
+      </c>
+      <c r="C273" t="s">
+        <v>82</v>
+      </c>
+      <c r="D273">
+        <v>333</v>
+      </c>
+      <c r="E273">
+        <v>333</v>
+      </c>
+      <c r="F273">
+        <v>132557.31</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>154</v>
+      </c>
+      <c r="B274">
+        <v>35002</v>
+      </c>
+      <c r="C274" t="s">
+        <v>155</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>274.69</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>156</v>
+      </c>
+      <c r="B275">
+        <v>21027</v>
+      </c>
+      <c r="C275" t="s">
+        <v>157</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1015.42</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>156</v>
+      </c>
+      <c r="B276">
+        <v>21022</v>
+      </c>
+      <c r="C276" t="s">
+        <v>158</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>613.85</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>156</v>
+      </c>
+      <c r="B277">
+        <v>3043</v>
+      </c>
+      <c r="C277" t="s">
+        <v>159</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>148.46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>160</v>
+      </c>
+      <c r="B278">
+        <v>26167</v>
+      </c>
+      <c r="C278" t="s">
+        <v>161</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>172.72</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>160</v>
+      </c>
+      <c r="B279">
+        <v>28019</v>
+      </c>
+      <c r="C279" t="s">
+        <v>162</v>
+      </c>
+      <c r="D279">
+        <v>88</v>
+      </c>
+      <c r="E279">
+        <v>88</v>
+      </c>
+      <c r="F279">
+        <v>10581.12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>160</v>
+      </c>
+      <c r="B280">
+        <v>25125</v>
+      </c>
+      <c r="C280" t="s">
+        <v>163</v>
+      </c>
+      <c r="D280">
+        <v>122</v>
+      </c>
+      <c r="E280">
+        <v>122</v>
+      </c>
+      <c r="F280">
+        <v>9311.04</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>160</v>
+      </c>
+      <c r="B281">
+        <v>26002</v>
+      </c>
+      <c r="C281" t="s">
+        <v>164</v>
+      </c>
+      <c r="D281">
+        <v>7223</v>
+      </c>
+      <c r="E281">
+        <v>738</v>
+      </c>
+      <c r="F281">
+        <v>391053.22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>160</v>
+      </c>
+      <c r="B282">
+        <v>25016</v>
+      </c>
+      <c r="C282" t="s">
+        <v>165</v>
+      </c>
+      <c r="D282">
+        <v>547</v>
+      </c>
+      <c r="E282">
+        <v>547</v>
+      </c>
+      <c r="F282">
+        <v>32923.93</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>160</v>
+      </c>
+      <c r="B283">
+        <v>26054</v>
+      </c>
+      <c r="C283" t="s">
+        <v>166</v>
+      </c>
+      <c r="D283">
+        <v>165</v>
+      </c>
+      <c r="E283">
+        <v>165</v>
+      </c>
+      <c r="F283">
+        <v>69964.95</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>160</v>
+      </c>
+      <c r="B284">
+        <v>25064</v>
+      </c>
+      <c r="C284" t="s">
+        <v>167</v>
+      </c>
+      <c r="D284">
+        <v>627</v>
+      </c>
+      <c r="E284">
+        <v>627</v>
+      </c>
+      <c r="F284">
+        <v>123199.23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>160</v>
+      </c>
+      <c r="B285">
+        <v>26003</v>
+      </c>
+      <c r="C285" t="s">
+        <v>168</v>
+      </c>
+      <c r="D285">
+        <v>42</v>
+      </c>
+      <c r="E285">
+        <v>32</v>
+      </c>
+      <c r="F285">
+        <v>4186.56</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>160</v>
+      </c>
+      <c r="B286">
+        <v>26098</v>
+      </c>
+      <c r="C286" t="s">
+        <v>169</v>
+      </c>
+      <c r="D286">
+        <v>132</v>
+      </c>
+      <c r="E286">
+        <v>132</v>
+      </c>
+      <c r="F286">
+        <v>32312.28</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>170</v>
+      </c>
+      <c r="B287">
+        <v>9005</v>
+      </c>
+      <c r="C287" t="s">
+        <v>143</v>
+      </c>
+      <c r="D287">
+        <v>8</v>
+      </c>
+      <c r="E287">
+        <v>8</v>
+      </c>
+      <c r="F287">
+        <v>863.44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>170</v>
+      </c>
+      <c r="B288">
+        <v>9006</v>
+      </c>
+      <c r="C288" t="s">
+        <v>125</v>
+      </c>
+      <c r="D288">
+        <v>5</v>
+      </c>
+      <c r="E288">
+        <v>5</v>
+      </c>
+      <c r="F288">
+        <v>570.45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>170</v>
+      </c>
+      <c r="B289">
+        <v>1301</v>
+      </c>
+      <c r="C289" t="s">
+        <v>144</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>3</v>
+      </c>
+      <c r="F289">
+        <v>335.1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>170</v>
+      </c>
+      <c r="B290">
+        <v>9046</v>
+      </c>
+      <c r="C290" t="s">
+        <v>134</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>38.77</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>170</v>
+      </c>
+      <c r="B291">
+        <v>9150</v>
+      </c>
+      <c r="C291" t="s">
+        <v>138</v>
+      </c>
+      <c r="D291">
+        <v>20</v>
+      </c>
+      <c r="E291">
+        <v>20</v>
+      </c>
+      <c r="F291">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>170</v>
+      </c>
+      <c r="B292">
+        <v>9004</v>
+      </c>
+      <c r="C292" t="s">
+        <v>137</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292">
+        <v>179.79</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>170</v>
+      </c>
+      <c r="B293">
+        <v>9011</v>
+      </c>
+      <c r="C293" t="s">
+        <v>145</v>
+      </c>
+      <c r="D293">
+        <v>13</v>
+      </c>
+      <c r="E293">
+        <v>13</v>
+      </c>
+      <c r="F293">
+        <v>744.9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>170</v>
+      </c>
+      <c r="B294">
+        <v>9016</v>
+      </c>
+      <c r="C294" t="s">
+        <v>123</v>
+      </c>
+      <c r="D294">
+        <v>11</v>
+      </c>
+      <c r="E294">
+        <v>11</v>
+      </c>
+      <c r="F294">
+        <v>639.87</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>170</v>
+      </c>
+      <c r="B295">
+        <v>9043</v>
+      </c>
+      <c r="C295" t="s">
+        <v>132</v>
+      </c>
+      <c r="D295">
+        <v>3</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+      <c r="F295">
+        <v>138.06</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>170</v>
+      </c>
+      <c r="B296">
+        <v>9007</v>
+      </c>
+      <c r="C296" t="s">
+        <v>131</v>
+      </c>
+      <c r="D296">
+        <v>6</v>
+      </c>
+      <c r="E296">
+        <v>6</v>
+      </c>
+      <c r="F296">
+        <v>846.12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>170</v>
+      </c>
+      <c r="B297">
+        <v>9032</v>
+      </c>
+      <c r="C297" t="s">
+        <v>139</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>8</v>
+      </c>
+      <c r="F297">
+        <v>564.56</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>170</v>
+      </c>
+      <c r="B298">
+        <v>1071</v>
+      </c>
+      <c r="C298" t="s">
+        <v>136</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+      <c r="E298">
+        <v>3</v>
+      </c>
+      <c r="F298">
+        <v>335.31</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>170</v>
+      </c>
+      <c r="B299">
+        <v>1041</v>
+      </c>
+      <c r="C299" t="s">
+        <v>59</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+      <c r="E299">
+        <v>3</v>
+      </c>
+      <c r="F299">
+        <v>404.52</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>170</v>
+      </c>
+      <c r="B300">
+        <v>9003</v>
+      </c>
+      <c r="C300" t="s">
+        <v>141</v>
+      </c>
+      <c r="D300">
+        <v>3</v>
+      </c>
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300">
+        <v>318.54</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>170</v>
+      </c>
+      <c r="B301">
+        <v>9045</v>
+      </c>
+      <c r="C301" t="s">
+        <v>133</v>
+      </c>
+      <c r="D301">
+        <v>6</v>
+      </c>
+      <c r="E301">
+        <v>6</v>
+      </c>
+      <c r="F301">
+        <v>599.88</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>170</v>
+      </c>
+      <c r="B302">
+        <v>9401</v>
+      </c>
+      <c r="C302" t="s">
+        <v>124</v>
+      </c>
+      <c r="D302">
+        <v>8</v>
+      </c>
+      <c r="E302">
+        <v>8</v>
+      </c>
+      <c r="F302">
+        <v>873.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>170</v>
+      </c>
+      <c r="B303">
+        <v>9200</v>
+      </c>
+      <c r="C303" t="s">
+        <v>129</v>
+      </c>
+      <c r="D303">
+        <v>19</v>
+      </c>
+      <c r="E303">
+        <v>19</v>
+      </c>
+      <c r="F303">
+        <v>957.03</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>170</v>
+      </c>
+      <c r="B304">
+        <v>9010</v>
+      </c>
+      <c r="C304" t="s">
+        <v>128</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>170</v>
+      </c>
+      <c r="B305">
+        <v>9001</v>
+      </c>
+      <c r="C305" t="s">
+        <v>140</v>
+      </c>
+      <c r="D305">
+        <v>18</v>
+      </c>
+      <c r="E305">
+        <v>18</v>
+      </c>
+      <c r="F305">
+        <v>1300.86</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>170</v>
+      </c>
+      <c r="B306">
+        <v>1042</v>
+      </c>
+      <c r="C306" t="s">
+        <v>30</v>
+      </c>
+      <c r="D306">
+        <v>4</v>
+      </c>
+      <c r="E306">
+        <v>4</v>
+      </c>
+      <c r="F306">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>170</v>
+      </c>
+      <c r="B307">
+        <v>9207</v>
+      </c>
+      <c r="C307" t="s">
+        <v>135</v>
+      </c>
+      <c r="D307">
+        <v>20</v>
+      </c>
+      <c r="E307">
+        <v>20</v>
+      </c>
+      <c r="F307">
+        <v>2793.8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>170</v>
+      </c>
+      <c r="B308">
+        <v>9153</v>
+      </c>
+      <c r="C308" t="s">
+        <v>171</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>35.23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>170</v>
+      </c>
+      <c r="B309">
+        <v>9159</v>
+      </c>
+      <c r="C309" t="s">
+        <v>126</v>
+      </c>
+      <c r="D309">
+        <v>8</v>
+      </c>
+      <c r="E309">
+        <v>8</v>
+      </c>
+      <c r="F309">
+        <v>303.12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>170</v>
+      </c>
+      <c r="B310">
+        <v>9402</v>
+      </c>
+      <c r="C310" t="s">
+        <v>130</v>
+      </c>
+      <c r="D310">
+        <v>24</v>
+      </c>
+      <c r="E310">
+        <v>24</v>
+      </c>
+      <c r="F310">
+        <v>2391.6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +7126,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <headerFooter differentFirst="1">
-    <firstHeader>ОМС 3</firstHeader>
+    <firstHeader>Report</firstHeader>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
